--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="84">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -623,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,8 +686,8 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
+      <c r="C2">
+        <v>9804119</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -707,20 +707,20 @@
       <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
+      <c r="K2">
+        <v>2022</v>
       </c>
       <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
-        <v>55</v>
+      <c r="M2">
+        <v>20069956</v>
       </c>
       <c r="N2" t="s">
         <v>59</v>
       </c>
-      <c r="O2" t="s">
-        <v>55</v>
+      <c r="O2">
+        <v>20069956</v>
       </c>
       <c r="P2" t="s">
         <v>63</v>
@@ -733,8 +733,8 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
+      <c r="C3">
+        <v>14360920</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -754,20 +754,20 @@
       <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
-        <v>48</v>
+      <c r="K3">
+        <v>2022</v>
       </c>
       <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" t="s">
-        <v>55</v>
+      <c r="M3">
+        <v>20069956</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="O3" t="s">
-        <v>55</v>
+      <c r="O3">
+        <v>20069956</v>
       </c>
       <c r="P3" t="s">
         <v>63</v>
@@ -780,8 +780,8 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
+      <c r="C4">
+        <v>14360920</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -801,20 +801,20 @@
       <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" t="s">
-        <v>48</v>
+      <c r="K4">
+        <v>2022</v>
       </c>
       <c r="L4" t="s">
         <v>51</v>
       </c>
-      <c r="M4" t="s">
-        <v>55</v>
+      <c r="M4">
+        <v>20069956</v>
       </c>
       <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="O4" t="s">
-        <v>55</v>
+      <c r="O4">
+        <v>20069956</v>
       </c>
       <c r="P4" t="s">
         <v>63</v>
@@ -827,8 +827,8 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>14360920</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
@@ -848,20 +848,20 @@
       <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" t="s">
-        <v>48</v>
+      <c r="K5">
+        <v>2022</v>
       </c>
       <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
-        <v>55</v>
+      <c r="M5">
+        <v>20069956</v>
       </c>
       <c r="N5" t="s">
         <v>59</v>
       </c>
-      <c r="O5" t="s">
-        <v>55</v>
+      <c r="O5">
+        <v>20069956</v>
       </c>
       <c r="P5" t="s">
         <v>63</v>
@@ -874,8 +874,8 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
+      <c r="C6">
+        <v>35591059</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -895,20 +895,20 @@
       <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" t="s">
-        <v>49</v>
+      <c r="K6">
+        <v>2021</v>
       </c>
       <c r="L6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" t="s">
-        <v>56</v>
+      <c r="M6">
+        <v>40422142</v>
       </c>
       <c r="N6" t="s">
         <v>60</v>
       </c>
-      <c r="O6" t="s">
-        <v>56</v>
+      <c r="O6">
+        <v>40422142</v>
       </c>
       <c r="P6" t="s">
         <v>64</v>
@@ -921,8 +921,8 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
+      <c r="C7">
+        <v>35591059</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -942,20 +942,20 @@
       <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" t="s">
-        <v>49</v>
+      <c r="K7">
+        <v>2021</v>
       </c>
       <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="M7" t="s">
-        <v>56</v>
+      <c r="M7">
+        <v>40422142</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="O7" t="s">
-        <v>56</v>
+      <c r="O7">
+        <v>40422142</v>
       </c>
       <c r="P7" t="s">
         <v>64</v>
@@ -968,8 +968,8 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
+      <c r="C8">
+        <v>35591059</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -989,20 +989,20 @@
       <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
-        <v>49</v>
+      <c r="K8">
+        <v>2021</v>
       </c>
       <c r="L8" t="s">
         <v>52</v>
       </c>
-      <c r="M8" t="s">
-        <v>56</v>
+      <c r="M8">
+        <v>40422142</v>
       </c>
       <c r="N8" t="s">
         <v>60</v>
       </c>
-      <c r="O8" t="s">
-        <v>56</v>
+      <c r="O8">
+        <v>40422142</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -1015,8 +1015,8 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
+      <c r="C9">
+        <v>35591059</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1036,20 +1036,20 @@
       <c r="J9" t="s">
         <v>43</v>
       </c>
-      <c r="K9" t="s">
-        <v>49</v>
+      <c r="K9">
+        <v>2021</v>
       </c>
       <c r="L9" t="s">
         <v>52</v>
       </c>
-      <c r="M9" t="s">
-        <v>56</v>
+      <c r="M9">
+        <v>40422142</v>
       </c>
       <c r="N9" t="s">
         <v>60</v>
       </c>
-      <c r="O9" t="s">
-        <v>56</v>
+      <c r="O9">
+        <v>40422142</v>
       </c>
       <c r="P9" t="s">
         <v>64</v>
@@ -1062,8 +1062,8 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
+      <c r="C10">
+        <v>35591059</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1083,20 +1083,20 @@
       <c r="J10" t="s">
         <v>43</v>
       </c>
-      <c r="K10" t="s">
-        <v>48</v>
+      <c r="K10">
+        <v>2022</v>
       </c>
       <c r="L10" t="s">
         <v>52</v>
       </c>
-      <c r="M10" t="s">
-        <v>56</v>
+      <c r="M10">
+        <v>40422142</v>
       </c>
       <c r="N10" t="s">
         <v>60</v>
       </c>
-      <c r="O10" t="s">
-        <v>56</v>
+      <c r="O10">
+        <v>40422142</v>
       </c>
       <c r="P10" t="s">
         <v>65</v>
@@ -1109,8 +1109,8 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
+      <c r="C11">
+        <v>35591059</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1130,20 +1130,20 @@
       <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" t="s">
-        <v>48</v>
+      <c r="K11">
+        <v>2022</v>
       </c>
       <c r="L11" t="s">
         <v>52</v>
       </c>
-      <c r="M11" t="s">
-        <v>56</v>
+      <c r="M11">
+        <v>40422142</v>
       </c>
       <c r="N11" t="s">
         <v>60</v>
       </c>
-      <c r="O11" t="s">
-        <v>56</v>
+      <c r="O11">
+        <v>40422142</v>
       </c>
       <c r="P11" t="s">
         <v>65</v>
@@ -1156,8 +1156,8 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
+      <c r="C12">
+        <v>35591059</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1177,20 +1177,20 @@
       <c r="J12" t="s">
         <v>43</v>
       </c>
-      <c r="K12" t="s">
-        <v>48</v>
+      <c r="K12">
+        <v>2022</v>
       </c>
       <c r="L12" t="s">
         <v>52</v>
       </c>
-      <c r="M12" t="s">
-        <v>56</v>
+      <c r="M12">
+        <v>40422142</v>
       </c>
       <c r="N12" t="s">
         <v>60</v>
       </c>
-      <c r="O12" t="s">
-        <v>56</v>
+      <c r="O12">
+        <v>40422142</v>
       </c>
       <c r="P12" t="s">
         <v>65</v>
@@ -1203,8 +1203,8 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
+      <c r="C13">
+        <v>35591059</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1224,20 +1224,20 @@
       <c r="J13" t="s">
         <v>43</v>
       </c>
-      <c r="K13" t="s">
-        <v>48</v>
+      <c r="K13">
+        <v>2022</v>
       </c>
       <c r="L13" t="s">
         <v>52</v>
       </c>
-      <c r="M13" t="s">
-        <v>56</v>
+      <c r="M13">
+        <v>40422142</v>
       </c>
       <c r="N13" t="s">
         <v>60</v>
       </c>
-      <c r="O13" t="s">
-        <v>56</v>
+      <c r="O13">
+        <v>40422142</v>
       </c>
       <c r="P13" t="s">
         <v>65</v>
@@ -1250,8 +1250,8 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
+      <c r="C14">
+        <v>9804119</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -1271,20 +1271,20 @@
       <c r="J14" t="s">
         <v>44</v>
       </c>
-      <c r="K14" t="s">
-        <v>49</v>
+      <c r="K14">
+        <v>2021</v>
       </c>
       <c r="L14" t="s">
         <v>51</v>
       </c>
-      <c r="M14" t="s">
-        <v>55</v>
+      <c r="M14">
+        <v>20069956</v>
       </c>
       <c r="N14" t="s">
         <v>59</v>
       </c>
-      <c r="O14" t="s">
-        <v>55</v>
+      <c r="O14">
+        <v>20069956</v>
       </c>
       <c r="P14" t="s">
         <v>66</v>
@@ -1297,8 +1297,8 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
+      <c r="C15">
+        <v>9804119</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
@@ -1309,8 +1309,8 @@
       <c r="F15">
         <v>16390400</v>
       </c>
-      <c r="G15" t="s">
-        <v>39</v>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>41</v>
@@ -1321,20 +1321,20 @@
       <c r="J15" t="s">
         <v>45</v>
       </c>
-      <c r="K15" t="s">
-        <v>49</v>
+      <c r="K15">
+        <v>2021</v>
       </c>
       <c r="L15" t="s">
         <v>51</v>
       </c>
-      <c r="M15" t="s">
-        <v>55</v>
+      <c r="M15">
+        <v>20069956</v>
       </c>
       <c r="N15" t="s">
         <v>59</v>
       </c>
-      <c r="O15" t="s">
-        <v>55</v>
+      <c r="O15">
+        <v>20069956</v>
       </c>
       <c r="P15" t="s">
         <v>67</v>
@@ -1347,8 +1347,8 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
+      <c r="C16">
+        <v>9804119</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -1359,8 +1359,8 @@
       <c r="F16">
         <v>16390400</v>
       </c>
-      <c r="G16" t="s">
-        <v>39</v>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>41</v>
@@ -1371,20 +1371,20 @@
       <c r="J16" t="s">
         <v>46</v>
       </c>
-      <c r="K16" t="s">
-        <v>49</v>
+      <c r="K16">
+        <v>2021</v>
       </c>
       <c r="L16" t="s">
         <v>51</v>
       </c>
-      <c r="M16" t="s">
-        <v>55</v>
+      <c r="M16">
+        <v>20069956</v>
       </c>
       <c r="N16" t="s">
         <v>59</v>
       </c>
-      <c r="O16" t="s">
-        <v>55</v>
+      <c r="O16">
+        <v>20069956</v>
       </c>
       <c r="P16" t="s">
         <v>68</v>
@@ -1397,8 +1397,8 @@
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
+      <c r="C17">
+        <v>35810511</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
@@ -1418,20 +1418,20 @@
       <c r="J17" t="s">
         <v>44</v>
       </c>
-      <c r="K17" t="s">
-        <v>49</v>
+      <c r="K17">
+        <v>2021</v>
       </c>
       <c r="L17" t="s">
         <v>53</v>
       </c>
-      <c r="M17" t="s">
-        <v>57</v>
+      <c r="M17">
+        <v>21715714</v>
       </c>
       <c r="N17" t="s">
         <v>61</v>
       </c>
-      <c r="O17" t="s">
-        <v>57</v>
+      <c r="O17">
+        <v>21715714</v>
       </c>
       <c r="P17" t="s">
         <v>69</v>
@@ -1444,8 +1444,8 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
+      <c r="C18">
+        <v>35810511</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -1456,8 +1456,8 @@
       <c r="F18">
         <v>16233562</v>
       </c>
-      <c r="G18" t="s">
-        <v>39</v>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -1468,20 +1468,20 @@
       <c r="J18" t="s">
         <v>44</v>
       </c>
-      <c r="K18" t="s">
-        <v>49</v>
+      <c r="K18">
+        <v>2021</v>
       </c>
       <c r="L18" t="s">
         <v>53</v>
       </c>
-      <c r="M18" t="s">
-        <v>57</v>
+      <c r="M18">
+        <v>21715714</v>
       </c>
       <c r="N18" t="s">
         <v>61</v>
       </c>
-      <c r="O18" t="s">
-        <v>57</v>
+      <c r="O18">
+        <v>21715714</v>
       </c>
       <c r="P18" t="s">
         <v>69</v>
@@ -1494,8 +1494,8 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
+      <c r="C19">
+        <v>35810511</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -1515,20 +1515,20 @@
       <c r="J19" t="s">
         <v>45</v>
       </c>
-      <c r="K19" t="s">
-        <v>49</v>
+      <c r="K19">
+        <v>2021</v>
       </c>
       <c r="L19" t="s">
         <v>53</v>
       </c>
-      <c r="M19" t="s">
-        <v>57</v>
+      <c r="M19">
+        <v>21715714</v>
       </c>
       <c r="N19" t="s">
         <v>61</v>
       </c>
-      <c r="O19" t="s">
-        <v>57</v>
+      <c r="O19">
+        <v>21715714</v>
       </c>
       <c r="P19" t="s">
         <v>70</v>
@@ -1541,8 +1541,8 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
+      <c r="C20">
+        <v>35810511</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -1553,8 +1553,8 @@
       <c r="F20">
         <v>16233562</v>
       </c>
-      <c r="G20" t="s">
-        <v>39</v>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>41</v>
@@ -1565,20 +1565,20 @@
       <c r="J20" t="s">
         <v>45</v>
       </c>
-      <c r="K20" t="s">
-        <v>49</v>
+      <c r="K20">
+        <v>2021</v>
       </c>
       <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="M20" t="s">
-        <v>57</v>
+      <c r="M20">
+        <v>21715714</v>
       </c>
       <c r="N20" t="s">
         <v>61</v>
       </c>
-      <c r="O20" t="s">
-        <v>57</v>
+      <c r="O20">
+        <v>21715714</v>
       </c>
       <c r="P20" t="s">
         <v>70</v>
@@ -1591,8 +1591,8 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>28</v>
+      <c r="C21">
+        <v>35810511</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -1603,8 +1603,8 @@
       <c r="F21">
         <v>8713662</v>
       </c>
-      <c r="G21" t="s">
-        <v>39</v>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>41</v>
@@ -1615,20 +1615,20 @@
       <c r="J21" t="s">
         <v>46</v>
       </c>
-      <c r="K21" t="s">
-        <v>49</v>
+      <c r="K21">
+        <v>2021</v>
       </c>
       <c r="L21" t="s">
         <v>53</v>
       </c>
-      <c r="M21" t="s">
-        <v>57</v>
+      <c r="M21">
+        <v>21715714</v>
       </c>
       <c r="N21" t="s">
         <v>61</v>
       </c>
-      <c r="O21" t="s">
-        <v>57</v>
+      <c r="O21">
+        <v>21715714</v>
       </c>
       <c r="P21" t="s">
         <v>71</v>
@@ -1641,8 +1641,8 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>28</v>
+      <c r="C22">
+        <v>35810511</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
@@ -1653,8 +1653,8 @@
       <c r="F22">
         <v>16233562</v>
       </c>
-      <c r="G22" t="s">
-        <v>39</v>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22" t="s">
         <v>41</v>
@@ -1665,20 +1665,20 @@
       <c r="J22" t="s">
         <v>46</v>
       </c>
-      <c r="K22" t="s">
-        <v>49</v>
+      <c r="K22">
+        <v>2021</v>
       </c>
       <c r="L22" t="s">
         <v>53</v>
       </c>
-      <c r="M22" t="s">
-        <v>57</v>
+      <c r="M22">
+        <v>21715714</v>
       </c>
       <c r="N22" t="s">
         <v>61</v>
       </c>
-      <c r="O22" t="s">
-        <v>57</v>
+      <c r="O22">
+        <v>21715714</v>
       </c>
       <c r="P22" t="s">
         <v>71</v>
@@ -1691,8 +1691,8 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>28</v>
+      <c r="C23">
+        <v>35810511</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
@@ -1703,8 +1703,8 @@
       <c r="F23">
         <v>8713662</v>
       </c>
-      <c r="G23" t="s">
-        <v>39</v>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23" t="s">
         <v>41</v>
@@ -1715,20 +1715,20 @@
       <c r="J23" t="s">
         <v>47</v>
       </c>
-      <c r="K23" t="s">
-        <v>49</v>
+      <c r="K23">
+        <v>2021</v>
       </c>
       <c r="L23" t="s">
         <v>53</v>
       </c>
-      <c r="M23" t="s">
-        <v>57</v>
+      <c r="M23">
+        <v>21715714</v>
       </c>
       <c r="N23" t="s">
         <v>61</v>
       </c>
-      <c r="O23" t="s">
-        <v>57</v>
+      <c r="O23">
+        <v>21715714</v>
       </c>
       <c r="P23" t="s">
         <v>72</v>
@@ -1741,8 +1741,8 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
+      <c r="C24">
+        <v>35810511</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -1753,8 +1753,8 @@
       <c r="F24">
         <v>16233562</v>
       </c>
-      <c r="G24" t="s">
-        <v>39</v>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
@@ -1765,20 +1765,20 @@
       <c r="J24" t="s">
         <v>47</v>
       </c>
-      <c r="K24" t="s">
-        <v>49</v>
+      <c r="K24">
+        <v>2021</v>
       </c>
       <c r="L24" t="s">
         <v>53</v>
       </c>
-      <c r="M24" t="s">
-        <v>57</v>
+      <c r="M24">
+        <v>21715714</v>
       </c>
       <c r="N24" t="s">
         <v>61</v>
       </c>
-      <c r="O24" t="s">
-        <v>57</v>
+      <c r="O24">
+        <v>21715714</v>
       </c>
       <c r="P24" t="s">
         <v>72</v>
@@ -1791,8 +1791,8 @@
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
+      <c r="C25">
+        <v>9804119</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1812,20 +1812,20 @@
       <c r="J25" t="s">
         <v>47</v>
       </c>
-      <c r="K25" t="s">
-        <v>49</v>
+      <c r="K25">
+        <v>2021</v>
       </c>
       <c r="L25" t="s">
         <v>51</v>
       </c>
-      <c r="M25" t="s">
-        <v>55</v>
+      <c r="M25">
+        <v>20069956</v>
       </c>
       <c r="N25" t="s">
         <v>59</v>
       </c>
-      <c r="O25" t="s">
-        <v>55</v>
+      <c r="O25">
+        <v>20069956</v>
       </c>
       <c r="P25" t="s">
         <v>73</v>
@@ -1838,8 +1838,8 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="C26">
+        <v>35810511</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
@@ -1850,8 +1850,8 @@
       <c r="F26">
         <v>11069661</v>
       </c>
-      <c r="G26" t="s">
-        <v>39</v>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" t="s">
         <v>41</v>
@@ -1862,20 +1862,20 @@
       <c r="J26" t="s">
         <v>44</v>
       </c>
-      <c r="K26" t="s">
-        <v>48</v>
+      <c r="K26">
+        <v>2022</v>
       </c>
       <c r="L26" t="s">
         <v>53</v>
       </c>
-      <c r="M26" t="s">
-        <v>57</v>
+      <c r="M26">
+        <v>21715714</v>
       </c>
       <c r="N26" t="s">
         <v>61</v>
       </c>
-      <c r="O26" t="s">
-        <v>57</v>
+      <c r="O26">
+        <v>21715714</v>
       </c>
       <c r="P26" t="s">
         <v>74</v>
@@ -1888,8 +1888,8 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
-        <v>28</v>
+      <c r="C27">
+        <v>35810511</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
@@ -1900,8 +1900,8 @@
       <c r="F27">
         <v>20622787</v>
       </c>
-      <c r="G27" t="s">
-        <v>39</v>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
@@ -1912,20 +1912,20 @@
       <c r="J27" t="s">
         <v>44</v>
       </c>
-      <c r="K27" t="s">
-        <v>48</v>
+      <c r="K27">
+        <v>2022</v>
       </c>
       <c r="L27" t="s">
         <v>53</v>
       </c>
-      <c r="M27" t="s">
-        <v>57</v>
+      <c r="M27">
+        <v>21715714</v>
       </c>
       <c r="N27" t="s">
         <v>61</v>
       </c>
-      <c r="O27" t="s">
-        <v>57</v>
+      <c r="O27">
+        <v>21715714</v>
       </c>
       <c r="P27" t="s">
         <v>74</v>
@@ -1938,8 +1938,8 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
-        <v>26</v>
+      <c r="C28">
+        <v>14360920</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1959,20 +1959,20 @@
       <c r="J28" t="s">
         <v>43</v>
       </c>
-      <c r="K28" t="s">
-        <v>50</v>
+      <c r="K28">
+        <v>2023</v>
       </c>
       <c r="L28" t="s">
         <v>51</v>
       </c>
-      <c r="M28" t="s">
-        <v>55</v>
+      <c r="M28">
+        <v>20069956</v>
       </c>
       <c r="N28" t="s">
         <v>59</v>
       </c>
-      <c r="O28" t="s">
-        <v>55</v>
+      <c r="O28">
+        <v>20069956</v>
       </c>
       <c r="P28" t="s">
         <v>75</v>
@@ -1985,8 +1985,8 @@
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
-        <v>26</v>
+      <c r="C29">
+        <v>14360920</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
@@ -2006,20 +2006,20 @@
       <c r="J29" t="s">
         <v>43</v>
       </c>
-      <c r="K29" t="s">
-        <v>50</v>
+      <c r="K29">
+        <v>2023</v>
       </c>
       <c r="L29" t="s">
         <v>51</v>
       </c>
-      <c r="M29" t="s">
-        <v>55</v>
+      <c r="M29">
+        <v>20069956</v>
       </c>
       <c r="N29" t="s">
         <v>59</v>
       </c>
-      <c r="O29" t="s">
-        <v>55</v>
+      <c r="O29">
+        <v>20069956</v>
       </c>
       <c r="P29" t="s">
         <v>75</v>
@@ -2032,8 +2032,8 @@
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
+      <c r="C30">
+        <v>14360920</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -2053,20 +2053,20 @@
       <c r="J30" t="s">
         <v>43</v>
       </c>
-      <c r="K30" t="s">
-        <v>50</v>
+      <c r="K30">
+        <v>2023</v>
       </c>
       <c r="L30" t="s">
         <v>51</v>
       </c>
-      <c r="M30" t="s">
-        <v>55</v>
+      <c r="M30">
+        <v>20069956</v>
       </c>
       <c r="N30" t="s">
         <v>59</v>
       </c>
-      <c r="O30" t="s">
-        <v>55</v>
+      <c r="O30">
+        <v>20069956</v>
       </c>
       <c r="P30" t="s">
         <v>75</v>
@@ -2079,8 +2079,8 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
+      <c r="C31">
+        <v>14360920</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -2100,20 +2100,20 @@
       <c r="J31" t="s">
         <v>43</v>
       </c>
-      <c r="K31" t="s">
-        <v>50</v>
+      <c r="K31">
+        <v>2023</v>
       </c>
       <c r="L31" t="s">
         <v>51</v>
       </c>
-      <c r="M31" t="s">
-        <v>55</v>
+      <c r="M31">
+        <v>20069956</v>
       </c>
       <c r="N31" t="s">
         <v>59</v>
       </c>
-      <c r="O31" t="s">
-        <v>55</v>
+      <c r="O31">
+        <v>20069956</v>
       </c>
       <c r="P31" t="s">
         <v>75</v>
@@ -2126,8 +2126,8 @@
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
-        <v>28</v>
+      <c r="C32">
+        <v>35810511</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -2138,8 +2138,8 @@
       <c r="F32">
         <v>9962695</v>
       </c>
-      <c r="G32" t="s">
-        <v>39</v>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32" t="s">
         <v>41</v>
@@ -2150,20 +2150,20 @@
       <c r="J32" t="s">
         <v>45</v>
       </c>
-      <c r="K32" t="s">
-        <v>48</v>
+      <c r="K32">
+        <v>2022</v>
       </c>
       <c r="L32" t="s">
         <v>53</v>
       </c>
-      <c r="M32" t="s">
-        <v>57</v>
+      <c r="M32">
+        <v>21715714</v>
       </c>
       <c r="N32" t="s">
         <v>61</v>
       </c>
-      <c r="O32" t="s">
-        <v>57</v>
+      <c r="O32">
+        <v>21715714</v>
       </c>
       <c r="P32" t="s">
         <v>76</v>
@@ -2176,8 +2176,8 @@
       <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
-        <v>28</v>
+      <c r="C33">
+        <v>35810511</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -2188,8 +2188,8 @@
       <c r="F33">
         <v>18560508</v>
       </c>
-      <c r="G33" t="s">
-        <v>39</v>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>41</v>
@@ -2200,20 +2200,20 @@
       <c r="J33" t="s">
         <v>45</v>
       </c>
-      <c r="K33" t="s">
-        <v>48</v>
+      <c r="K33">
+        <v>2022</v>
       </c>
       <c r="L33" t="s">
         <v>53</v>
       </c>
-      <c r="M33" t="s">
-        <v>57</v>
+      <c r="M33">
+        <v>21715714</v>
       </c>
       <c r="N33" t="s">
         <v>61</v>
       </c>
-      <c r="O33" t="s">
-        <v>57</v>
+      <c r="O33">
+        <v>21715714</v>
       </c>
       <c r="P33" t="s">
         <v>76</v>
@@ -2226,8 +2226,8 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
-        <v>28</v>
+      <c r="C34">
+        <v>35810511</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -2238,8 +2238,8 @@
       <c r="F34">
         <v>9962695</v>
       </c>
-      <c r="G34" t="s">
-        <v>39</v>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34" t="s">
         <v>41</v>
@@ -2250,20 +2250,20 @@
       <c r="J34" t="s">
         <v>46</v>
       </c>
-      <c r="K34" t="s">
-        <v>48</v>
+      <c r="K34">
+        <v>2022</v>
       </c>
       <c r="L34" t="s">
         <v>53</v>
       </c>
-      <c r="M34" t="s">
-        <v>57</v>
+      <c r="M34">
+        <v>21715714</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
       </c>
-      <c r="O34" t="s">
-        <v>57</v>
+      <c r="O34">
+        <v>21715714</v>
       </c>
       <c r="P34" t="s">
         <v>77</v>
@@ -2276,8 +2276,8 @@
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
-        <v>28</v>
+      <c r="C35">
+        <v>35810511</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -2288,8 +2288,8 @@
       <c r="F35">
         <v>18560508</v>
       </c>
-      <c r="G35" t="s">
-        <v>39</v>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35" t="s">
         <v>41</v>
@@ -2300,20 +2300,20 @@
       <c r="J35" t="s">
         <v>46</v>
       </c>
-      <c r="K35" t="s">
-        <v>48</v>
+      <c r="K35">
+        <v>2022</v>
       </c>
       <c r="L35" t="s">
         <v>53</v>
       </c>
-      <c r="M35" t="s">
-        <v>57</v>
+      <c r="M35">
+        <v>21715714</v>
       </c>
       <c r="N35" t="s">
         <v>61</v>
       </c>
-      <c r="O35" t="s">
-        <v>57</v>
+      <c r="O35">
+        <v>21715714</v>
       </c>
       <c r="P35" t="s">
         <v>77</v>
@@ -2326,8 +2326,8 @@
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
-        <v>28</v>
+      <c r="C36">
+        <v>35810511</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -2338,8 +2338,8 @@
       <c r="F36">
         <v>8855728</v>
       </c>
-      <c r="G36" t="s">
-        <v>39</v>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36" t="s">
         <v>41</v>
@@ -2350,20 +2350,20 @@
       <c r="J36" t="s">
         <v>47</v>
       </c>
-      <c r="K36" t="s">
-        <v>48</v>
+      <c r="K36">
+        <v>2022</v>
       </c>
       <c r="L36" t="s">
         <v>53</v>
       </c>
-      <c r="M36" t="s">
-        <v>57</v>
+      <c r="M36">
+        <v>21715714</v>
       </c>
       <c r="N36" t="s">
         <v>61</v>
       </c>
-      <c r="O36" t="s">
-        <v>57</v>
+      <c r="O36">
+        <v>21715714</v>
       </c>
       <c r="P36" t="s">
         <v>78</v>
@@ -2376,8 +2376,8 @@
       <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
-        <v>28</v>
+      <c r="C37">
+        <v>35810511</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -2388,8 +2388,8 @@
       <c r="F37">
         <v>16498230</v>
       </c>
-      <c r="G37" t="s">
-        <v>39</v>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37" t="s">
         <v>41</v>
@@ -2400,20 +2400,20 @@
       <c r="J37" t="s">
         <v>47</v>
       </c>
-      <c r="K37" t="s">
-        <v>48</v>
+      <c r="K37">
+        <v>2022</v>
       </c>
       <c r="L37" t="s">
         <v>53</v>
       </c>
-      <c r="M37" t="s">
-        <v>57</v>
+      <c r="M37">
+        <v>21715714</v>
       </c>
       <c r="N37" t="s">
         <v>61</v>
       </c>
-      <c r="O37" t="s">
-        <v>57</v>
+      <c r="O37">
+        <v>21715714</v>
       </c>
       <c r="P37" t="s">
         <v>78</v>
@@ -2426,8 +2426,8 @@
       <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38" t="s">
-        <v>29</v>
+      <c r="C38">
+        <v>14305909</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -2447,20 +2447,20 @@
       <c r="J38" t="s">
         <v>44</v>
       </c>
-      <c r="K38" t="s">
-        <v>49</v>
+      <c r="K38">
+        <v>2021</v>
       </c>
       <c r="L38" t="s">
         <v>54</v>
       </c>
-      <c r="M38" t="s">
-        <v>58</v>
+      <c r="M38">
+        <v>39651598</v>
       </c>
       <c r="N38" t="s">
         <v>62</v>
       </c>
-      <c r="O38" t="s">
-        <v>58</v>
+      <c r="O38">
+        <v>39651598</v>
       </c>
       <c r="P38" t="s">
         <v>79</v>
@@ -2473,8 +2473,8 @@
       <c r="B39" t="s">
         <v>23</v>
       </c>
-      <c r="C39" t="s">
-        <v>29</v>
+      <c r="C39">
+        <v>14305909</v>
       </c>
       <c r="D39" t="s">
         <v>35</v>
@@ -2485,8 +2485,8 @@
       <c r="F39">
         <v>20383025</v>
       </c>
-      <c r="G39" t="s">
-        <v>39</v>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39" t="s">
         <v>41</v>
@@ -2497,20 +2497,20 @@
       <c r="J39" t="s">
         <v>46</v>
       </c>
-      <c r="K39" t="s">
-        <v>49</v>
+      <c r="K39">
+        <v>2021</v>
       </c>
       <c r="L39" t="s">
         <v>54</v>
       </c>
-      <c r="M39" t="s">
-        <v>58</v>
+      <c r="M39">
+        <v>39651598</v>
       </c>
       <c r="N39" t="s">
         <v>62</v>
       </c>
-      <c r="O39" t="s">
-        <v>58</v>
+      <c r="O39">
+        <v>39651598</v>
       </c>
       <c r="P39" t="s">
         <v>80</v>
@@ -2523,8 +2523,8 @@
       <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C40" t="s">
-        <v>29</v>
+      <c r="C40">
+        <v>14305909</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -2544,20 +2544,20 @@
       <c r="J40" t="s">
         <v>47</v>
       </c>
-      <c r="K40" t="s">
-        <v>49</v>
+      <c r="K40">
+        <v>2021</v>
       </c>
       <c r="L40" t="s">
         <v>54</v>
       </c>
-      <c r="M40" t="s">
-        <v>58</v>
+      <c r="M40">
+        <v>39651598</v>
       </c>
       <c r="N40" t="s">
         <v>62</v>
       </c>
-      <c r="O40" t="s">
-        <v>58</v>
+      <c r="O40">
+        <v>39651598</v>
       </c>
       <c r="P40" t="s">
         <v>81</v>
@@ -2570,8 +2570,8 @@
       <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
-        <v>27</v>
+      <c r="C41">
+        <v>35591059</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -2591,20 +2591,20 @@
       <c r="J41" t="s">
         <v>43</v>
       </c>
-      <c r="K41" t="s">
-        <v>50</v>
+      <c r="K41">
+        <v>2023</v>
       </c>
       <c r="L41" t="s">
         <v>52</v>
       </c>
-      <c r="M41" t="s">
-        <v>56</v>
+      <c r="M41">
+        <v>40422142</v>
       </c>
       <c r="N41" t="s">
         <v>60</v>
       </c>
-      <c r="O41" t="s">
-        <v>56</v>
+      <c r="O41">
+        <v>40422142</v>
       </c>
       <c r="P41" t="s">
         <v>82</v>
@@ -2617,8 +2617,8 @@
       <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C42" t="s">
-        <v>27</v>
+      <c r="C42">
+        <v>35591059</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
@@ -2638,20 +2638,20 @@
       <c r="J42" t="s">
         <v>43</v>
       </c>
-      <c r="K42" t="s">
-        <v>50</v>
+      <c r="K42">
+        <v>2023</v>
       </c>
       <c r="L42" t="s">
         <v>52</v>
       </c>
-      <c r="M42" t="s">
-        <v>56</v>
+      <c r="M42">
+        <v>40422142</v>
       </c>
       <c r="N42" t="s">
         <v>60</v>
       </c>
-      <c r="O42" t="s">
-        <v>56</v>
+      <c r="O42">
+        <v>40422142</v>
       </c>
       <c r="P42" t="s">
         <v>82</v>
@@ -2664,8 +2664,8 @@
       <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
-        <v>27</v>
+      <c r="C43">
+        <v>35591059</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
@@ -2685,20 +2685,20 @@
       <c r="J43" t="s">
         <v>43</v>
       </c>
-      <c r="K43" t="s">
-        <v>50</v>
+      <c r="K43">
+        <v>2023</v>
       </c>
       <c r="L43" t="s">
         <v>52</v>
       </c>
-      <c r="M43" t="s">
-        <v>56</v>
+      <c r="M43">
+        <v>40422142</v>
       </c>
       <c r="N43" t="s">
         <v>60</v>
       </c>
-      <c r="O43" t="s">
-        <v>56</v>
+      <c r="O43">
+        <v>40422142</v>
       </c>
       <c r="P43" t="s">
         <v>82</v>
@@ -2711,8 +2711,8 @@
       <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44" t="s">
-        <v>27</v>
+      <c r="C44">
+        <v>35591059</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -2732,20 +2732,20 @@
       <c r="J44" t="s">
         <v>43</v>
       </c>
-      <c r="K44" t="s">
-        <v>50</v>
+      <c r="K44">
+        <v>2023</v>
       </c>
       <c r="L44" t="s">
         <v>52</v>
       </c>
-      <c r="M44" t="s">
-        <v>56</v>
+      <c r="M44">
+        <v>40422142</v>
       </c>
       <c r="N44" t="s">
         <v>60</v>
       </c>
-      <c r="O44" t="s">
-        <v>56</v>
+      <c r="O44">
+        <v>40422142</v>
       </c>
       <c r="P44" t="s">
         <v>82</v>
@@ -2758,8 +2758,8 @@
       <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C45" t="s">
-        <v>30</v>
+      <c r="C45">
+        <v>32112</v>
       </c>
       <c r="D45" t="s">
         <v>36</v>
@@ -2770,8 +2770,8 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" t="s">
-        <v>40</v>
+      <c r="G45">
+        <v>48967414.01</v>
       </c>
       <c r="H45" t="s">
         <v>41</v>
@@ -2782,20 +2782,20 @@
       <c r="J45" t="s">
         <v>43</v>
       </c>
-      <c r="K45" t="s">
-        <v>50</v>
+      <c r="K45">
+        <v>2023</v>
       </c>
       <c r="L45" t="s">
         <v>52</v>
       </c>
-      <c r="M45" t="s">
-        <v>56</v>
+      <c r="M45">
+        <v>40422142</v>
       </c>
       <c r="N45" t="s">
         <v>60</v>
       </c>
-      <c r="O45" t="s">
-        <v>56</v>
+      <c r="O45">
+        <v>40422142</v>
       </c>
       <c r="P45" t="s">
         <v>82</v>
@@ -2808,8 +2808,8 @@
       <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
-        <v>28</v>
+      <c r="C46">
+        <v>35810511</v>
       </c>
       <c r="D46" t="s">
         <v>37</v>
@@ -2820,8 +2820,8 @@
       <c r="F46">
         <v>22341342</v>
       </c>
-      <c r="G46" t="s">
-        <v>39</v>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46" t="s">
         <v>41</v>
@@ -2832,20 +2832,20 @@
       <c r="J46" t="s">
         <v>43</v>
       </c>
-      <c r="K46" t="s">
-        <v>50</v>
+      <c r="K46">
+        <v>2023</v>
       </c>
       <c r="L46" t="s">
         <v>53</v>
       </c>
-      <c r="M46" t="s">
-        <v>57</v>
+      <c r="M46">
+        <v>21715714</v>
       </c>
       <c r="N46" t="s">
         <v>61</v>
       </c>
-      <c r="O46" t="s">
-        <v>57</v>
+      <c r="O46">
+        <v>21715714</v>
       </c>
       <c r="P46" t="s">
         <v>83</v>
@@ -2858,8 +2858,8 @@
       <c r="B47" t="s">
         <v>21</v>
       </c>
-      <c r="C47" t="s">
-        <v>28</v>
+      <c r="C47">
+        <v>35810511</v>
       </c>
       <c r="D47" t="s">
         <v>37</v>
@@ -2870,8 +2870,8 @@
       <c r="F47">
         <v>11992132</v>
       </c>
-      <c r="G47" t="s">
-        <v>39</v>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47" t="s">
         <v>41</v>
@@ -2882,20 +2882,20 @@
       <c r="J47" t="s">
         <v>43</v>
       </c>
-      <c r="K47" t="s">
-        <v>50</v>
+      <c r="K47">
+        <v>2023</v>
       </c>
       <c r="L47" t="s">
         <v>53</v>
       </c>
-      <c r="M47" t="s">
-        <v>57</v>
+      <c r="M47">
+        <v>21715714</v>
       </c>
       <c r="N47" t="s">
         <v>61</v>
       </c>
-      <c r="O47" t="s">
-        <v>57</v>
+      <c r="O47">
+        <v>21715714</v>
       </c>
       <c r="P47" t="s">
         <v>83</v>
@@ -2908,8 +2908,8 @@
       <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="C48" t="s">
-        <v>28</v>
+      <c r="C48">
+        <v>35810511</v>
       </c>
       <c r="D48" t="s">
         <v>38</v>
@@ -2920,8 +2920,8 @@
       <c r="F48">
         <v>11992132</v>
       </c>
-      <c r="G48" t="s">
-        <v>39</v>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48" t="s">
         <v>41</v>
@@ -2932,20 +2932,20 @@
       <c r="J48" t="s">
         <v>43</v>
       </c>
-      <c r="K48" t="s">
-        <v>50</v>
+      <c r="K48">
+        <v>2023</v>
       </c>
       <c r="L48" t="s">
         <v>53</v>
       </c>
-      <c r="M48" t="s">
-        <v>57</v>
+      <c r="M48">
+        <v>21715714</v>
       </c>
       <c r="N48" t="s">
         <v>61</v>
       </c>
-      <c r="O48" t="s">
-        <v>57</v>
+      <c r="O48">
+        <v>21715714</v>
       </c>
       <c r="P48" t="s">
         <v>83</v>
@@ -2958,8 +2958,8 @@
       <c r="B49" t="s">
         <v>21</v>
       </c>
-      <c r="C49" t="s">
-        <v>28</v>
+      <c r="C49">
+        <v>35810511</v>
       </c>
       <c r="D49" t="s">
         <v>38</v>
@@ -2970,8 +2970,8 @@
       <c r="F49">
         <v>22341342</v>
       </c>
-      <c r="G49" t="s">
-        <v>39</v>
+      <c r="G49">
+        <v>0</v>
       </c>
       <c r="H49" t="s">
         <v>41</v>
@@ -2982,20 +2982,20 @@
       <c r="J49" t="s">
         <v>43</v>
       </c>
-      <c r="K49" t="s">
-        <v>50</v>
+      <c r="K49">
+        <v>2023</v>
       </c>
       <c r="L49" t="s">
         <v>53</v>
       </c>
-      <c r="M49" t="s">
-        <v>57</v>
+      <c r="M49">
+        <v>21715714</v>
       </c>
       <c r="N49" t="s">
         <v>61</v>
       </c>
-      <c r="O49" t="s">
-        <v>57</v>
+      <c r="O49">
+        <v>21715714</v>
       </c>
       <c r="P49" t="s">
         <v>83</v>
@@ -3008,8 +3008,8 @@
       <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50" t="s">
-        <v>28</v>
+      <c r="C50">
+        <v>35810511</v>
       </c>
       <c r="D50" t="s">
         <v>38</v>
@@ -3020,8 +3020,8 @@
       <c r="F50">
         <v>11992132</v>
       </c>
-      <c r="G50" t="s">
-        <v>39</v>
+      <c r="G50">
+        <v>0</v>
       </c>
       <c r="H50" t="s">
         <v>41</v>
@@ -3032,20 +3032,20 @@
       <c r="J50" t="s">
         <v>43</v>
       </c>
-      <c r="K50" t="s">
-        <v>50</v>
+      <c r="K50">
+        <v>2023</v>
       </c>
       <c r="L50" t="s">
         <v>53</v>
       </c>
-      <c r="M50" t="s">
-        <v>57</v>
+      <c r="M50">
+        <v>21715714</v>
       </c>
       <c r="N50" t="s">
         <v>61</v>
       </c>
-      <c r="O50" t="s">
-        <v>57</v>
+      <c r="O50">
+        <v>21715714</v>
       </c>
       <c r="P50" t="s">
         <v>83</v>
@@ -3058,8 +3058,8 @@
       <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="C51" t="s">
-        <v>28</v>
+      <c r="C51">
+        <v>35810511</v>
       </c>
       <c r="D51" t="s">
         <v>38</v>
@@ -3070,8 +3070,8 @@
       <c r="F51">
         <v>22341342</v>
       </c>
-      <c r="G51" t="s">
-        <v>39</v>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51" t="s">
         <v>41</v>
@@ -3082,20 +3082,20 @@
       <c r="J51" t="s">
         <v>43</v>
       </c>
-      <c r="K51" t="s">
-        <v>50</v>
+      <c r="K51">
+        <v>2023</v>
       </c>
       <c r="L51" t="s">
         <v>53</v>
       </c>
-      <c r="M51" t="s">
-        <v>57</v>
+      <c r="M51">
+        <v>21715714</v>
       </c>
       <c r="N51" t="s">
         <v>61</v>
       </c>
-      <c r="O51" t="s">
-        <v>57</v>
+      <c r="O51">
+        <v>21715714</v>
       </c>
       <c r="P51" t="s">
         <v>83</v>
@@ -3108,8 +3108,8 @@
       <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C52" t="s">
-        <v>28</v>
+      <c r="C52">
+        <v>35810511</v>
       </c>
       <c r="D52" t="s">
         <v>38</v>
@@ -3120,8 +3120,8 @@
       <c r="F52">
         <v>11992132</v>
       </c>
-      <c r="G52" t="s">
-        <v>39</v>
+      <c r="G52">
+        <v>0</v>
       </c>
       <c r="H52" t="s">
         <v>41</v>
@@ -3132,20 +3132,20 @@
       <c r="J52" t="s">
         <v>43</v>
       </c>
-      <c r="K52" t="s">
-        <v>50</v>
+      <c r="K52">
+        <v>2023</v>
       </c>
       <c r="L52" t="s">
         <v>53</v>
       </c>
-      <c r="M52" t="s">
-        <v>57</v>
+      <c r="M52">
+        <v>21715714</v>
       </c>
       <c r="N52" t="s">
         <v>61</v>
       </c>
-      <c r="O52" t="s">
-        <v>57</v>
+      <c r="O52">
+        <v>21715714</v>
       </c>
       <c r="P52" t="s">
         <v>83</v>
@@ -3158,8 +3158,8 @@
       <c r="B53" t="s">
         <v>21</v>
       </c>
-      <c r="C53" t="s">
-        <v>28</v>
+      <c r="C53">
+        <v>35810511</v>
       </c>
       <c r="D53" t="s">
         <v>38</v>
@@ -3170,8 +3170,8 @@
       <c r="F53">
         <v>22341342</v>
       </c>
-      <c r="G53" t="s">
-        <v>39</v>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53" t="s">
         <v>41</v>
@@ -3182,22 +3182,2544 @@
       <c r="J53" t="s">
         <v>43</v>
       </c>
-      <c r="K53" t="s">
-        <v>50</v>
+      <c r="K53">
+        <v>2023</v>
       </c>
       <c r="L53" t="s">
         <v>53</v>
       </c>
-      <c r="M53" t="s">
-        <v>57</v>
+      <c r="M53">
+        <v>21715714</v>
       </c>
       <c r="N53" t="s">
         <v>61</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53">
+        <v>21715714</v>
+      </c>
+      <c r="P53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>21.01</v>
+      </c>
+      <c r="F54">
+        <v>20822025</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M54" t="s">
+        <v>55</v>
+      </c>
+      <c r="N54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O54" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55">
+        <v>30.06</v>
+      </c>
+      <c r="F55">
+        <v>18739822</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M55" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" t="s">
+        <v>59</v>
+      </c>
+      <c r="O55" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56">
+        <v>30.08</v>
+      </c>
+      <c r="F56">
+        <v>18739822</v>
+      </c>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56" t="s">
+        <v>51</v>
+      </c>
+      <c r="M56" t="s">
+        <v>55</v>
+      </c>
+      <c r="N56" t="s">
+        <v>59</v>
+      </c>
+      <c r="O56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57">
+        <v>20.1</v>
+      </c>
+      <c r="F57">
+        <v>16657620</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L57" t="s">
+        <v>51</v>
+      </c>
+      <c r="M57" t="s">
+        <v>55</v>
+      </c>
+      <c r="N57" t="s">
+        <v>59</v>
+      </c>
+      <c r="O57" t="s">
+        <v>55</v>
+      </c>
+      <c r="P57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>17.02</v>
+      </c>
+      <c r="F58">
+        <v>86406500</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" t="s">
+        <v>49</v>
+      </c>
+      <c r="L58" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" t="s">
+        <v>60</v>
+      </c>
+      <c r="O58" t="s">
+        <v>56</v>
+      </c>
+      <c r="P58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59">
+        <v>20.04</v>
+      </c>
+      <c r="F59">
+        <v>86406500</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" t="s">
+        <v>56</v>
+      </c>
+      <c r="N59" t="s">
+        <v>60</v>
+      </c>
+      <c r="O59" t="s">
+        <v>56</v>
+      </c>
+      <c r="P59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60">
+        <v>5.07</v>
+      </c>
+      <c r="F60">
+        <v>86406500</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" t="s">
+        <v>49</v>
+      </c>
+      <c r="L60" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" t="s">
+        <v>60</v>
+      </c>
+      <c r="O60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61">
+        <v>10.11</v>
+      </c>
+      <c r="F61">
+        <v>86406500</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" t="s">
+        <v>60</v>
+      </c>
+      <c r="O61" t="s">
+        <v>56</v>
+      </c>
+      <c r="P61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62">
+        <v>20.1</v>
+      </c>
+      <c r="F62">
+        <v>87815180</v>
+      </c>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L62" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" t="s">
+        <v>56</v>
+      </c>
+      <c r="N62" t="s">
+        <v>60</v>
+      </c>
+      <c r="O62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63">
+        <v>30.06</v>
+      </c>
+      <c r="F63">
+        <v>98792077</v>
+      </c>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L63" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" t="s">
+        <v>56</v>
+      </c>
+      <c r="N63" t="s">
+        <v>60</v>
+      </c>
+      <c r="O63" t="s">
+        <v>56</v>
+      </c>
+      <c r="P63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64">
+        <v>30.08</v>
+      </c>
+      <c r="F64">
+        <v>98792077</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" t="s">
+        <v>48</v>
+      </c>
+      <c r="L64" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" t="s">
+        <v>60</v>
+      </c>
+      <c r="O64" t="s">
+        <v>56</v>
+      </c>
+      <c r="P64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>21.01</v>
+      </c>
+      <c r="F65">
+        <v>109768975</v>
+      </c>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s">
+        <v>42</v>
+      </c>
+      <c r="J65" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L65" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" t="s">
+        <v>56</v>
+      </c>
+      <c r="N65" t="s">
+        <v>60</v>
+      </c>
+      <c r="O65" t="s">
+        <v>56</v>
+      </c>
+      <c r="P65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>17.02</v>
+      </c>
+      <c r="F66">
+        <v>16390400</v>
+      </c>
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s">
+        <v>44</v>
+      </c>
+      <c r="K66" t="s">
+        <v>49</v>
+      </c>
+      <c r="L66" t="s">
+        <v>51</v>
+      </c>
+      <c r="M66" t="s">
+        <v>55</v>
+      </c>
+      <c r="N66" t="s">
+        <v>59</v>
+      </c>
+      <c r="O66" t="s">
+        <v>55</v>
+      </c>
+      <c r="P66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>20.04</v>
+      </c>
+      <c r="F67">
+        <v>16390400</v>
+      </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67" t="s">
+        <v>51</v>
+      </c>
+      <c r="M67" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67" t="s">
+        <v>59</v>
+      </c>
+      <c r="O67" t="s">
+        <v>55</v>
+      </c>
+      <c r="P67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68">
+        <v>5.07</v>
+      </c>
+      <c r="F68">
+        <v>16390400</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68" t="s">
+        <v>49</v>
+      </c>
+      <c r="L68" t="s">
+        <v>51</v>
+      </c>
+      <c r="M68" t="s">
+        <v>55</v>
+      </c>
+      <c r="N68" t="s">
+        <v>59</v>
+      </c>
+      <c r="O68" t="s">
+        <v>55</v>
+      </c>
+      <c r="P68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>17.02</v>
+      </c>
+      <c r="F69">
+        <v>8713662</v>
+      </c>
+      <c r="H69" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L69" t="s">
+        <v>53</v>
+      </c>
+      <c r="M69" t="s">
         <v>57</v>
       </c>
-      <c r="P53" t="s">
+      <c r="N69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O69" t="s">
+        <v>57</v>
+      </c>
+      <c r="P69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70">
+        <v>17.02</v>
+      </c>
+      <c r="F70">
+        <v>16233562</v>
+      </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" t="s">
+        <v>49</v>
+      </c>
+      <c r="L70" t="s">
+        <v>53</v>
+      </c>
+      <c r="M70" t="s">
+        <v>57</v>
+      </c>
+      <c r="N70" t="s">
+        <v>61</v>
+      </c>
+      <c r="O70" t="s">
+        <v>57</v>
+      </c>
+      <c r="P70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71">
+        <v>20.04</v>
+      </c>
+      <c r="F71">
+        <v>8713662</v>
+      </c>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" t="s">
+        <v>49</v>
+      </c>
+      <c r="L71" t="s">
+        <v>53</v>
+      </c>
+      <c r="M71" t="s">
+        <v>57</v>
+      </c>
+      <c r="N71" t="s">
+        <v>61</v>
+      </c>
+      <c r="O71" t="s">
+        <v>57</v>
+      </c>
+      <c r="P71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72">
+        <v>20.04</v>
+      </c>
+      <c r="F72">
+        <v>16233562</v>
+      </c>
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" t="s">
+        <v>49</v>
+      </c>
+      <c r="L72" t="s">
+        <v>53</v>
+      </c>
+      <c r="M72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N72" t="s">
+        <v>61</v>
+      </c>
+      <c r="O72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>5.07</v>
+      </c>
+      <c r="F73">
+        <v>8713662</v>
+      </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" t="s">
+        <v>49</v>
+      </c>
+      <c r="L73" t="s">
+        <v>53</v>
+      </c>
+      <c r="M73" t="s">
+        <v>57</v>
+      </c>
+      <c r="N73" t="s">
+        <v>61</v>
+      </c>
+      <c r="O73" t="s">
+        <v>57</v>
+      </c>
+      <c r="P73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74">
+        <v>5.07</v>
+      </c>
+      <c r="F74">
+        <v>16233562</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" t="s">
+        <v>49</v>
+      </c>
+      <c r="L74" t="s">
+        <v>53</v>
+      </c>
+      <c r="M74" t="s">
+        <v>57</v>
+      </c>
+      <c r="N74" t="s">
+        <v>61</v>
+      </c>
+      <c r="O74" t="s">
+        <v>57</v>
+      </c>
+      <c r="P74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75">
+        <v>10.11</v>
+      </c>
+      <c r="F75">
+        <v>8713662</v>
+      </c>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" t="s">
+        <v>49</v>
+      </c>
+      <c r="L75" t="s">
+        <v>53</v>
+      </c>
+      <c r="M75" t="s">
+        <v>57</v>
+      </c>
+      <c r="N75" t="s">
+        <v>61</v>
+      </c>
+      <c r="O75" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76">
+        <v>10.11</v>
+      </c>
+      <c r="F76">
+        <v>16233562</v>
+      </c>
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" t="s">
+        <v>49</v>
+      </c>
+      <c r="L76" t="s">
+        <v>53</v>
+      </c>
+      <c r="M76" t="s">
+        <v>57</v>
+      </c>
+      <c r="N76" t="s">
+        <v>61</v>
+      </c>
+      <c r="O76" t="s">
+        <v>57</v>
+      </c>
+      <c r="P76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77">
+        <v>10.11</v>
+      </c>
+      <c r="F77">
+        <v>16390400</v>
+      </c>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" t="s">
+        <v>49</v>
+      </c>
+      <c r="L77" t="s">
+        <v>51</v>
+      </c>
+      <c r="M77" t="s">
+        <v>55</v>
+      </c>
+      <c r="N77" t="s">
+        <v>59</v>
+      </c>
+      <c r="O77" t="s">
+        <v>55</v>
+      </c>
+      <c r="P77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78">
+        <v>20.01</v>
+      </c>
+      <c r="F78">
+        <v>11069661</v>
+      </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" t="s">
+        <v>48</v>
+      </c>
+      <c r="L78" t="s">
+        <v>53</v>
+      </c>
+      <c r="M78" t="s">
+        <v>57</v>
+      </c>
+      <c r="N78" t="s">
+        <v>61</v>
+      </c>
+      <c r="O78" t="s">
+        <v>57</v>
+      </c>
+      <c r="P78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79">
+        <v>20.01</v>
+      </c>
+      <c r="F79">
+        <v>20622787</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s">
+        <v>44</v>
+      </c>
+      <c r="K79" t="s">
+        <v>48</v>
+      </c>
+      <c r="L79" t="s">
+        <v>53</v>
+      </c>
+      <c r="M79" t="s">
+        <v>57</v>
+      </c>
+      <c r="N79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O79" t="s">
+        <v>57</v>
+      </c>
+      <c r="P79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80">
+        <v>20.02</v>
+      </c>
+      <c r="F80">
+        <v>22557200</v>
+      </c>
+      <c r="H80" t="s">
+        <v>41</v>
+      </c>
+      <c r="I80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" t="s">
+        <v>50</v>
+      </c>
+      <c r="L80" t="s">
+        <v>51</v>
+      </c>
+      <c r="M80" t="s">
+        <v>55</v>
+      </c>
+      <c r="N80" t="s">
+        <v>59</v>
+      </c>
+      <c r="O80" t="s">
+        <v>55</v>
+      </c>
+      <c r="P80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81">
+        <v>4.05</v>
+      </c>
+      <c r="F81">
+        <v>22557200</v>
+      </c>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" t="s">
+        <v>50</v>
+      </c>
+      <c r="L81" t="s">
+        <v>51</v>
+      </c>
+      <c r="M81" t="s">
+        <v>55</v>
+      </c>
+      <c r="N81" t="s">
+        <v>59</v>
+      </c>
+      <c r="O81" t="s">
+        <v>55</v>
+      </c>
+      <c r="P81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>27.07</v>
+      </c>
+      <c r="F82">
+        <v>22557200</v>
+      </c>
+      <c r="H82" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82" t="s">
+        <v>51</v>
+      </c>
+      <c r="M82" t="s">
+        <v>55</v>
+      </c>
+      <c r="N82" t="s">
+        <v>59</v>
+      </c>
+      <c r="O82" t="s">
+        <v>55</v>
+      </c>
+      <c r="P82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>30.1</v>
+      </c>
+      <c r="F83">
+        <v>22557200</v>
+      </c>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s">
+        <v>43</v>
+      </c>
+      <c r="K83" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" t="s">
+        <v>51</v>
+      </c>
+      <c r="M83" t="s">
+        <v>55</v>
+      </c>
+      <c r="N83" t="s">
+        <v>59</v>
+      </c>
+      <c r="O83" t="s">
+        <v>55</v>
+      </c>
+      <c r="P83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84">
+        <v>30.06</v>
+      </c>
+      <c r="F84">
+        <v>9962695</v>
+      </c>
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84" t="s">
+        <v>48</v>
+      </c>
+      <c r="L84" t="s">
+        <v>53</v>
+      </c>
+      <c r="M84" t="s">
+        <v>57</v>
+      </c>
+      <c r="N84" t="s">
+        <v>61</v>
+      </c>
+      <c r="O84" t="s">
+        <v>57</v>
+      </c>
+      <c r="P84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85">
+        <v>30.06</v>
+      </c>
+      <c r="F85">
+        <v>18560508</v>
+      </c>
+      <c r="G85" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s">
+        <v>45</v>
+      </c>
+      <c r="K85" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" t="s">
+        <v>53</v>
+      </c>
+      <c r="M85" t="s">
+        <v>57</v>
+      </c>
+      <c r="N85" t="s">
+        <v>61</v>
+      </c>
+      <c r="O85" t="s">
+        <v>57</v>
+      </c>
+      <c r="P85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86">
+        <v>30.08</v>
+      </c>
+      <c r="F86">
+        <v>9962695</v>
+      </c>
+      <c r="G86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H86" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L86" t="s">
+        <v>53</v>
+      </c>
+      <c r="M86" t="s">
+        <v>57</v>
+      </c>
+      <c r="N86" t="s">
+        <v>61</v>
+      </c>
+      <c r="O86" t="s">
+        <v>57</v>
+      </c>
+      <c r="P86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87">
+        <v>30.08</v>
+      </c>
+      <c r="F87">
+        <v>18560508</v>
+      </c>
+      <c r="G87" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" t="s">
+        <v>48</v>
+      </c>
+      <c r="L87" t="s">
+        <v>53</v>
+      </c>
+      <c r="M87" t="s">
+        <v>57</v>
+      </c>
+      <c r="N87" t="s">
+        <v>61</v>
+      </c>
+      <c r="O87" t="s">
+        <v>57</v>
+      </c>
+      <c r="P87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>11.1</v>
+      </c>
+      <c r="F88">
+        <v>8855728</v>
+      </c>
+      <c r="G88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s">
+        <v>47</v>
+      </c>
+      <c r="K88" t="s">
+        <v>48</v>
+      </c>
+      <c r="L88" t="s">
+        <v>53</v>
+      </c>
+      <c r="M88" t="s">
+        <v>57</v>
+      </c>
+      <c r="N88" t="s">
+        <v>61</v>
+      </c>
+      <c r="O88" t="s">
+        <v>57</v>
+      </c>
+      <c r="P88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89">
+        <v>11.1</v>
+      </c>
+      <c r="F89">
+        <v>16498230</v>
+      </c>
+      <c r="G89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>42</v>
+      </c>
+      <c r="J89" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89" t="s">
+        <v>48</v>
+      </c>
+      <c r="L89" t="s">
+        <v>53</v>
+      </c>
+      <c r="M89" t="s">
+        <v>57</v>
+      </c>
+      <c r="N89" t="s">
+        <v>61</v>
+      </c>
+      <c r="O89" t="s">
+        <v>57</v>
+      </c>
+      <c r="P89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90">
+        <v>17.02</v>
+      </c>
+      <c r="F90">
+        <v>20383025</v>
+      </c>
+      <c r="H90" t="s">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s">
+        <v>42</v>
+      </c>
+      <c r="J90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90" t="s">
+        <v>49</v>
+      </c>
+      <c r="L90" t="s">
+        <v>54</v>
+      </c>
+      <c r="M90" t="s">
+        <v>58</v>
+      </c>
+      <c r="N90" t="s">
+        <v>62</v>
+      </c>
+      <c r="O90" t="s">
+        <v>58</v>
+      </c>
+      <c r="P90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91">
+        <v>28.07</v>
+      </c>
+      <c r="F91">
+        <v>20383025</v>
+      </c>
+      <c r="G91" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91" t="s">
+        <v>49</v>
+      </c>
+      <c r="L91" t="s">
+        <v>54</v>
+      </c>
+      <c r="M91" t="s">
+        <v>58</v>
+      </c>
+      <c r="N91" t="s">
+        <v>62</v>
+      </c>
+      <c r="O91" t="s">
+        <v>58</v>
+      </c>
+      <c r="P91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92">
+        <v>19.11</v>
+      </c>
+      <c r="F92">
+        <v>20383025</v>
+      </c>
+      <c r="H92" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" t="s">
+        <v>42</v>
+      </c>
+      <c r="J92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K92" t="s">
+        <v>49</v>
+      </c>
+      <c r="L92" t="s">
+        <v>54</v>
+      </c>
+      <c r="M92" t="s">
+        <v>58</v>
+      </c>
+      <c r="N92" t="s">
+        <v>62</v>
+      </c>
+      <c r="O92" t="s">
+        <v>58</v>
+      </c>
+      <c r="P92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93">
+        <v>20.02</v>
+      </c>
+      <c r="F93">
+        <v>118916375</v>
+      </c>
+      <c r="H93" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93" t="s">
+        <v>50</v>
+      </c>
+      <c r="L93" t="s">
+        <v>52</v>
+      </c>
+      <c r="M93" t="s">
+        <v>56</v>
+      </c>
+      <c r="N93" t="s">
+        <v>60</v>
+      </c>
+      <c r="O93" t="s">
+        <v>56</v>
+      </c>
+      <c r="P93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94">
+        <v>4.05</v>
+      </c>
+      <c r="F94">
+        <v>118916375</v>
+      </c>
+      <c r="H94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s">
+        <v>42</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" t="s">
+        <v>50</v>
+      </c>
+      <c r="L94" t="s">
+        <v>52</v>
+      </c>
+      <c r="M94" t="s">
+        <v>56</v>
+      </c>
+      <c r="N94" t="s">
+        <v>60</v>
+      </c>
+      <c r="O94" t="s">
+        <v>56</v>
+      </c>
+      <c r="P94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95">
+        <v>27.07</v>
+      </c>
+      <c r="F95">
+        <v>118916375</v>
+      </c>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s">
+        <v>42</v>
+      </c>
+      <c r="J95" t="s">
+        <v>43</v>
+      </c>
+      <c r="K95" t="s">
+        <v>50</v>
+      </c>
+      <c r="L95" t="s">
+        <v>52</v>
+      </c>
+      <c r="M95" t="s">
+        <v>56</v>
+      </c>
+      <c r="N95" t="s">
+        <v>60</v>
+      </c>
+      <c r="O95" t="s">
+        <v>56</v>
+      </c>
+      <c r="P95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96">
+        <v>30.1</v>
+      </c>
+      <c r="F96">
+        <v>118916375</v>
+      </c>
+      <c r="H96" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" t="s">
+        <v>50</v>
+      </c>
+      <c r="L96" t="s">
+        <v>52</v>
+      </c>
+      <c r="M96" t="s">
+        <v>56</v>
+      </c>
+      <c r="N96" t="s">
+        <v>60</v>
+      </c>
+      <c r="O96" t="s">
+        <v>56</v>
+      </c>
+      <c r="P96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97">
+        <v>27.12</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s">
+        <v>42</v>
+      </c>
+      <c r="J97" t="s">
+        <v>43</v>
+      </c>
+      <c r="K97" t="s">
+        <v>50</v>
+      </c>
+      <c r="L97" t="s">
+        <v>52</v>
+      </c>
+      <c r="M97" t="s">
+        <v>56</v>
+      </c>
+      <c r="N97" t="s">
+        <v>60</v>
+      </c>
+      <c r="O97" t="s">
+        <v>56</v>
+      </c>
+      <c r="P97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98">
+        <v>21.02</v>
+      </c>
+      <c r="F98">
+        <v>22341342</v>
+      </c>
+      <c r="G98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s">
+        <v>42</v>
+      </c>
+      <c r="J98" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98" t="s">
+        <v>50</v>
+      </c>
+      <c r="L98" t="s">
+        <v>53</v>
+      </c>
+      <c r="M98" t="s">
+        <v>57</v>
+      </c>
+      <c r="N98" t="s">
+        <v>61</v>
+      </c>
+      <c r="O98" t="s">
+        <v>57</v>
+      </c>
+      <c r="P98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99">
+        <v>21.02</v>
+      </c>
+      <c r="F99">
+        <v>11992132</v>
+      </c>
+      <c r="G99" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s">
+        <v>42</v>
+      </c>
+      <c r="J99" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99" t="s">
+        <v>50</v>
+      </c>
+      <c r="L99" t="s">
+        <v>53</v>
+      </c>
+      <c r="M99" t="s">
+        <v>57</v>
+      </c>
+      <c r="N99" t="s">
+        <v>61</v>
+      </c>
+      <c r="O99" t="s">
+        <v>57</v>
+      </c>
+      <c r="P99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100">
+        <v>31.05</v>
+      </c>
+      <c r="F100">
+        <v>11992132</v>
+      </c>
+      <c r="G100" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s">
+        <v>42</v>
+      </c>
+      <c r="J100" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" t="s">
+        <v>50</v>
+      </c>
+      <c r="L100" t="s">
+        <v>53</v>
+      </c>
+      <c r="M100" t="s">
+        <v>57</v>
+      </c>
+      <c r="N100" t="s">
+        <v>61</v>
+      </c>
+      <c r="O100" t="s">
+        <v>57</v>
+      </c>
+      <c r="P100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101">
+        <v>31.05</v>
+      </c>
+      <c r="F101">
+        <v>22341342</v>
+      </c>
+      <c r="G101" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s">
+        <v>42</v>
+      </c>
+      <c r="J101" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" t="s">
+        <v>50</v>
+      </c>
+      <c r="L101" t="s">
+        <v>53</v>
+      </c>
+      <c r="M101" t="s">
+        <v>57</v>
+      </c>
+      <c r="N101" t="s">
+        <v>61</v>
+      </c>
+      <c r="O101" t="s">
+        <v>57</v>
+      </c>
+      <c r="P101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102">
+        <v>27.07</v>
+      </c>
+      <c r="F102">
+        <v>11992132</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" t="s">
+        <v>50</v>
+      </c>
+      <c r="L102" t="s">
+        <v>53</v>
+      </c>
+      <c r="M102" t="s">
+        <v>57</v>
+      </c>
+      <c r="N102" t="s">
+        <v>61</v>
+      </c>
+      <c r="O102" t="s">
+        <v>57</v>
+      </c>
+      <c r="P102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103">
+        <v>27.07</v>
+      </c>
+      <c r="F103">
+        <v>22341342</v>
+      </c>
+      <c r="G103" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s">
+        <v>42</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103" t="s">
+        <v>50</v>
+      </c>
+      <c r="L103" t="s">
+        <v>53</v>
+      </c>
+      <c r="M103" t="s">
+        <v>57</v>
+      </c>
+      <c r="N103" t="s">
+        <v>61</v>
+      </c>
+      <c r="O103" t="s">
+        <v>57</v>
+      </c>
+      <c r="P103" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104">
+        <v>30.1</v>
+      </c>
+      <c r="F104">
+        <v>11992132</v>
+      </c>
+      <c r="G104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s">
+        <v>42</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104" t="s">
+        <v>50</v>
+      </c>
+      <c r="L104" t="s">
+        <v>53</v>
+      </c>
+      <c r="M104" t="s">
+        <v>57</v>
+      </c>
+      <c r="N104" t="s">
+        <v>61</v>
+      </c>
+      <c r="O104" t="s">
+        <v>57</v>
+      </c>
+      <c r="P104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105">
+        <v>30.1</v>
+      </c>
+      <c r="F105">
+        <v>22341342</v>
+      </c>
+      <c r="G105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s">
+        <v>42</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" t="s">
+        <v>50</v>
+      </c>
+      <c r="L105" t="s">
+        <v>53</v>
+      </c>
+      <c r="M105" t="s">
+        <v>57</v>
+      </c>
+      <c r="N105" t="s">
+        <v>61</v>
+      </c>
+      <c r="O105" t="s">
+        <v>57</v>
+      </c>
+      <c r="P105" t="s">
         <v>83</v>
       </c>
     </row>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="73">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -91,24 +91,9 @@
     <t>АКЦІОНЕРНЕ ТОВАРИСТВО "ДЕРЖАВНИЙ ЕКСПОРТНО-ІМПОРТНИЙ БАНК УКРАЇНИ"</t>
   </si>
   <si>
-    <t>09804119</t>
-  </si>
-  <si>
     <t>14360920</t>
   </si>
   <si>
-    <t>35591059</t>
-  </si>
-  <si>
-    <t>35810511</t>
-  </si>
-  <si>
-    <t>14305909</t>
-  </si>
-  <si>
-    <t>00032112</t>
-  </si>
-  <si>
     <t>UA363516290000000002604826373</t>
   </si>
   <si>
@@ -133,12 +118,6 @@
     <t>UA923805820000026002080316815</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>48967414.01</t>
-  </si>
-  <si>
     <t>Центральний офіс</t>
   </si>
   <si>
@@ -160,13 +139,7 @@
     <t>4 квартал</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2023</t>
+    <t>2024</t>
   </si>
   <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «ВСЕУКРАЇНСЬКЕ ОБ'ЄДНАННЯ «БАТЬКІВЩИНА»</t>
@@ -184,15 +157,6 @@
     <t>20069956</t>
   </si>
   <si>
-    <t>40422142</t>
-  </si>
-  <si>
-    <t>21715714</t>
-  </si>
-  <si>
-    <t>39651598</t>
-  </si>
-  <si>
     <t>БАТЬКІВЩИНА</t>
   </si>
   <si>
@@ -266,6 +230,9 @@
   </si>
   <si>
     <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
   </si>
 </sst>
 </file>
@@ -623,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +653,11 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
+      <c r="C2">
+        <v>9804119</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>21.01</v>
@@ -699,31 +666,31 @@
         <v>20822025</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2">
+        <v>2022</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2">
+        <v>20069956</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2">
+        <v>20069956</v>
+      </c>
+      <c r="P2" t="s">
         <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -733,11 +700,11 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
+      <c r="C3">
+        <v>14360920</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>30.06</v>
@@ -746,31 +713,31 @@
         <v>18739822</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>2022</v>
+      </c>
+      <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3">
+        <v>20069956</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3">
+        <v>20069956</v>
+      </c>
+      <c r="P3" t="s">
         <v>51</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -780,11 +747,11 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
+      <c r="C4">
+        <v>14360920</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>30.08</v>
@@ -793,31 +760,31 @@
         <v>18739822</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>2022</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <v>20069956</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4">
+        <v>20069956</v>
+      </c>
+      <c r="P4" t="s">
         <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -827,11 +794,11 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>14360920</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>20.1</v>
@@ -840,31 +807,31 @@
         <v>16657620</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>2022</v>
+      </c>
+      <c r="L5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5">
+        <v>20069956</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>20069956</v>
+      </c>
+      <c r="P5" t="s">
         <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -874,11 +841,11 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
+      <c r="C6">
+        <v>35591059</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>17.02</v>
@@ -887,31 +854,31 @@
         <v>86406500</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>2021</v>
+      </c>
+      <c r="L6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6">
+        <v>40422142</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6">
+        <v>40422142</v>
+      </c>
+      <c r="P6" t="s">
         <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -921,11 +888,11 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
+      <c r="C7">
+        <v>35591059</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>20.04</v>
@@ -934,31 +901,31 @@
         <v>86406500</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>2021</v>
+      </c>
+      <c r="L7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7">
+        <v>40422142</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7">
+        <v>40422142</v>
+      </c>
+      <c r="P7" t="s">
         <v>52</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -968,11 +935,11 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
+      <c r="C8">
+        <v>35591059</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>5.07</v>
@@ -981,31 +948,31 @@
         <v>86406500</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>2021</v>
+      </c>
+      <c r="L8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8">
+        <v>40422142</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8">
+        <v>40422142</v>
+      </c>
+      <c r="P8" t="s">
         <v>52</v>
-      </c>
-      <c r="M8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1015,11 +982,11 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
+      <c r="C9">
+        <v>35591059</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>10.11</v>
@@ -1028,31 +995,31 @@
         <v>86406500</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>2021</v>
+      </c>
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9">
+        <v>40422142</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9">
+        <v>40422142</v>
+      </c>
+      <c r="P9" t="s">
         <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1062,11 +1029,11 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
+      <c r="C10">
+        <v>35591059</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>20.1</v>
@@ -1075,31 +1042,31 @@
         <v>87815180</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>2022</v>
+      </c>
+      <c r="L10" t="s">
         <v>43</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10">
+        <v>40422142</v>
+      </c>
+      <c r="N10" t="s">
         <v>48</v>
       </c>
-      <c r="L10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" t="s">
-        <v>56</v>
+      <c r="O10">
+        <v>40422142</v>
       </c>
       <c r="P10" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1109,11 +1076,11 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
+      <c r="C11">
+        <v>35591059</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>30.06</v>
@@ -1122,31 +1089,31 @@
         <v>98792077</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>2022</v>
+      </c>
+      <c r="L11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11">
+        <v>40422142</v>
+      </c>
+      <c r="N11" t="s">
         <v>48</v>
       </c>
-      <c r="L11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="s">
-        <v>56</v>
+      <c r="O11">
+        <v>40422142</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1156,11 +1123,11 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
+      <c r="C12">
+        <v>35591059</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>30.08</v>
@@ -1169,31 +1136,31 @@
         <v>98792077</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>2022</v>
+      </c>
+      <c r="L12" t="s">
         <v>43</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12">
+        <v>40422142</v>
+      </c>
+      <c r="N12" t="s">
         <v>48</v>
       </c>
-      <c r="L12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" t="s">
-        <v>56</v>
+      <c r="O12">
+        <v>40422142</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1203,11 +1170,11 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
+      <c r="C13">
+        <v>35591059</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>21.01</v>
@@ -1216,31 +1183,31 @@
         <v>109768975</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>2022</v>
+      </c>
+      <c r="L13" t="s">
         <v>43</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13">
+        <v>40422142</v>
+      </c>
+      <c r="N13" t="s">
         <v>48</v>
       </c>
-      <c r="L13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" t="s">
-        <v>56</v>
+      <c r="O13">
+        <v>40422142</v>
       </c>
       <c r="P13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1250,11 +1217,11 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
+      <c r="C14">
+        <v>9804119</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>17.02</v>
@@ -1263,31 +1230,31 @@
         <v>16390400</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14">
+        <v>2021</v>
+      </c>
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>55</v>
+      <c r="M14">
+        <v>20069956</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="O14">
+        <v>20069956</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1297,11 +1264,11 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
+      <c r="C15">
+        <v>9804119</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>20.04</v>
@@ -1309,35 +1276,35 @@
       <c r="F15">
         <v>16390400</v>
       </c>
-      <c r="G15" t="s">
-        <v>39</v>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>2021</v>
+      </c>
+      <c r="L15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>20069956</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15">
+        <v>20069956</v>
+      </c>
+      <c r="P15" t="s">
         <v>55</v>
-      </c>
-      <c r="N15" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1347,11 +1314,11 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
+      <c r="C16">
+        <v>9804119</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>5.07</v>
@@ -1359,35 +1326,35 @@
       <c r="F16">
         <v>16390400</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
         <v>39</v>
       </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16">
+        <v>2021</v>
+      </c>
+      <c r="L16" t="s">
         <v>42</v>
       </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" t="s">
-        <v>55</v>
+      <c r="M16">
+        <v>20069956</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="O16">
+        <v>20069956</v>
       </c>
       <c r="P16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1397,11 +1364,11 @@
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
+      <c r="C17">
+        <v>35810511</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>17.02</v>
@@ -1410,31 +1377,31 @@
         <v>8713662</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>2021</v>
+      </c>
+      <c r="L17" t="s">
         <v>44</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17">
+        <v>21715714</v>
+      </c>
+      <c r="N17" t="s">
         <v>49</v>
       </c>
-      <c r="L17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="O17">
+        <v>21715714</v>
+      </c>
+      <c r="P17" t="s">
         <v>57</v>
-      </c>
-      <c r="N17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1444,11 +1411,11 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
+      <c r="C18">
+        <v>35810511</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>17.02</v>
@@ -1456,35 +1423,35 @@
       <c r="F18">
         <v>16233562</v>
       </c>
-      <c r="G18" t="s">
-        <v>39</v>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>2021</v>
+      </c>
+      <c r="L18" t="s">
         <v>44</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18">
+        <v>21715714</v>
+      </c>
+      <c r="N18" t="s">
         <v>49</v>
       </c>
-      <c r="L18" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="O18">
+        <v>21715714</v>
+      </c>
+      <c r="P18" t="s">
         <v>57</v>
-      </c>
-      <c r="N18" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1494,11 +1461,11 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
+      <c r="C19">
+        <v>35810511</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>20.04</v>
@@ -1507,31 +1474,31 @@
         <v>8713662</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>2021</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <v>21715714</v>
+      </c>
+      <c r="N19" t="s">
         <v>49</v>
       </c>
-      <c r="L19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" t="s">
-        <v>57</v>
+      <c r="O19">
+        <v>21715714</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1541,11 +1508,11 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
+      <c r="C20">
+        <v>35810511</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>20.04</v>
@@ -1553,35 +1520,35 @@
       <c r="F20">
         <v>16233562</v>
       </c>
-      <c r="G20" t="s">
-        <v>39</v>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>2021</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20">
+        <v>21715714</v>
+      </c>
+      <c r="N20" t="s">
         <v>49</v>
       </c>
-      <c r="L20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" t="s">
-        <v>57</v>
-      </c>
-      <c r="N20" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" t="s">
-        <v>57</v>
+      <c r="O20">
+        <v>21715714</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1591,11 +1558,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>28</v>
+      <c r="C21">
+        <v>35810511</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>5.07</v>
@@ -1603,35 +1570,35 @@
       <c r="F21">
         <v>8713662</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
         <v>39</v>
       </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="K21">
+        <v>2021</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21">
+        <v>21715714</v>
+      </c>
+      <c r="N21" t="s">
         <v>49</v>
       </c>
-      <c r="L21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" t="s">
-        <v>57</v>
+      <c r="O21">
+        <v>21715714</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1641,11 +1608,11 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>28</v>
+      <c r="C22">
+        <v>35810511</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>5.07</v>
@@ -1653,35 +1620,35 @@
       <c r="F22">
         <v>16233562</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
         <v>39</v>
       </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="K22">
+        <v>2021</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22">
+        <v>21715714</v>
+      </c>
+      <c r="N22" t="s">
         <v>49</v>
       </c>
-      <c r="L22" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O22" t="s">
-        <v>57</v>
+      <c r="O22">
+        <v>21715714</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1691,11 +1658,11 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>28</v>
+      <c r="C23">
+        <v>35810511</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>10.11</v>
@@ -1703,35 +1670,35 @@
       <c r="F23">
         <v>8713662</v>
       </c>
-      <c r="G23" t="s">
-        <v>39</v>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>2021</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23">
+        <v>21715714</v>
+      </c>
+      <c r="N23" t="s">
         <v>49</v>
       </c>
-      <c r="L23" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" t="s">
-        <v>57</v>
+      <c r="O23">
+        <v>21715714</v>
       </c>
       <c r="P23" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1741,11 +1708,11 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
+      <c r="C24">
+        <v>35810511</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>10.11</v>
@@ -1753,35 +1720,35 @@
       <c r="F24">
         <v>16233562</v>
       </c>
-      <c r="G24" t="s">
-        <v>39</v>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>2021</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <v>21715714</v>
+      </c>
+      <c r="N24" t="s">
         <v>49</v>
       </c>
-      <c r="L24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" t="s">
-        <v>61</v>
-      </c>
-      <c r="O24" t="s">
-        <v>57</v>
+      <c r="O24">
+        <v>21715714</v>
       </c>
       <c r="P24" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1791,11 +1758,11 @@
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
+      <c r="C25">
+        <v>9804119</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>10.11</v>
@@ -1804,31 +1771,31 @@
         <v>16390400</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>2021</v>
+      </c>
+      <c r="L25" t="s">
         <v>42</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25">
+        <v>20069956</v>
+      </c>
+      <c r="N25" t="s">
         <v>47</v>
       </c>
-      <c r="K25" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" t="s">
-        <v>55</v>
-      </c>
-      <c r="N25" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" t="s">
-        <v>55</v>
+      <c r="O25">
+        <v>20069956</v>
       </c>
       <c r="P25" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1838,11 +1805,11 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="C26">
+        <v>35810511</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>20.01</v>
@@ -1850,35 +1817,35 @@
       <c r="F26">
         <v>11069661</v>
       </c>
-      <c r="G26" t="s">
-        <v>39</v>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26">
+        <v>2022</v>
+      </c>
+      <c r="L26" t="s">
         <v>44</v>
       </c>
-      <c r="K26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" t="s">
-        <v>57</v>
+      <c r="M26">
+        <v>21715714</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
-      </c>
-      <c r="O26" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O26">
+        <v>21715714</v>
       </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1888,11 +1855,11 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
-        <v>28</v>
+      <c r="C27">
+        <v>35810511</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>20.01</v>
@@ -1900,35 +1867,35 @@
       <c r="F27">
         <v>20622787</v>
       </c>
-      <c r="G27" t="s">
-        <v>39</v>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>2022</v>
+      </c>
+      <c r="L27" t="s">
         <v>44</v>
       </c>
-      <c r="K27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" t="s">
-        <v>57</v>
+      <c r="M27">
+        <v>21715714</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O27">
+        <v>21715714</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1938,11 +1905,11 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
-        <v>26</v>
+      <c r="C28">
+        <v>14360920</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>20.02</v>
@@ -1951,31 +1918,31 @@
         <v>22557200</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28">
+        <v>2023</v>
+      </c>
+      <c r="L28" t="s">
         <v>42</v>
       </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" t="s">
-        <v>55</v>
+      <c r="M28">
+        <v>20069956</v>
       </c>
       <c r="N28" t="s">
-        <v>59</v>
-      </c>
-      <c r="O28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="O28">
+        <v>20069956</v>
       </c>
       <c r="P28" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1985,11 +1952,11 @@
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
-        <v>26</v>
+      <c r="C29">
+        <v>14360920</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>4.05</v>
@@ -1998,31 +1965,31 @@
         <v>22557200</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>2023</v>
+      </c>
+      <c r="L29" t="s">
         <v>42</v>
       </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" t="s">
-        <v>55</v>
+      <c r="M29">
+        <v>20069956</v>
       </c>
       <c r="N29" t="s">
-        <v>59</v>
-      </c>
-      <c r="O29" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="O29">
+        <v>20069956</v>
       </c>
       <c r="P29" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2032,11 +1999,11 @@
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
+      <c r="C30">
+        <v>14360920</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>27.07</v>
@@ -2045,31 +2012,31 @@
         <v>22557200</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30">
+        <v>2023</v>
+      </c>
+      <c r="L30" t="s">
         <v>42</v>
       </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" t="s">
-        <v>50</v>
-      </c>
-      <c r="L30" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" t="s">
-        <v>55</v>
+      <c r="M30">
+        <v>20069956</v>
       </c>
       <c r="N30" t="s">
-        <v>59</v>
-      </c>
-      <c r="O30" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="O30">
+        <v>20069956</v>
       </c>
       <c r="P30" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2079,11 +2046,11 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
+      <c r="C31">
+        <v>14360920</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>30.1</v>
@@ -2092,31 +2059,31 @@
         <v>22557200</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31">
+        <v>2023</v>
+      </c>
+      <c r="L31" t="s">
         <v>42</v>
       </c>
-      <c r="J31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" t="s">
-        <v>51</v>
-      </c>
-      <c r="M31" t="s">
-        <v>55</v>
+      <c r="M31">
+        <v>20069956</v>
       </c>
       <c r="N31" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="O31">
+        <v>20069956</v>
       </c>
       <c r="P31" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2126,11 +2093,11 @@
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
-        <v>28</v>
+      <c r="C32">
+        <v>35810511</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>30.06</v>
@@ -2138,35 +2105,35 @@
       <c r="F32">
         <v>9962695</v>
       </c>
-      <c r="G32" t="s">
-        <v>39</v>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="K32">
+        <v>2022</v>
       </c>
       <c r="L32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M32">
+        <v>21715714</v>
       </c>
       <c r="N32" t="s">
-        <v>61</v>
-      </c>
-      <c r="O32" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O32">
+        <v>21715714</v>
       </c>
       <c r="P32" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2176,11 +2143,11 @@
       <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
-        <v>28</v>
+      <c r="C33">
+        <v>35810511</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>30.06</v>
@@ -2188,35 +2155,35 @@
       <c r="F33">
         <v>18560508</v>
       </c>
-      <c r="G33" t="s">
-        <v>39</v>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="K33">
+        <v>2022</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M33">
+        <v>21715714</v>
       </c>
       <c r="N33" t="s">
-        <v>61</v>
-      </c>
-      <c r="O33" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O33">
+        <v>21715714</v>
       </c>
       <c r="P33" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2226,11 +2193,11 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
-        <v>28</v>
+      <c r="C34">
+        <v>35810511</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>30.08</v>
@@ -2238,35 +2205,35 @@
       <c r="F34">
         <v>9962695</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" t="s">
         <v>39</v>
       </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" t="s">
-        <v>48</v>
+      <c r="K34">
+        <v>2022</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M34">
+        <v>21715714</v>
       </c>
       <c r="N34" t="s">
-        <v>61</v>
-      </c>
-      <c r="O34" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O34">
+        <v>21715714</v>
       </c>
       <c r="P34" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2276,11 +2243,11 @@
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
-        <v>28</v>
+      <c r="C35">
+        <v>35810511</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>30.08</v>
@@ -2288,35 +2255,35 @@
       <c r="F35">
         <v>18560508</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" t="s">
         <v>39</v>
       </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" t="s">
-        <v>48</v>
+      <c r="K35">
+        <v>2022</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
-      </c>
-      <c r="M35" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M35">
+        <v>21715714</v>
       </c>
       <c r="N35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O35" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O35">
+        <v>21715714</v>
       </c>
       <c r="P35" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2326,11 +2293,11 @@
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
-        <v>28</v>
+      <c r="C36">
+        <v>35810511</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>11.1</v>
@@ -2338,35 +2305,35 @@
       <c r="F36">
         <v>8855728</v>
       </c>
-      <c r="G36" t="s">
-        <v>39</v>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <v>2022</v>
       </c>
       <c r="L36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M36">
+        <v>21715714</v>
       </c>
       <c r="N36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O36" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O36">
+        <v>21715714</v>
       </c>
       <c r="P36" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2376,11 +2343,11 @@
       <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
-        <v>28</v>
+      <c r="C37">
+        <v>35810511</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <v>11.1</v>
@@ -2388,35 +2355,35 @@
       <c r="F37">
         <v>16498230</v>
       </c>
-      <c r="G37" t="s">
-        <v>39</v>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>2022</v>
       </c>
       <c r="L37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M37" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M37">
+        <v>21715714</v>
       </c>
       <c r="N37" t="s">
-        <v>61</v>
-      </c>
-      <c r="O37" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O37">
+        <v>21715714</v>
       </c>
       <c r="P37" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2426,11 +2393,11 @@
       <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38" t="s">
-        <v>29</v>
+      <c r="C38">
+        <v>14305909</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>17.02</v>
@@ -2439,31 +2406,31 @@
         <v>20383025</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="K38">
+        <v>2021</v>
       </c>
       <c r="L38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="M38">
+        <v>39651598</v>
       </c>
       <c r="N38" t="s">
-        <v>62</v>
-      </c>
-      <c r="O38" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="O38">
+        <v>39651598</v>
       </c>
       <c r="P38" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2473,11 +2440,11 @@
       <c r="B39" t="s">
         <v>23</v>
       </c>
-      <c r="C39" t="s">
-        <v>29</v>
+      <c r="C39">
+        <v>14305909</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>28.07</v>
@@ -2485,35 +2452,35 @@
       <c r="F39">
         <v>20383025</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" t="s">
         <v>39</v>
       </c>
-      <c r="H39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" t="s">
-        <v>49</v>
+      <c r="K39">
+        <v>2021</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
-      </c>
-      <c r="M39" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="M39">
+        <v>39651598</v>
       </c>
       <c r="N39" t="s">
-        <v>62</v>
-      </c>
-      <c r="O39" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="O39">
+        <v>39651598</v>
       </c>
       <c r="P39" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2523,11 +2490,11 @@
       <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C40" t="s">
-        <v>29</v>
+      <c r="C40">
+        <v>14305909</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>19.11</v>
@@ -2536,31 +2503,31 @@
         <v>20383025</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
-      </c>
-      <c r="K40" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="K40">
+        <v>2021</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M40" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="M40">
+        <v>39651598</v>
       </c>
       <c r="N40" t="s">
-        <v>62</v>
-      </c>
-      <c r="O40" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="O40">
+        <v>39651598</v>
       </c>
       <c r="P40" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2570,11 +2537,11 @@
       <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
-        <v>27</v>
+      <c r="C41">
+        <v>35591059</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>20.02</v>
@@ -2583,31 +2550,31 @@
         <v>118916375</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41">
+        <v>2023</v>
+      </c>
+      <c r="L41" t="s">
         <v>43</v>
       </c>
-      <c r="K41" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" t="s">
-        <v>56</v>
+      <c r="M41">
+        <v>40422142</v>
       </c>
       <c r="N41" t="s">
-        <v>60</v>
-      </c>
-      <c r="O41" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="O41">
+        <v>40422142</v>
       </c>
       <c r="P41" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2617,11 +2584,11 @@
       <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C42" t="s">
-        <v>27</v>
+      <c r="C42">
+        <v>35591059</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>4.05</v>
@@ -2630,31 +2597,31 @@
         <v>118916375</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <v>2023</v>
+      </c>
+      <c r="L42" t="s">
         <v>43</v>
       </c>
-      <c r="K42" t="s">
-        <v>50</v>
-      </c>
-      <c r="L42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" t="s">
-        <v>56</v>
+      <c r="M42">
+        <v>40422142</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
-      </c>
-      <c r="O42" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="O42">
+        <v>40422142</v>
       </c>
       <c r="P42" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2664,11 +2631,11 @@
       <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
-        <v>27</v>
+      <c r="C43">
+        <v>35591059</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>27.07</v>
@@ -2677,31 +2644,31 @@
         <v>118916375</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43">
+        <v>2023</v>
+      </c>
+      <c r="L43" t="s">
         <v>43</v>
       </c>
-      <c r="K43" t="s">
-        <v>50</v>
-      </c>
-      <c r="L43" t="s">
-        <v>52</v>
-      </c>
-      <c r="M43" t="s">
-        <v>56</v>
+      <c r="M43">
+        <v>40422142</v>
       </c>
       <c r="N43" t="s">
-        <v>60</v>
-      </c>
-      <c r="O43" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="O43">
+        <v>40422142</v>
       </c>
       <c r="P43" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2711,11 +2678,11 @@
       <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44" t="s">
-        <v>27</v>
+      <c r="C44">
+        <v>35591059</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>30.1</v>
@@ -2724,31 +2691,31 @@
         <v>118916375</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44">
+        <v>2023</v>
+      </c>
+      <c r="L44" t="s">
         <v>43</v>
       </c>
-      <c r="K44" t="s">
-        <v>50</v>
-      </c>
-      <c r="L44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M44" t="s">
-        <v>56</v>
+      <c r="M44">
+        <v>40422142</v>
       </c>
       <c r="N44" t="s">
-        <v>60</v>
-      </c>
-      <c r="O44" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="O44">
+        <v>40422142</v>
       </c>
       <c r="P44" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2758,11 +2725,11 @@
       <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C45" t="s">
-        <v>30</v>
+      <c r="C45">
+        <v>32112</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>27.12</v>
@@ -2770,35 +2737,35 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" t="s">
-        <v>40</v>
+      <c r="G45">
+        <v>48967414.01</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45">
+        <v>2023</v>
+      </c>
+      <c r="L45" t="s">
         <v>43</v>
       </c>
-      <c r="K45" t="s">
-        <v>50</v>
-      </c>
-      <c r="L45" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" t="s">
-        <v>56</v>
+      <c r="M45">
+        <v>40422142</v>
       </c>
       <c r="N45" t="s">
-        <v>60</v>
-      </c>
-      <c r="O45" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="O45">
+        <v>40422142</v>
       </c>
       <c r="P45" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2808,11 +2775,11 @@
       <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
-        <v>28</v>
+      <c r="C46">
+        <v>35810511</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>21.02</v>
@@ -2820,35 +2787,35 @@
       <c r="F46">
         <v>22341342</v>
       </c>
-      <c r="G46" t="s">
-        <v>39</v>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="K46">
+        <v>2023</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
-      </c>
-      <c r="M46" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M46">
+        <v>21715714</v>
       </c>
       <c r="N46" t="s">
-        <v>61</v>
-      </c>
-      <c r="O46" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O46">
+        <v>21715714</v>
       </c>
       <c r="P46" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2858,11 +2825,11 @@
       <c r="B47" t="s">
         <v>21</v>
       </c>
-      <c r="C47" t="s">
-        <v>28</v>
+      <c r="C47">
+        <v>35810511</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E47">
         <v>21.02</v>
@@ -2870,35 +2837,35 @@
       <c r="F47">
         <v>11992132</v>
       </c>
-      <c r="G47" t="s">
-        <v>39</v>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="K47">
+        <v>2023</v>
       </c>
       <c r="L47" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M47">
+        <v>21715714</v>
       </c>
       <c r="N47" t="s">
-        <v>61</v>
-      </c>
-      <c r="O47" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O47">
+        <v>21715714</v>
       </c>
       <c r="P47" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2908,11 +2875,11 @@
       <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="C48" t="s">
-        <v>28</v>
+      <c r="C48">
+        <v>35810511</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E48">
         <v>31.05</v>
@@ -2920,35 +2887,35 @@
       <c r="F48">
         <v>11992132</v>
       </c>
-      <c r="G48" t="s">
-        <v>39</v>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="K48">
+        <v>2023</v>
       </c>
       <c r="L48" t="s">
-        <v>53</v>
-      </c>
-      <c r="M48" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M48">
+        <v>21715714</v>
       </c>
       <c r="N48" t="s">
-        <v>61</v>
-      </c>
-      <c r="O48" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O48">
+        <v>21715714</v>
       </c>
       <c r="P48" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2958,11 +2925,11 @@
       <c r="B49" t="s">
         <v>21</v>
       </c>
-      <c r="C49" t="s">
-        <v>28</v>
+      <c r="C49">
+        <v>35810511</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E49">
         <v>31.05</v>
@@ -2970,35 +2937,35 @@
       <c r="F49">
         <v>22341342</v>
       </c>
-      <c r="G49" t="s">
-        <v>39</v>
+      <c r="G49">
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="K49">
+        <v>2023</v>
       </c>
       <c r="L49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M49" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M49">
+        <v>21715714</v>
       </c>
       <c r="N49" t="s">
-        <v>61</v>
-      </c>
-      <c r="O49" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O49">
+        <v>21715714</v>
       </c>
       <c r="P49" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3008,11 +2975,11 @@
       <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50" t="s">
-        <v>28</v>
+      <c r="C50">
+        <v>35810511</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E50">
         <v>27.07</v>
@@ -3020,35 +2987,35 @@
       <c r="F50">
         <v>11992132</v>
       </c>
-      <c r="G50" t="s">
-        <v>39</v>
+      <c r="G50">
+        <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="K50">
+        <v>2023</v>
       </c>
       <c r="L50" t="s">
-        <v>53</v>
-      </c>
-      <c r="M50" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M50">
+        <v>21715714</v>
       </c>
       <c r="N50" t="s">
-        <v>61</v>
-      </c>
-      <c r="O50" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O50">
+        <v>21715714</v>
       </c>
       <c r="P50" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3058,11 +3025,11 @@
       <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="C51" t="s">
-        <v>28</v>
+      <c r="C51">
+        <v>35810511</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E51">
         <v>27.07</v>
@@ -3070,35 +3037,35 @@
       <c r="F51">
         <v>22341342</v>
       </c>
-      <c r="G51" t="s">
-        <v>39</v>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="K51">
+        <v>2023</v>
       </c>
       <c r="L51" t="s">
-        <v>53</v>
-      </c>
-      <c r="M51" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M51">
+        <v>21715714</v>
       </c>
       <c r="N51" t="s">
-        <v>61</v>
-      </c>
-      <c r="O51" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>21715714</v>
       </c>
       <c r="P51" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3108,11 +3075,11 @@
       <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C52" t="s">
-        <v>28</v>
+      <c r="C52">
+        <v>35810511</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E52">
         <v>30.1</v>
@@ -3120,35 +3087,35 @@
       <c r="F52">
         <v>11992132</v>
       </c>
-      <c r="G52" t="s">
-        <v>39</v>
+      <c r="G52">
+        <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
-      </c>
-      <c r="K52" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="K52">
+        <v>2023</v>
       </c>
       <c r="L52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M52" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="M52">
+        <v>21715714</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
-      </c>
-      <c r="O52" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="O52">
+        <v>21715714</v>
       </c>
       <c r="P52" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3158,11 +3125,11 @@
       <c r="B53" t="s">
         <v>21</v>
       </c>
-      <c r="C53" t="s">
-        <v>28</v>
+      <c r="C53">
+        <v>35810511</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E53">
         <v>30.1</v>
@@ -3170,35 +3137,82 @@
       <c r="F53">
         <v>22341342</v>
       </c>
-      <c r="G53" t="s">
-        <v>39</v>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53">
+        <v>2023</v>
+      </c>
+      <c r="L53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53">
+        <v>21715714</v>
+      </c>
+      <c r="N53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53">
+        <v>21715714</v>
+      </c>
+      <c r="P53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>17.01</v>
+      </c>
+      <c r="F54">
+        <v>23251275</v>
+      </c>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" t="s">
         <v>41</v>
       </c>
-      <c r="I53" t="s">
+      <c r="L54" t="s">
         <v>42</v>
       </c>
-      <c r="J53" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" t="s">
-        <v>53</v>
-      </c>
-      <c r="M53" t="s">
-        <v>57</v>
-      </c>
-      <c r="N53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O53" t="s">
-        <v>57</v>
-      </c>
-      <c r="P53" t="s">
-        <v>83</v>
+      <c r="M54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="82">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -91,7 +91,16 @@
     <t>АКЦІОНЕРНЕ ТОВАРИСТВО "ДЕРЖАВНИЙ ЕКСПОРТНО-ІМПОРТНИЙ БАНК УКРАЇНИ"</t>
   </si>
   <si>
-    <t>14360920</t>
+    <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК" </t>
+  </si>
+  <si>
+    <t>35810511</t>
+  </si>
+  <si>
+    <t>35591059</t>
+  </si>
+  <si>
+    <t>14305909</t>
   </si>
   <si>
     <t>UA363516290000000002604826373</t>
@@ -118,6 +127,9 @@
     <t>UA923805820000026002080316815</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>Центральний офіс</t>
   </si>
   <si>
@@ -154,7 +166,13 @@
     <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
   </si>
   <si>
-    <t>20069956</t>
+    <t>21715714</t>
+  </si>
+  <si>
+    <t>40422142</t>
+  </si>
+  <si>
+    <t>39651598</t>
   </si>
   <si>
     <t>БАТЬКІВЩИНА</t>
@@ -233,6 +251,15 @@
   </si>
   <si>
     <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -590,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +684,7 @@
         <v>9804119</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>21.01</v>
@@ -666,31 +693,31 @@
         <v>20822025</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>2022</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M2">
         <v>20069956</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O2">
         <v>20069956</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -704,7 +731,7 @@
         <v>14360920</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>30.06</v>
@@ -713,31 +740,31 @@
         <v>18739822</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>2022</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M3">
         <v>20069956</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O3">
         <v>20069956</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -751,7 +778,7 @@
         <v>14360920</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>30.08</v>
@@ -760,31 +787,31 @@
         <v>18739822</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2022</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M4">
         <v>20069956</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O4">
         <v>20069956</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -798,7 +825,7 @@
         <v>14360920</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>20.1</v>
@@ -807,31 +834,31 @@
         <v>16657620</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>2022</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M5">
         <v>20069956</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O5">
         <v>20069956</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -845,7 +872,7 @@
         <v>35591059</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>17.02</v>
@@ -854,31 +881,31 @@
         <v>86406500</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2021</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M6">
         <v>40422142</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O6">
         <v>40422142</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -892,7 +919,7 @@
         <v>35591059</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>20.04</v>
@@ -901,31 +928,31 @@
         <v>86406500</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2021</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>40422142</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O7">
         <v>40422142</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -939,7 +966,7 @@
         <v>35591059</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>5.07</v>
@@ -948,31 +975,31 @@
         <v>86406500</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>2021</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M8">
         <v>40422142</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O8">
         <v>40422142</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -986,7 +1013,7 @@
         <v>35591059</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>10.11</v>
@@ -995,31 +1022,31 @@
         <v>86406500</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>2021</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M9">
         <v>40422142</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O9">
         <v>40422142</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1033,7 +1060,7 @@
         <v>35591059</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>20.1</v>
@@ -1042,31 +1069,31 @@
         <v>87815180</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>2022</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M10">
         <v>40422142</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O10">
         <v>40422142</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1080,7 +1107,7 @@
         <v>35591059</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>30.06</v>
@@ -1089,31 +1116,31 @@
         <v>98792077</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>2022</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M11">
         <v>40422142</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O11">
         <v>40422142</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1127,7 +1154,7 @@
         <v>35591059</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>30.08</v>
@@ -1136,31 +1163,31 @@
         <v>98792077</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>2022</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M12">
         <v>40422142</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O12">
         <v>40422142</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1174,7 +1201,7 @@
         <v>35591059</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>21.01</v>
@@ -1183,31 +1210,31 @@
         <v>109768975</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>2022</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M13">
         <v>40422142</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O13">
         <v>40422142</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1221,7 +1248,7 @@
         <v>9804119</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>17.02</v>
@@ -1230,31 +1257,31 @@
         <v>16390400</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>2021</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M14">
         <v>20069956</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O14">
         <v>20069956</v>
       </c>
       <c r="P14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1268,7 +1295,7 @@
         <v>9804119</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>20.04</v>
@@ -1280,31 +1307,31 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>2021</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M15">
         <v>20069956</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O15">
         <v>20069956</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1318,7 +1345,7 @@
         <v>9804119</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>5.07</v>
@@ -1330,31 +1357,31 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2021</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M16">
         <v>20069956</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O16">
         <v>20069956</v>
       </c>
       <c r="P16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1368,7 +1395,7 @@
         <v>35810511</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>17.02</v>
@@ -1377,31 +1404,31 @@
         <v>8713662</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>2021</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M17">
         <v>21715714</v>
       </c>
       <c r="N17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O17">
         <v>21715714</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1415,7 +1442,7 @@
         <v>35810511</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>17.02</v>
@@ -1427,31 +1454,31 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>2021</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M18">
         <v>21715714</v>
       </c>
       <c r="N18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O18">
         <v>21715714</v>
       </c>
       <c r="P18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1465,7 +1492,7 @@
         <v>35810511</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>20.04</v>
@@ -1474,31 +1501,31 @@
         <v>8713662</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>2021</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M19">
         <v>21715714</v>
       </c>
       <c r="N19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O19">
         <v>21715714</v>
       </c>
       <c r="P19" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1512,7 +1539,7 @@
         <v>35810511</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>20.04</v>
@@ -1524,31 +1551,31 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>2021</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M20">
         <v>21715714</v>
       </c>
       <c r="N20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O20">
         <v>21715714</v>
       </c>
       <c r="P20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1562,7 +1589,7 @@
         <v>35810511</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>5.07</v>
@@ -1574,31 +1601,31 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>2021</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M21">
         <v>21715714</v>
       </c>
       <c r="N21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O21">
         <v>21715714</v>
       </c>
       <c r="P21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1612,7 +1639,7 @@
         <v>35810511</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>5.07</v>
@@ -1624,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2021</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M22">
         <v>21715714</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O22">
         <v>21715714</v>
       </c>
       <c r="P22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1662,7 +1689,7 @@
         <v>35810511</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>10.11</v>
@@ -1674,31 +1701,31 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>2021</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M23">
         <v>21715714</v>
       </c>
       <c r="N23" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O23">
         <v>21715714</v>
       </c>
       <c r="P23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1712,7 +1739,7 @@
         <v>35810511</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>10.11</v>
@@ -1724,31 +1751,31 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2021</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M24">
         <v>21715714</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O24">
         <v>21715714</v>
       </c>
       <c r="P24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1762,7 +1789,7 @@
         <v>9804119</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>10.11</v>
@@ -1771,31 +1798,31 @@
         <v>16390400</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>2021</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M25">
         <v>20069956</v>
       </c>
       <c r="N25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O25">
         <v>20069956</v>
       </c>
       <c r="P25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1809,7 +1836,7 @@
         <v>35810511</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>20.01</v>
@@ -1821,31 +1848,31 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>2022</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M26">
         <v>21715714</v>
       </c>
       <c r="N26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O26">
         <v>21715714</v>
       </c>
       <c r="P26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1859,7 +1886,7 @@
         <v>35810511</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>20.01</v>
@@ -1871,31 +1898,31 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>2022</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M27">
         <v>21715714</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O27">
         <v>21715714</v>
       </c>
       <c r="P27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1909,7 +1936,7 @@
         <v>14360920</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>20.02</v>
@@ -1918,31 +1945,31 @@
         <v>22557200</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>2023</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M28">
         <v>20069956</v>
       </c>
       <c r="N28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O28">
         <v>20069956</v>
       </c>
       <c r="P28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1956,7 +1983,7 @@
         <v>14360920</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>4.05</v>
@@ -1965,31 +1992,31 @@
         <v>22557200</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>2023</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M29">
         <v>20069956</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O29">
         <v>20069956</v>
       </c>
       <c r="P29" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2003,7 +2030,7 @@
         <v>14360920</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>27.07</v>
@@ -2012,31 +2039,31 @@
         <v>22557200</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>2023</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M30">
         <v>20069956</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O30">
         <v>20069956</v>
       </c>
       <c r="P30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2050,7 +2077,7 @@
         <v>14360920</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>30.1</v>
@@ -2059,31 +2086,31 @@
         <v>22557200</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K31">
         <v>2023</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M31">
         <v>20069956</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O31">
         <v>20069956</v>
       </c>
       <c r="P31" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2097,7 +2124,7 @@
         <v>35810511</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>30.06</v>
@@ -2109,31 +2136,31 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>2022</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M32">
         <v>21715714</v>
       </c>
       <c r="N32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O32">
         <v>21715714</v>
       </c>
       <c r="P32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2147,7 +2174,7 @@
         <v>35810511</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>30.06</v>
@@ -2159,31 +2186,31 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>2022</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M33">
         <v>21715714</v>
       </c>
       <c r="N33" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O33">
         <v>21715714</v>
       </c>
       <c r="P33" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2197,7 +2224,7 @@
         <v>35810511</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>30.08</v>
@@ -2209,31 +2236,31 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>2022</v>
       </c>
       <c r="L34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M34">
         <v>21715714</v>
       </c>
       <c r="N34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O34">
         <v>21715714</v>
       </c>
       <c r="P34" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2247,7 +2274,7 @@
         <v>35810511</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>30.08</v>
@@ -2259,31 +2286,31 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>2022</v>
       </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M35">
         <v>21715714</v>
       </c>
       <c r="N35" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O35">
         <v>21715714</v>
       </c>
       <c r="P35" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2297,7 +2324,7 @@
         <v>35810511</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>11.1</v>
@@ -2309,31 +2336,31 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2022</v>
       </c>
       <c r="L36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M36">
         <v>21715714</v>
       </c>
       <c r="N36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O36">
         <v>21715714</v>
       </c>
       <c r="P36" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2347,7 +2374,7 @@
         <v>35810511</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>11.1</v>
@@ -2359,31 +2386,31 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>2022</v>
       </c>
       <c r="L37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M37">
         <v>21715714</v>
       </c>
       <c r="N37" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O37">
         <v>21715714</v>
       </c>
       <c r="P37" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2397,7 +2424,7 @@
         <v>14305909</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E38">
         <v>17.02</v>
@@ -2406,31 +2433,31 @@
         <v>20383025</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K38">
         <v>2021</v>
       </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M38">
         <v>39651598</v>
       </c>
       <c r="N38" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O38">
         <v>39651598</v>
       </c>
       <c r="P38" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2444,7 +2471,7 @@
         <v>14305909</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>28.07</v>
@@ -2456,31 +2483,31 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>2021</v>
       </c>
       <c r="L39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M39">
         <v>39651598</v>
       </c>
       <c r="N39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O39">
         <v>39651598</v>
       </c>
       <c r="P39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2494,7 +2521,7 @@
         <v>14305909</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>19.11</v>
@@ -2503,31 +2530,31 @@
         <v>20383025</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>2021</v>
       </c>
       <c r="L40" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M40">
         <v>39651598</v>
       </c>
       <c r="N40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O40">
         <v>39651598</v>
       </c>
       <c r="P40" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2541,7 +2568,7 @@
         <v>35591059</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>20.02</v>
@@ -2550,31 +2577,31 @@
         <v>118916375</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>2023</v>
       </c>
       <c r="L41" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M41">
         <v>40422142</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O41">
         <v>40422142</v>
       </c>
       <c r="P41" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2588,7 +2615,7 @@
         <v>35591059</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>4.05</v>
@@ -2597,31 +2624,31 @@
         <v>118916375</v>
       </c>
       <c r="H42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>2023</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M42">
         <v>40422142</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O42">
         <v>40422142</v>
       </c>
       <c r="P42" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2635,7 +2662,7 @@
         <v>35591059</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>27.07</v>
@@ -2644,31 +2671,31 @@
         <v>118916375</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K43">
         <v>2023</v>
       </c>
       <c r="L43" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M43">
         <v>40422142</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O43">
         <v>40422142</v>
       </c>
       <c r="P43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2682,7 +2709,7 @@
         <v>35591059</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>30.1</v>
@@ -2691,31 +2718,31 @@
         <v>118916375</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K44">
         <v>2023</v>
       </c>
       <c r="L44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M44">
         <v>40422142</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O44">
         <v>40422142</v>
       </c>
       <c r="P44" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2729,7 +2756,7 @@
         <v>32112</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>27.12</v>
@@ -2741,31 +2768,31 @@
         <v>48967414.01</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K45">
         <v>2023</v>
       </c>
       <c r="L45" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M45">
         <v>40422142</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O45">
         <v>40422142</v>
       </c>
       <c r="P45" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2779,7 +2806,7 @@
         <v>35810511</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>21.02</v>
@@ -2791,31 +2818,31 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>2023</v>
       </c>
       <c r="L46" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M46">
         <v>21715714</v>
       </c>
       <c r="N46" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O46">
         <v>21715714</v>
       </c>
       <c r="P46" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2829,7 +2856,7 @@
         <v>35810511</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E47">
         <v>21.02</v>
@@ -2841,31 +2868,31 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>2023</v>
       </c>
       <c r="L47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M47">
         <v>21715714</v>
       </c>
       <c r="N47" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O47">
         <v>21715714</v>
       </c>
       <c r="P47" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2879,7 +2906,7 @@
         <v>35810511</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E48">
         <v>31.05</v>
@@ -2891,31 +2918,31 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>2023</v>
       </c>
       <c r="L48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M48">
         <v>21715714</v>
       </c>
       <c r="N48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O48">
         <v>21715714</v>
       </c>
       <c r="P48" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2929,7 +2956,7 @@
         <v>35810511</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E49">
         <v>31.05</v>
@@ -2941,31 +2968,31 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K49">
         <v>2023</v>
       </c>
       <c r="L49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M49">
         <v>21715714</v>
       </c>
       <c r="N49" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O49">
         <v>21715714</v>
       </c>
       <c r="P49" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2979,7 +3006,7 @@
         <v>35810511</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>27.07</v>
@@ -2991,31 +3018,31 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>2023</v>
       </c>
       <c r="L50" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M50">
         <v>21715714</v>
       </c>
       <c r="N50" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O50">
         <v>21715714</v>
       </c>
       <c r="P50" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3029,7 +3056,7 @@
         <v>35810511</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>27.07</v>
@@ -3041,31 +3068,31 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K51">
         <v>2023</v>
       </c>
       <c r="L51" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M51">
         <v>21715714</v>
       </c>
       <c r="N51" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O51">
         <v>21715714</v>
       </c>
       <c r="P51" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3079,7 +3106,7 @@
         <v>35810511</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <v>30.1</v>
@@ -3091,31 +3118,31 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>2023</v>
       </c>
       <c r="L52" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M52">
         <v>21715714</v>
       </c>
       <c r="N52" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O52">
         <v>21715714</v>
       </c>
       <c r="P52" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3129,7 +3156,7 @@
         <v>35810511</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E53">
         <v>30.1</v>
@@ -3141,31 +3168,31 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K53">
         <v>2023</v>
       </c>
       <c r="L53" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M53">
         <v>21715714</v>
       </c>
       <c r="N53" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O53">
         <v>21715714</v>
       </c>
       <c r="P53" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3175,11 +3202,11 @@
       <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" t="s">
-        <v>25</v>
+      <c r="C54">
+        <v>14360920</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>17.01</v>
@@ -3188,31 +3215,225 @@
         <v>23251275</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54">
+        <v>2024</v>
+      </c>
+      <c r="L54" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54">
+        <v>20069956</v>
+      </c>
+      <c r="N54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O54">
+        <v>20069956</v>
+      </c>
+      <c r="P54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55">
+        <v>17.01</v>
+      </c>
+      <c r="F55">
+        <v>12361121</v>
+      </c>
+      <c r="G55" t="s">
         <v>37</v>
       </c>
-      <c r="K54" t="s">
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
         <v>41</v>
       </c>
-      <c r="L54" t="s">
-        <v>42</v>
-      </c>
-      <c r="M54" t="s">
-        <v>46</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="K55" t="s">
+        <v>45</v>
+      </c>
+      <c r="L55" t="s">
+        <v>48</v>
+      </c>
+      <c r="M55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N55" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" t="s">
+        <v>50</v>
+      </c>
+      <c r="P55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>17.01</v>
+      </c>
+      <c r="F56">
+        <v>23028778</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" t="s">
+        <v>50</v>
+      </c>
+      <c r="P56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>17.01</v>
+      </c>
+      <c r="F57">
+        <v>122575350</v>
+      </c>
+      <c r="H57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" t="s">
+        <v>45</v>
+      </c>
+      <c r="L57" t="s">
         <v>47</v>
       </c>
-      <c r="O54" t="s">
-        <v>46</v>
-      </c>
-      <c r="P54" t="s">
-        <v>72</v>
+      <c r="M57" t="s">
+        <v>51</v>
+      </c>
+      <c r="N57" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>17.01</v>
+      </c>
+      <c r="F58">
+        <v>28915125</v>
+      </c>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M58" t="s">
+        <v>52</v>
+      </c>
+      <c r="N58" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="90">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -94,15 +94,24 @@
     <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК" </t>
   </si>
   <si>
+    <t>09804119</t>
+  </si>
+  <si>
+    <t>14360920</t>
+  </si>
+  <si>
+    <t>35591059</t>
+  </si>
+  <si>
     <t>35810511</t>
   </si>
   <si>
-    <t>35591059</t>
-  </si>
-  <si>
     <t>14305909</t>
   </si>
   <si>
+    <t>00032112</t>
+  </si>
+  <si>
     <t>UA363516290000000002604826373</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>0.00</t>
   </si>
   <si>
+    <t>48967414.01</t>
+  </si>
+  <si>
     <t>Центральний офіс</t>
   </si>
   <si>
@@ -151,6 +163,15 @@
     <t>4 квартал</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
@@ -166,10 +187,13 @@
     <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
   </si>
   <si>
+    <t>20069956</t>
+  </si>
+  <si>
+    <t>40422142</t>
+  </si>
+  <si>
     <t>21715714</t>
-  </si>
-  <si>
-    <t>40422142</t>
   </si>
   <si>
     <t>39651598</t>
@@ -680,11 +704,11 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
-        <v>9804119</v>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>21.01</v>
@@ -693,31 +717,31 @@
         <v>20822025</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -727,11 +751,11 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
-        <v>14360920</v>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>30.06</v>
@@ -740,31 +764,31 @@
         <v>18739822</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -774,11 +798,11 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>14360920</v>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>30.08</v>
@@ -787,31 +811,31 @@
         <v>18739822</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -821,11 +845,11 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>14360920</v>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>20.1</v>
@@ -834,31 +858,31 @@
         <v>16657620</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -868,11 +892,11 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>35591059</v>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>17.02</v>
@@ -881,31 +905,31 @@
         <v>86406500</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>2021</v>
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -915,11 +939,11 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>35591059</v>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>20.04</v>
@@ -928,31 +952,31 @@
         <v>86406500</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>2021</v>
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -962,11 +986,11 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>35591059</v>
+      <c r="C8" t="s">
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>5.07</v>
@@ -975,31 +999,31 @@
         <v>86406500</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>2021</v>
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
       </c>
       <c r="P8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1009,11 +1033,11 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
-        <v>35591059</v>
+      <c r="C9" t="s">
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>10.11</v>
@@ -1022,31 +1046,31 @@
         <v>86406500</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9">
-        <v>2021</v>
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1056,11 +1080,11 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>35591059</v>
+      <c r="C10" t="s">
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>20.1</v>
@@ -1069,31 +1093,31 @@
         <v>87815180</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
       </c>
       <c r="P10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1103,11 +1127,11 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
-        <v>35591059</v>
+      <c r="C11" t="s">
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>30.06</v>
@@ -1116,31 +1140,31 @@
         <v>98792077</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>58</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1150,11 +1174,11 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
-        <v>35591059</v>
+      <c r="C12" t="s">
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>30.08</v>
@@ -1163,31 +1187,31 @@
         <v>98792077</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1197,11 +1221,11 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>35591059</v>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>21.01</v>
@@ -1210,31 +1234,31 @@
         <v>109768975</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>58</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1244,11 +1268,11 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
-        <v>9804119</v>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>17.02</v>
@@ -1257,31 +1281,31 @@
         <v>16390400</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14">
-        <v>2021</v>
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O14" t="s">
+        <v>57</v>
       </c>
       <c r="P14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1291,11 +1315,11 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>9804119</v>
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>20.04</v>
@@ -1303,35 +1327,35 @@
       <c r="F15">
         <v>16390400</v>
       </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="G15" t="s">
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>2021</v>
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O15" t="s">
+        <v>57</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1341,11 +1365,11 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>9804119</v>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>5.07</v>
@@ -1353,35 +1377,35 @@
       <c r="F16">
         <v>16390400</v>
       </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="G16" t="s">
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16">
-        <v>2021</v>
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
       </c>
       <c r="P16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1391,11 +1415,11 @@
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>35810511</v>
+      <c r="C17" t="s">
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>17.02</v>
@@ -1404,31 +1428,31 @@
         <v>8713662</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>2021</v>
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
+        <v>59</v>
       </c>
       <c r="N17" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1438,11 +1462,11 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>35810511</v>
+      <c r="C18" t="s">
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>17.02</v>
@@ -1450,35 +1474,35 @@
       <c r="F18">
         <v>16233562</v>
       </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="G18" t="s">
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>2021</v>
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
       </c>
       <c r="P18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1488,11 +1512,11 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>35810511</v>
+      <c r="C19" t="s">
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>20.04</v>
@@ -1501,31 +1525,31 @@
         <v>8713662</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>2021</v>
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
       </c>
       <c r="N19" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
       </c>
       <c r="P19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1535,11 +1559,11 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>35810511</v>
+      <c r="C20" t="s">
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>20.04</v>
@@ -1547,35 +1571,35 @@
       <c r="F20">
         <v>16233562</v>
       </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="G20" t="s">
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>2021</v>
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>59</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
       </c>
       <c r="P20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1585,11 +1609,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>35810511</v>
+      <c r="C21" t="s">
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>5.07</v>
@@ -1597,35 +1621,35 @@
       <c r="F21">
         <v>8713662</v>
       </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="G21" t="s">
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>2021</v>
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M21" t="s">
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
       </c>
       <c r="P21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1635,11 +1659,11 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>35810511</v>
+      <c r="C22" t="s">
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>5.07</v>
@@ -1647,35 +1671,35 @@
       <c r="F22">
         <v>16233562</v>
       </c>
-      <c r="G22">
-        <v>0</v>
+      <c r="G22" t="s">
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>2021</v>
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
       </c>
       <c r="P22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1685,11 +1709,11 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>35810511</v>
+      <c r="C23" t="s">
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>10.11</v>
@@ -1697,35 +1721,35 @@
       <c r="F23">
         <v>8713662</v>
       </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="G23" t="s">
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>2021</v>
+        <v>48</v>
+      </c>
+      <c r="K23" t="s">
+        <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M23" t="s">
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
       </c>
       <c r="P23" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1735,11 +1759,11 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24">
-        <v>35810511</v>
+      <c r="C24" t="s">
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>10.11</v>
@@ -1747,35 +1771,35 @@
       <c r="F24">
         <v>16233562</v>
       </c>
-      <c r="G24">
-        <v>0</v>
+      <c r="G24" t="s">
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>2021</v>
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M24" t="s">
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
       </c>
       <c r="P24" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1785,11 +1809,11 @@
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25">
-        <v>9804119</v>
+      <c r="C25" t="s">
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>10.11</v>
@@ -1798,31 +1822,31 @@
         <v>16390400</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <v>2021</v>
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M25" t="s">
+        <v>57</v>
       </c>
       <c r="N25" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
       </c>
       <c r="P25" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1832,11 +1856,11 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26">
-        <v>35810511</v>
+      <c r="C26" t="s">
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>20.01</v>
@@ -1844,35 +1868,35 @@
       <c r="F26">
         <v>11069661</v>
       </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="G26" t="s">
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26">
-        <v>2022</v>
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>49</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M26" t="s">
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>55</v>
-      </c>
-      <c r="O26">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
       </c>
       <c r="P26" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1882,11 +1906,11 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27">
-        <v>35810511</v>
+      <c r="C27" t="s">
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>20.01</v>
@@ -1894,35 +1918,35 @@
       <c r="F27">
         <v>20622787</v>
       </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="G27" t="s">
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27">
-        <v>2022</v>
+        <v>45</v>
+      </c>
+      <c r="K27" t="s">
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M27" t="s">
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
       </c>
       <c r="P27" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1932,11 +1956,11 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28">
-        <v>14360920</v>
+      <c r="C28" t="s">
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>20.02</v>
@@ -1945,31 +1969,31 @@
         <v>22557200</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M28" t="s">
+        <v>57</v>
       </c>
       <c r="N28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>57</v>
       </c>
       <c r="P28" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1979,11 +2003,11 @@
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29">
-        <v>14360920</v>
+      <c r="C29" t="s">
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>4.05</v>
@@ -1992,31 +2016,31 @@
         <v>22557200</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K29" t="s">
+        <v>51</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M29" t="s">
+        <v>57</v>
       </c>
       <c r="N29" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O29" t="s">
+        <v>57</v>
       </c>
       <c r="P29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2026,11 +2050,11 @@
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30">
-        <v>14360920</v>
+      <c r="C30" t="s">
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>27.07</v>
@@ -2039,31 +2063,31 @@
         <v>22557200</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K30" t="s">
+        <v>51</v>
       </c>
       <c r="L30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M30" t="s">
+        <v>57</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
-      </c>
-      <c r="O30">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O30" t="s">
+        <v>57</v>
       </c>
       <c r="P30" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2073,11 +2097,11 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31">
-        <v>14360920</v>
+      <c r="C31" t="s">
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>30.1</v>
@@ -2086,31 +2110,31 @@
         <v>22557200</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K31" t="s">
+        <v>51</v>
       </c>
       <c r="L31" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M31" t="s">
+        <v>57</v>
       </c>
       <c r="N31" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O31" t="s">
+        <v>57</v>
       </c>
       <c r="P31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2120,11 +2144,11 @@
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32">
-        <v>35810511</v>
+      <c r="C32" t="s">
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>30.06</v>
@@ -2132,35 +2156,35 @@
       <c r="F32">
         <v>9962695</v>
       </c>
-      <c r="G32">
-        <v>0</v>
+      <c r="G32" t="s">
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32">
-        <v>2022</v>
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>49</v>
       </c>
       <c r="L32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M32" t="s">
+        <v>59</v>
       </c>
       <c r="N32" t="s">
-        <v>55</v>
-      </c>
-      <c r="O32">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
       </c>
       <c r="P32" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2170,11 +2194,11 @@
       <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C33">
-        <v>35810511</v>
+      <c r="C33" t="s">
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>30.06</v>
@@ -2182,35 +2206,35 @@
       <c r="F33">
         <v>18560508</v>
       </c>
-      <c r="G33">
-        <v>0</v>
+      <c r="G33" t="s">
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33">
-        <v>2022</v>
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>49</v>
       </c>
       <c r="L33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M33" t="s">
+        <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O33">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
       </c>
       <c r="P33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2220,11 +2244,11 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34">
-        <v>35810511</v>
+      <c r="C34" t="s">
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>30.08</v>
@@ -2232,35 +2256,35 @@
       <c r="F34">
         <v>9962695</v>
       </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="G34" t="s">
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34">
-        <v>2022</v>
+        <v>47</v>
+      </c>
+      <c r="K34" t="s">
+        <v>49</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
-      </c>
-      <c r="M34">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M34" t="s">
+        <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O34">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
       </c>
       <c r="P34" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2270,11 +2294,11 @@
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35">
-        <v>35810511</v>
+      <c r="C35" t="s">
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>30.08</v>
@@ -2282,35 +2306,35 @@
       <c r="F35">
         <v>18560508</v>
       </c>
-      <c r="G35">
-        <v>0</v>
+      <c r="G35" t="s">
+        <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35">
-        <v>2022</v>
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>49</v>
       </c>
       <c r="L35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M35" t="s">
+        <v>59</v>
       </c>
       <c r="N35" t="s">
-        <v>55</v>
-      </c>
-      <c r="O35">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2320,11 +2344,11 @@
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36">
-        <v>35810511</v>
+      <c r="C36" t="s">
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>11.1</v>
@@ -2332,35 +2356,35 @@
       <c r="F36">
         <v>8855728</v>
       </c>
-      <c r="G36">
-        <v>0</v>
+      <c r="G36" t="s">
+        <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="K36" t="s">
+        <v>49</v>
       </c>
       <c r="L36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M36">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M36" t="s">
+        <v>59</v>
       </c>
       <c r="N36" t="s">
-        <v>55</v>
-      </c>
-      <c r="O36">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
       </c>
       <c r="P36" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2370,11 +2394,11 @@
       <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C37">
-        <v>35810511</v>
+      <c r="C37" t="s">
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>11.1</v>
@@ -2382,35 +2406,35 @@
       <c r="F37">
         <v>16498230</v>
       </c>
-      <c r="G37">
-        <v>0</v>
+      <c r="G37" t="s">
+        <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="K37" t="s">
+        <v>49</v>
       </c>
       <c r="L37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>59</v>
       </c>
       <c r="N37" t="s">
-        <v>55</v>
-      </c>
-      <c r="O37">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
       </c>
       <c r="P37" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2420,11 +2444,11 @@
       <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38">
-        <v>14305909</v>
+      <c r="C38" t="s">
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>17.02</v>
@@ -2433,31 +2457,31 @@
         <v>20383025</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38">
-        <v>2021</v>
+        <v>45</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
       </c>
       <c r="L38" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38">
-        <v>39651598</v>
+        <v>56</v>
+      </c>
+      <c r="M38" t="s">
+        <v>60</v>
       </c>
       <c r="N38" t="s">
-        <v>56</v>
-      </c>
-      <c r="O38">
-        <v>39651598</v>
+        <v>64</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2467,11 +2491,11 @@
       <c r="B39" t="s">
         <v>23</v>
       </c>
-      <c r="C39">
-        <v>14305909</v>
+      <c r="C39" t="s">
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>28.07</v>
@@ -2479,35 +2503,35 @@
       <c r="F39">
         <v>20383025</v>
       </c>
-      <c r="G39">
-        <v>0</v>
+      <c r="G39" t="s">
+        <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39">
-        <v>2021</v>
+        <v>47</v>
+      </c>
+      <c r="K39" t="s">
+        <v>50</v>
       </c>
       <c r="L39" t="s">
-        <v>49</v>
-      </c>
-      <c r="M39">
-        <v>39651598</v>
+        <v>56</v>
+      </c>
+      <c r="M39" t="s">
+        <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>56</v>
-      </c>
-      <c r="O39">
-        <v>39651598</v>
+        <v>64</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
       </c>
       <c r="P39" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2517,11 +2541,11 @@
       <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C40">
-        <v>14305909</v>
+      <c r="C40" t="s">
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>19.11</v>
@@ -2530,31 +2554,31 @@
         <v>20383025</v>
       </c>
       <c r="H40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40">
-        <v>2021</v>
+        <v>48</v>
+      </c>
+      <c r="K40" t="s">
+        <v>50</v>
       </c>
       <c r="L40" t="s">
-        <v>49</v>
-      </c>
-      <c r="M40">
-        <v>39651598</v>
+        <v>56</v>
+      </c>
+      <c r="M40" t="s">
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>56</v>
-      </c>
-      <c r="O40">
-        <v>39651598</v>
+        <v>64</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
       </c>
       <c r="P40" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2564,11 +2588,11 @@
       <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C41">
-        <v>35591059</v>
+      <c r="C41" t="s">
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E41">
         <v>20.02</v>
@@ -2577,31 +2601,31 @@
         <v>118916375</v>
       </c>
       <c r="H41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K41" t="s">
+        <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M41" t="s">
+        <v>58</v>
       </c>
       <c r="N41" t="s">
-        <v>54</v>
-      </c>
-      <c r="O41">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
       </c>
       <c r="P41" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2611,11 +2635,11 @@
       <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C42">
-        <v>35591059</v>
+      <c r="C42" t="s">
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>4.05</v>
@@ -2624,31 +2648,31 @@
         <v>118916375</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K42" t="s">
+        <v>51</v>
       </c>
       <c r="L42" t="s">
-        <v>47</v>
-      </c>
-      <c r="M42">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M42" t="s">
+        <v>58</v>
       </c>
       <c r="N42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
       </c>
       <c r="P42" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2658,11 +2682,11 @@
       <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C43">
-        <v>35591059</v>
+      <c r="C43" t="s">
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>27.07</v>
@@ -2671,31 +2695,31 @@
         <v>118916375</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K43" t="s">
+        <v>51</v>
       </c>
       <c r="L43" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M43" t="s">
+        <v>58</v>
       </c>
       <c r="N43" t="s">
-        <v>54</v>
-      </c>
-      <c r="O43">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O43" t="s">
+        <v>58</v>
       </c>
       <c r="P43" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2705,11 +2729,11 @@
       <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44">
-        <v>35591059</v>
+      <c r="C44" t="s">
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>30.1</v>
@@ -2718,31 +2742,31 @@
         <v>118916375</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K44">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>47</v>
-      </c>
-      <c r="M44">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M44" t="s">
+        <v>58</v>
       </c>
       <c r="N44" t="s">
-        <v>54</v>
-      </c>
-      <c r="O44">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O44" t="s">
+        <v>58</v>
       </c>
       <c r="P44" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2752,11 +2776,11 @@
       <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C45">
-        <v>32112</v>
+      <c r="C45" t="s">
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E45">
         <v>27.12</v>
@@ -2764,35 +2788,35 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>48967414.01</v>
+      <c r="G45" t="s">
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K45" t="s">
+        <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M45">
-        <v>40422142</v>
+        <v>54</v>
+      </c>
+      <c r="M45" t="s">
+        <v>58</v>
       </c>
       <c r="N45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O45">
-        <v>40422142</v>
+        <v>62</v>
+      </c>
+      <c r="O45" t="s">
+        <v>58</v>
       </c>
       <c r="P45" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2802,11 +2826,11 @@
       <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C46">
-        <v>35810511</v>
+      <c r="C46" t="s">
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>21.02</v>
@@ -2814,35 +2838,35 @@
       <c r="F46">
         <v>22341342</v>
       </c>
-      <c r="G46">
-        <v>0</v>
+      <c r="G46" t="s">
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K46">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K46" t="s">
+        <v>51</v>
       </c>
       <c r="L46" t="s">
-        <v>48</v>
-      </c>
-      <c r="M46">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M46" t="s">
+        <v>59</v>
       </c>
       <c r="N46" t="s">
-        <v>55</v>
-      </c>
-      <c r="O46">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
       </c>
       <c r="P46" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2852,11 +2876,11 @@
       <c r="B47" t="s">
         <v>21</v>
       </c>
-      <c r="C47">
-        <v>35810511</v>
+      <c r="C47" t="s">
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>21.02</v>
@@ -2864,35 +2888,35 @@
       <c r="F47">
         <v>11992132</v>
       </c>
-      <c r="G47">
-        <v>0</v>
+      <c r="G47" t="s">
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
-      </c>
-      <c r="K47">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K47" t="s">
+        <v>51</v>
       </c>
       <c r="L47" t="s">
-        <v>48</v>
-      </c>
-      <c r="M47">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M47" t="s">
+        <v>59</v>
       </c>
       <c r="N47" t="s">
-        <v>55</v>
-      </c>
-      <c r="O47">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2902,11 +2926,11 @@
       <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="C48">
-        <v>35810511</v>
+      <c r="C48" t="s">
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E48">
         <v>31.05</v>
@@ -2914,35 +2938,35 @@
       <c r="F48">
         <v>11992132</v>
       </c>
-      <c r="G48">
-        <v>0</v>
+      <c r="G48" t="s">
+        <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K48">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K48" t="s">
+        <v>51</v>
       </c>
       <c r="L48" t="s">
-        <v>48</v>
-      </c>
-      <c r="M48">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M48" t="s">
+        <v>59</v>
       </c>
       <c r="N48" t="s">
-        <v>55</v>
-      </c>
-      <c r="O48">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2952,11 +2976,11 @@
       <c r="B49" t="s">
         <v>21</v>
       </c>
-      <c r="C49">
-        <v>35810511</v>
+      <c r="C49" t="s">
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E49">
         <v>31.05</v>
@@ -2964,35 +2988,35 @@
       <c r="F49">
         <v>22341342</v>
       </c>
-      <c r="G49">
-        <v>0</v>
+      <c r="G49" t="s">
+        <v>40</v>
       </c>
       <c r="H49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K49" t="s">
+        <v>51</v>
       </c>
       <c r="L49" t="s">
-        <v>48</v>
-      </c>
-      <c r="M49">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M49" t="s">
+        <v>59</v>
       </c>
       <c r="N49" t="s">
-        <v>55</v>
-      </c>
-      <c r="O49">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
       </c>
       <c r="P49" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3002,11 +3026,11 @@
       <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50">
-        <v>35810511</v>
+      <c r="C50" t="s">
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E50">
         <v>27.07</v>
@@ -3014,35 +3038,35 @@
       <c r="F50">
         <v>11992132</v>
       </c>
-      <c r="G50">
-        <v>0</v>
+      <c r="G50" t="s">
+        <v>40</v>
       </c>
       <c r="H50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K50" t="s">
+        <v>51</v>
       </c>
       <c r="L50" t="s">
-        <v>48</v>
-      </c>
-      <c r="M50">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M50" t="s">
+        <v>59</v>
       </c>
       <c r="N50" t="s">
-        <v>55</v>
-      </c>
-      <c r="O50">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
       </c>
       <c r="P50" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3052,11 +3076,11 @@
       <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="C51">
-        <v>35810511</v>
+      <c r="C51" t="s">
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E51">
         <v>27.07</v>
@@ -3064,35 +3088,35 @@
       <c r="F51">
         <v>22341342</v>
       </c>
-      <c r="G51">
-        <v>0</v>
+      <c r="G51" t="s">
+        <v>40</v>
       </c>
       <c r="H51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K51">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K51" t="s">
+        <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>48</v>
-      </c>
-      <c r="M51">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M51" t="s">
+        <v>59</v>
       </c>
       <c r="N51" t="s">
-        <v>55</v>
-      </c>
-      <c r="O51">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
       </c>
       <c r="P51" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3102,11 +3126,11 @@
       <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C52">
-        <v>35810511</v>
+      <c r="C52" t="s">
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E52">
         <v>30.1</v>
@@ -3114,35 +3138,35 @@
       <c r="F52">
         <v>11992132</v>
       </c>
-      <c r="G52">
-        <v>0</v>
+      <c r="G52" t="s">
+        <v>40</v>
       </c>
       <c r="H52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K52" t="s">
+        <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>48</v>
-      </c>
-      <c r="M52">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M52" t="s">
+        <v>59</v>
       </c>
       <c r="N52" t="s">
-        <v>55</v>
-      </c>
-      <c r="O52">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
       </c>
       <c r="P52" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3152,11 +3176,11 @@
       <c r="B53" t="s">
         <v>21</v>
       </c>
-      <c r="C53">
-        <v>35810511</v>
+      <c r="C53" t="s">
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E53">
         <v>30.1</v>
@@ -3164,35 +3188,35 @@
       <c r="F53">
         <v>22341342</v>
       </c>
-      <c r="G53">
-        <v>0</v>
+      <c r="G53" t="s">
+        <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K53">
-        <v>2023</v>
+        <v>44</v>
+      </c>
+      <c r="K53" t="s">
+        <v>51</v>
       </c>
       <c r="L53" t="s">
-        <v>48</v>
-      </c>
-      <c r="M53">
-        <v>21715714</v>
+        <v>55</v>
+      </c>
+      <c r="M53" t="s">
+        <v>59</v>
       </c>
       <c r="N53" t="s">
-        <v>55</v>
-      </c>
-      <c r="O53">
-        <v>21715714</v>
+        <v>63</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
       </c>
       <c r="P53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3202,11 +3226,11 @@
       <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C54">
-        <v>14360920</v>
+      <c r="C54" t="s">
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E54">
         <v>17.01</v>
@@ -3215,31 +3239,31 @@
         <v>23251275</v>
       </c>
       <c r="H54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
-      </c>
-      <c r="K54">
-        <v>2024</v>
+        <v>45</v>
+      </c>
+      <c r="K54" t="s">
+        <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>46</v>
-      </c>
-      <c r="M54">
-        <v>20069956</v>
+        <v>53</v>
+      </c>
+      <c r="M54" t="s">
+        <v>57</v>
       </c>
       <c r="N54" t="s">
-        <v>53</v>
-      </c>
-      <c r="O54">
-        <v>20069956</v>
+        <v>61</v>
+      </c>
+      <c r="O54" t="s">
+        <v>57</v>
       </c>
       <c r="P54" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3250,10 +3274,10 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E55">
         <v>17.01</v>
@@ -3262,34 +3286,34 @@
         <v>12361121</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M55" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N55" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O55" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="P55" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3300,10 +3324,10 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E56">
         <v>17.01</v>
@@ -3312,34 +3336,34 @@
         <v>23028778</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L56" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N56" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O56" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="P56" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3350,10 +3374,10 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E57">
         <v>17.01</v>
@@ -3362,31 +3386,31 @@
         <v>122575350</v>
       </c>
       <c r="H57" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K57" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L57" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M57" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N57" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="O57" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P57" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3397,10 +3421,10 @@
         <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E58">
         <v>17.01</v>
@@ -3409,31 +3433,31 @@
         <v>28915125</v>
       </c>
       <c r="H58" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M58" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N58" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="94">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
   </si>
 </sst>
 </file>
@@ -641,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3460,6 +3472,247 @@
         <v>89</v>
       </c>
     </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>18.04</v>
+      </c>
+      <c r="F59">
+        <v>28915125</v>
+      </c>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" t="s">
+        <v>56</v>
+      </c>
+      <c r="M59" t="s">
+        <v>60</v>
+      </c>
+      <c r="N59" t="s">
+        <v>64</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60">
+        <v>18.04</v>
+      </c>
+      <c r="F60">
+        <v>122575350</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" t="s">
+        <v>54</v>
+      </c>
+      <c r="M60" t="s">
+        <v>58</v>
+      </c>
+      <c r="N60" t="s">
+        <v>62</v>
+      </c>
+      <c r="O60" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61">
+        <v>18.04</v>
+      </c>
+      <c r="F61">
+        <v>12361121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" t="s">
+        <v>55</v>
+      </c>
+      <c r="M61" t="s">
+        <v>59</v>
+      </c>
+      <c r="N61" t="s">
+        <v>63</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62">
+        <v>18.04</v>
+      </c>
+      <c r="F62">
+        <v>23028778</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" t="s">
+        <v>55</v>
+      </c>
+      <c r="M62" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" t="s">
+        <v>63</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63">
+        <v>18.04</v>
+      </c>
+      <c r="F63">
+        <v>23251275</v>
+      </c>
+      <c r="H63" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L63" t="s">
+        <v>53</v>
+      </c>
+      <c r="M63" t="s">
+        <v>57</v>
+      </c>
+      <c r="N63" t="s">
+        <v>61</v>
+      </c>
+      <c r="O63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P63" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -229,73 +229,73 @@
     <t>55197210-e6c9-11ee-8b5a-f7f195166b05</t>
   </si>
   <si>
+    <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
+  </si>
+  <si>
+    <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
+  </si>
+  <si>
+    <t>470c80e0-e791-11ee-90b7-9b9aa9321258</t>
+  </si>
+  <si>
+    <t>8df6f610-e864-11ee-8b5a-f7f195166b05</t>
+  </si>
+  <si>
+    <t>f882f450-e87a-11ee-8b5a-f7f195166b05</t>
+  </si>
+  <si>
+    <t>ab38df80-e90a-11ee-a5cc-0f6c6369ddf7</t>
+  </si>
+  <si>
+    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>a0f57dc0-eab4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>e05f7b60-eab8-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
     <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
-  </si>
-  <si>
-    <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
-  </si>
-  <si>
-    <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
-  </si>
-  <si>
-    <t>470c80e0-e791-11ee-90b7-9b9aa9321258</t>
-  </si>
-  <si>
-    <t>8df6f610-e864-11ee-8b5a-f7f195166b05</t>
-  </si>
-  <si>
-    <t>f882f450-e87a-11ee-8b5a-f7f195166b05</t>
-  </si>
-  <si>
-    <t>ab38df80-e90a-11ee-a5cc-0f6c6369ddf7</t>
-  </si>
-  <si>
-    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>a0f57dc0-eab4-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>e05f7b60-eab8-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1434,7 @@
         <v>35</v>
       </c>
       <c r="E17">
-        <v>17.02</v>
+        <v>20.04</v>
       </c>
       <c r="F17">
         <v>8713662</v>
@@ -1446,7 +1446,7 @@
         <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
         <v>50</v>
@@ -1481,7 +1481,7 @@
         <v>35</v>
       </c>
       <c r="E18">
-        <v>17.02</v>
+        <v>20.04</v>
       </c>
       <c r="F18">
         <v>16233562</v>
@@ -1496,7 +1496,7 @@
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>50</v>
@@ -1531,11 +1531,14 @@
         <v>35</v>
       </c>
       <c r="E19">
-        <v>20.04</v>
+        <v>5.07</v>
       </c>
       <c r="F19">
         <v>8713662</v>
       </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
         <v>50</v>
@@ -1578,7 +1581,7 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>20.04</v>
+        <v>5.07</v>
       </c>
       <c r="F20">
         <v>16233562</v>
@@ -1593,7 +1596,7 @@
         <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
@@ -1628,7 +1631,7 @@
         <v>35</v>
       </c>
       <c r="E21">
-        <v>5.07</v>
+        <v>10.11</v>
       </c>
       <c r="F21">
         <v>8713662</v>
@@ -1643,7 +1646,7 @@
         <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
         <v>50</v>
@@ -1678,7 +1681,7 @@
         <v>35</v>
       </c>
       <c r="E22">
-        <v>5.07</v>
+        <v>10.11</v>
       </c>
       <c r="F22">
         <v>16233562</v>
@@ -1693,7 +1696,7 @@
         <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
         <v>50</v>
@@ -1719,22 +1722,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>10.11</v>
       </c>
       <c r="F23">
-        <v>8713662</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
+        <v>16390400</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
@@ -1749,16 +1749,16 @@
         <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P23" t="s">
         <v>74</v>
@@ -1778,10 +1778,10 @@
         <v>35</v>
       </c>
       <c r="E24">
-        <v>10.11</v>
+        <v>20.01</v>
       </c>
       <c r="F24">
-        <v>16233562</v>
+        <v>11069661</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -1793,10 +1793,10 @@
         <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
         <v>55</v>
@@ -1811,7 +1811,7 @@
         <v>59</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1819,19 +1819,22 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>10.11</v>
+        <v>20.01</v>
       </c>
       <c r="F25">
-        <v>16390400</v>
+        <v>20622787</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
       </c>
       <c r="H25" t="s">
         <v>42</v>
@@ -1840,22 +1843,22 @@
         <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P25" t="s">
         <v>75</v>
@@ -1866,22 +1869,19 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>20.01</v>
+        <v>20.02</v>
       </c>
       <c r="F26">
-        <v>11069661</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
+        <v>22557200</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -1890,22 +1890,22 @@
         <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P26" t="s">
         <v>76</v>
@@ -1916,22 +1916,19 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>20.01</v>
+        <v>4.05</v>
       </c>
       <c r="F27">
-        <v>20622787</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
+        <v>22557200</v>
       </c>
       <c r="H27" t="s">
         <v>42</v>
@@ -1940,22 +1937,22 @@
         <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" t="s">
         <v>76</v>
@@ -1975,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="E28">
-        <v>20.02</v>
+        <v>27.07</v>
       </c>
       <c r="F28">
         <v>22557200</v>
@@ -2005,7 +2002,7 @@
         <v>57</v>
       </c>
       <c r="P28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2022,7 +2019,7 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>4.05</v>
+        <v>30.1</v>
       </c>
       <c r="F29">
         <v>22557200</v>
@@ -2052,7 +2049,7 @@
         <v>57</v>
       </c>
       <c r="P29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2060,19 +2057,22 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>27.07</v>
+        <v>30.06</v>
       </c>
       <c r="F30">
-        <v>22557200</v>
+        <v>9962695</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -2081,22 +2081,22 @@
         <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P30" t="s">
         <v>77</v>
@@ -2107,19 +2107,22 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <v>30.1</v>
+        <v>30.06</v>
       </c>
       <c r="F31">
-        <v>22557200</v>
+        <v>18560508</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
@@ -2128,22 +2131,22 @@
         <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P31" t="s">
         <v>77</v>
@@ -2163,7 +2166,7 @@
         <v>35</v>
       </c>
       <c r="E32">
-        <v>30.06</v>
+        <v>30.08</v>
       </c>
       <c r="F32">
         <v>9962695</v>
@@ -2178,7 +2181,7 @@
         <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
         <v>49</v>
@@ -2213,7 +2216,7 @@
         <v>35</v>
       </c>
       <c r="E33">
-        <v>30.06</v>
+        <v>30.08</v>
       </c>
       <c r="F33">
         <v>18560508</v>
@@ -2228,7 +2231,7 @@
         <v>43</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
         <v>49</v>
@@ -2263,10 +2266,10 @@
         <v>35</v>
       </c>
       <c r="E34">
-        <v>30.08</v>
+        <v>11.1</v>
       </c>
       <c r="F34">
-        <v>9962695</v>
+        <v>8855728</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -2278,7 +2281,7 @@
         <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
         <v>49</v>
@@ -2313,10 +2316,10 @@
         <v>35</v>
       </c>
       <c r="E35">
-        <v>30.08</v>
+        <v>11.1</v>
       </c>
       <c r="F35">
-        <v>18560508</v>
+        <v>16498230</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -2328,7 +2331,7 @@
         <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
         <v>49</v>
@@ -2354,22 +2357,19 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>11.1</v>
+        <v>17.02</v>
       </c>
       <c r="F36">
-        <v>8855728</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
+        <v>20383025</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
@@ -2378,22 +2378,22 @@
         <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s">
         <v>80</v>
@@ -2404,19 +2404,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>11.1</v>
+        <v>28.07</v>
       </c>
       <c r="F37">
-        <v>16498230</v>
+        <v>20383025</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -2428,25 +2428,25 @@
         <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2454,7 +2454,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -2463,7 +2463,7 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>17.02</v>
+        <v>19.11</v>
       </c>
       <c r="F38">
         <v>20383025</v>
@@ -2475,7 +2475,7 @@
         <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s">
         <v>50</v>
@@ -2493,7 +2493,7 @@
         <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2501,22 +2501,19 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>28.07</v>
+        <v>20.02</v>
       </c>
       <c r="F39">
-        <v>20383025</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
@@ -2525,25 +2522,25 @@
         <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2551,19 +2548,19 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40">
-        <v>19.11</v>
+        <v>4.05</v>
       </c>
       <c r="F40">
-        <v>20383025</v>
+        <v>118916375</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
@@ -2572,22 +2569,22 @@
         <v>43</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P40" t="s">
         <v>83</v>
@@ -2607,7 +2604,7 @@
         <v>34</v>
       </c>
       <c r="E41">
-        <v>20.02</v>
+        <v>27.07</v>
       </c>
       <c r="F41">
         <v>118916375</v>
@@ -2637,7 +2634,7 @@
         <v>58</v>
       </c>
       <c r="P41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2654,7 +2651,7 @@
         <v>34</v>
       </c>
       <c r="E42">
-        <v>4.05</v>
+        <v>30.1</v>
       </c>
       <c r="F42">
         <v>118916375</v>
@@ -2684,7 +2681,7 @@
         <v>58</v>
       </c>
       <c r="P42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2692,19 +2689,22 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>27.07</v>
+        <v>27.12</v>
       </c>
       <c r="F43">
-        <v>118916375</v>
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -2731,7 +2731,7 @@
         <v>58</v>
       </c>
       <c r="P43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2739,19 +2739,22 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E44">
-        <v>30.1</v>
+        <v>21.02</v>
       </c>
       <c r="F44">
-        <v>118916375</v>
+        <v>22341342</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -2766,16 +2769,16 @@
         <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P44" t="s">
         <v>84</v>
@@ -2786,22 +2789,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>27.12</v>
+        <v>21.02</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>11992132</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -2816,16 +2819,16 @@
         <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P45" t="s">
         <v>84</v>
@@ -2842,13 +2845,13 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E46">
-        <v>21.02</v>
+        <v>31.05</v>
       </c>
       <c r="F46">
-        <v>22341342</v>
+        <v>11992132</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -2878,7 +2881,7 @@
         <v>59</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2892,13 +2895,13 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>21.02</v>
+        <v>31.05</v>
       </c>
       <c r="F47">
-        <v>11992132</v>
+        <v>22341342</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -2928,7 +2931,7 @@
         <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2945,7 +2948,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>31.05</v>
+        <v>27.07</v>
       </c>
       <c r="F48">
         <v>11992132</v>
@@ -2978,7 +2981,7 @@
         <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2995,7 +2998,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>31.05</v>
+        <v>27.07</v>
       </c>
       <c r="F49">
         <v>22341342</v>
@@ -3028,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="P49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3045,7 +3048,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>27.07</v>
+        <v>30.1</v>
       </c>
       <c r="F50">
         <v>11992132</v>
@@ -3078,7 +3081,7 @@
         <v>59</v>
       </c>
       <c r="P50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3095,7 +3098,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>27.07</v>
+        <v>30.1</v>
       </c>
       <c r="F51">
         <v>22341342</v>
@@ -3128,7 +3131,7 @@
         <v>59</v>
       </c>
       <c r="P51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3136,22 +3139,19 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E52">
-        <v>30.1</v>
+        <v>17.01</v>
       </c>
       <c r="F52">
-        <v>11992132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
@@ -3160,22 +3160,22 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P52" t="s">
         <v>85</v>
@@ -3195,10 +3195,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>30.1</v>
+        <v>17.01</v>
       </c>
       <c r="F53">
-        <v>22341342</v>
+        <v>12361121</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -3210,10 +3210,10 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L53" t="s">
         <v>55</v>
@@ -3228,7 +3228,7 @@
         <v>59</v>
       </c>
       <c r="P53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3236,19 +3236,22 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E54">
         <v>17.01</v>
       </c>
       <c r="F54">
-        <v>23251275</v>
+        <v>23028778</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
@@ -3263,16 +3266,16 @@
         <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P54" t="s">
         <v>86</v>
@@ -3283,22 +3286,19 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E55">
         <v>17.01</v>
       </c>
       <c r="F55">
-        <v>12361121</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
@@ -3313,16 +3313,16 @@
         <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P55" t="s">
         <v>87</v>
@@ -3333,22 +3333,19 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E56">
         <v>17.01</v>
       </c>
       <c r="F56">
-        <v>23028778</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
+        <v>28915125</v>
       </c>
       <c r="H56" t="s">
         <v>42</v>
@@ -3363,19 +3360,19 @@
         <v>52</v>
       </c>
       <c r="L56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3383,19 +3380,19 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E57">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F57">
-        <v>122575350</v>
+        <v>28915125</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
@@ -3404,25 +3401,25 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
         <v>52</v>
       </c>
       <c r="L57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3430,19 +3427,19 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F58">
-        <v>28915125</v>
+        <v>122575350</v>
       </c>
       <c r="H58" t="s">
         <v>42</v>
@@ -3451,25 +3448,25 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58" t="s">
         <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3477,19 +3474,22 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E59">
         <v>18.04</v>
       </c>
       <c r="F59">
-        <v>28915125</v>
+        <v>12361121</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
@@ -3504,19 +3504,19 @@
         <v>52</v>
       </c>
       <c r="L59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3524,19 +3524,22 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E60">
         <v>18.04</v>
       </c>
       <c r="F60">
-        <v>122575350</v>
+        <v>23028778</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
       </c>
       <c r="H60" t="s">
         <v>42</v>
@@ -3551,16 +3554,16 @@
         <v>52</v>
       </c>
       <c r="L60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P60" t="s">
         <v>91</v>
@@ -3571,22 +3574,19 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E61">
         <v>18.04</v>
       </c>
       <c r="F61">
-        <v>12361121</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H61" t="s">
         <v>42</v>
@@ -3601,16 +3601,16 @@
         <v>52</v>
       </c>
       <c r="L61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P61" t="s">
         <v>92</v>
@@ -3627,16 +3627,13 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E62">
-        <v>18.04</v>
+        <v>17.02</v>
       </c>
       <c r="F62">
-        <v>23028778</v>
-      </c>
-      <c r="G62" t="s">
-        <v>40</v>
+        <v>8713662</v>
       </c>
       <c r="H62" t="s">
         <v>42</v>
@@ -3645,10 +3642,10 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L62" t="s">
         <v>55</v>
@@ -3663,7 +3660,7 @@
         <v>59</v>
       </c>
       <c r="P62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3671,19 +3668,22 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E63">
-        <v>18.04</v>
+        <v>17.02</v>
       </c>
       <c r="F63">
-        <v>23251275</v>
+        <v>16233562</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
@@ -3692,22 +3692,22 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P63" t="s">
         <v>93</v>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -229,6 +229,9 @@
     <t>55197210-e6c9-11ee-8b5a-f7f195166b05</t>
   </si>
   <si>
+    <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
+  </si>
+  <si>
     <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1434,7 @@
         <v>35</v>
       </c>
       <c r="E17">
-        <v>20.04</v>
+        <v>17.02</v>
       </c>
       <c r="F17">
         <v>8713662</v>
@@ -1446,7 +1446,7 @@
         <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s">
         <v>50</v>
@@ -1481,7 +1481,7 @@
         <v>35</v>
       </c>
       <c r="E18">
-        <v>20.04</v>
+        <v>17.02</v>
       </c>
       <c r="F18">
         <v>16233562</v>
@@ -1496,7 +1496,7 @@
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
         <v>50</v>
@@ -1531,14 +1531,11 @@
         <v>35</v>
       </c>
       <c r="E19">
-        <v>5.07</v>
+        <v>20.04</v>
       </c>
       <c r="F19">
         <v>8713662</v>
       </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
         <v>50</v>
@@ -1581,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>5.07</v>
+        <v>20.04</v>
       </c>
       <c r="F20">
         <v>16233562</v>
@@ -1596,7 +1593,7 @@
         <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
@@ -1631,7 +1628,7 @@
         <v>35</v>
       </c>
       <c r="E21">
-        <v>10.11</v>
+        <v>5.07</v>
       </c>
       <c r="F21">
         <v>8713662</v>
@@ -1646,7 +1643,7 @@
         <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
         <v>50</v>
@@ -1681,7 +1678,7 @@
         <v>35</v>
       </c>
       <c r="E22">
-        <v>10.11</v>
+        <v>5.07</v>
       </c>
       <c r="F22">
         <v>16233562</v>
@@ -1696,7 +1693,7 @@
         <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
         <v>50</v>
@@ -1722,19 +1719,22 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>10.11</v>
       </c>
       <c r="F23">
-        <v>16390400</v>
+        <v>8713662</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
@@ -1749,16 +1749,16 @@
         <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P23" t="s">
         <v>74</v>
@@ -1778,10 +1778,10 @@
         <v>35</v>
       </c>
       <c r="E24">
-        <v>20.01</v>
+        <v>10.11</v>
       </c>
       <c r="F24">
-        <v>11069661</v>
+        <v>16233562</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -1793,10 +1793,10 @@
         <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L24" t="s">
         <v>55</v>
@@ -1811,7 +1811,7 @@
         <v>59</v>
       </c>
       <c r="P24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1819,22 +1819,19 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>20.01</v>
+        <v>10.11</v>
       </c>
       <c r="F25">
-        <v>20622787</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
+        <v>16390400</v>
       </c>
       <c r="H25" t="s">
         <v>42</v>
@@ -1843,22 +1840,22 @@
         <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P25" t="s">
         <v>75</v>
@@ -1869,19 +1866,22 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26">
-        <v>20.02</v>
+        <v>20.01</v>
       </c>
       <c r="F26">
-        <v>22557200</v>
+        <v>11069661</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -1890,22 +1890,22 @@
         <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P26" t="s">
         <v>76</v>
@@ -1916,19 +1916,22 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27">
-        <v>4.05</v>
+        <v>20.01</v>
       </c>
       <c r="F27">
-        <v>22557200</v>
+        <v>20622787</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
       </c>
       <c r="H27" t="s">
         <v>42</v>
@@ -1937,22 +1940,22 @@
         <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P27" t="s">
         <v>76</v>
@@ -1972,7 +1975,7 @@
         <v>33</v>
       </c>
       <c r="E28">
-        <v>27.07</v>
+        <v>20.02</v>
       </c>
       <c r="F28">
         <v>22557200</v>
@@ -2002,7 +2005,7 @@
         <v>57</v>
       </c>
       <c r="P28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2019,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>30.1</v>
+        <v>4.05</v>
       </c>
       <c r="F29">
         <v>22557200</v>
@@ -2049,7 +2052,7 @@
         <v>57</v>
       </c>
       <c r="P29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2057,22 +2060,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>30.06</v>
+        <v>27.07</v>
       </c>
       <c r="F30">
-        <v>9962695</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
+        <v>22557200</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -2081,22 +2081,22 @@
         <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P30" t="s">
         <v>77</v>
@@ -2107,22 +2107,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>30.06</v>
+        <v>30.1</v>
       </c>
       <c r="F31">
-        <v>18560508</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
+        <v>22557200</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
@@ -2131,22 +2128,22 @@
         <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P31" t="s">
         <v>77</v>
@@ -2166,7 +2163,7 @@
         <v>35</v>
       </c>
       <c r="E32">
-        <v>30.08</v>
+        <v>30.06</v>
       </c>
       <c r="F32">
         <v>9962695</v>
@@ -2181,7 +2178,7 @@
         <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
         <v>49</v>
@@ -2216,7 +2213,7 @@
         <v>35</v>
       </c>
       <c r="E33">
-        <v>30.08</v>
+        <v>30.06</v>
       </c>
       <c r="F33">
         <v>18560508</v>
@@ -2231,7 +2228,7 @@
         <v>43</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s">
         <v>49</v>
@@ -2266,10 +2263,10 @@
         <v>35</v>
       </c>
       <c r="E34">
-        <v>11.1</v>
+        <v>30.08</v>
       </c>
       <c r="F34">
-        <v>8855728</v>
+        <v>9962695</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -2281,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
         <v>49</v>
@@ -2316,10 +2313,10 @@
         <v>35</v>
       </c>
       <c r="E35">
-        <v>11.1</v>
+        <v>30.08</v>
       </c>
       <c r="F35">
-        <v>16498230</v>
+        <v>18560508</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -2331,7 +2328,7 @@
         <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
         <v>49</v>
@@ -2357,19 +2354,22 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>17.02</v>
+        <v>11.1</v>
       </c>
       <c r="F36">
-        <v>20383025</v>
+        <v>8855728</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
@@ -2378,22 +2378,22 @@
         <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P36" t="s">
         <v>80</v>
@@ -2404,19 +2404,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37">
-        <v>28.07</v>
+        <v>11.1</v>
       </c>
       <c r="F37">
-        <v>20383025</v>
+        <v>16498230</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -2428,25 +2428,25 @@
         <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2454,7 +2454,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -2463,7 +2463,7 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>19.11</v>
+        <v>17.02</v>
       </c>
       <c r="F38">
         <v>20383025</v>
@@ -2475,7 +2475,7 @@
         <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
         <v>50</v>
@@ -2493,7 +2493,7 @@
         <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2501,19 +2501,22 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39">
-        <v>20.02</v>
+        <v>28.07</v>
       </c>
       <c r="F39">
-        <v>118916375</v>
+        <v>20383025</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
@@ -2522,25 +2525,25 @@
         <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2548,19 +2551,19 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>4.05</v>
+        <v>19.11</v>
       </c>
       <c r="F40">
-        <v>118916375</v>
+        <v>20383025</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
@@ -2569,22 +2572,22 @@
         <v>43</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s">
         <v>83</v>
@@ -2604,7 +2607,7 @@
         <v>34</v>
       </c>
       <c r="E41">
-        <v>27.07</v>
+        <v>20.02</v>
       </c>
       <c r="F41">
         <v>118916375</v>
@@ -2634,7 +2637,7 @@
         <v>58</v>
       </c>
       <c r="P41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2651,7 +2654,7 @@
         <v>34</v>
       </c>
       <c r="E42">
-        <v>30.1</v>
+        <v>4.05</v>
       </c>
       <c r="F42">
         <v>118916375</v>
@@ -2681,7 +2684,7 @@
         <v>58</v>
       </c>
       <c r="P42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2689,22 +2692,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>27.12</v>
+        <v>27.07</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
+        <v>118916375</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -2731,7 +2731,7 @@
         <v>58</v>
       </c>
       <c r="P43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2739,22 +2739,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>21.02</v>
+        <v>30.1</v>
       </c>
       <c r="F44">
-        <v>22341342</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -2769,16 +2766,16 @@
         <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P44" t="s">
         <v>84</v>
@@ -2789,22 +2786,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>21.02</v>
+        <v>27.12</v>
       </c>
       <c r="F45">
-        <v>11992132</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -2819,16 +2816,16 @@
         <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P45" t="s">
         <v>84</v>
@@ -2845,13 +2842,13 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46">
-        <v>31.05</v>
+        <v>21.02</v>
       </c>
       <c r="F46">
-        <v>11992132</v>
+        <v>22341342</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -2881,7 +2878,7 @@
         <v>59</v>
       </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2895,13 +2892,13 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47">
-        <v>31.05</v>
+        <v>21.02</v>
       </c>
       <c r="F47">
-        <v>22341342</v>
+        <v>11992132</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -2931,7 +2928,7 @@
         <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2948,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>27.07</v>
+        <v>31.05</v>
       </c>
       <c r="F48">
         <v>11992132</v>
@@ -2981,7 +2978,7 @@
         <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2998,7 +2995,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>27.07</v>
+        <v>31.05</v>
       </c>
       <c r="F49">
         <v>22341342</v>
@@ -3031,7 +3028,7 @@
         <v>59</v>
       </c>
       <c r="P49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3048,7 +3045,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>30.1</v>
+        <v>27.07</v>
       </c>
       <c r="F50">
         <v>11992132</v>
@@ -3081,7 +3078,7 @@
         <v>59</v>
       </c>
       <c r="P50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3098,7 +3095,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>30.1</v>
+        <v>27.07</v>
       </c>
       <c r="F51">
         <v>22341342</v>
@@ -3131,7 +3128,7 @@
         <v>59</v>
       </c>
       <c r="P51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3139,19 +3136,22 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E52">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F52">
-        <v>23251275</v>
+        <v>11992132</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
@@ -3160,22 +3160,22 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P52" t="s">
         <v>85</v>
@@ -3195,10 +3195,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F53">
-        <v>12361121</v>
+        <v>22341342</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -3210,10 +3210,10 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L53" t="s">
         <v>55</v>
@@ -3228,7 +3228,7 @@
         <v>59</v>
       </c>
       <c r="P53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3236,22 +3236,19 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E54">
         <v>17.01</v>
       </c>
       <c r="F54">
-        <v>23028778</v>
-      </c>
-      <c r="G54" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
@@ -3266,16 +3263,16 @@
         <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P54" t="s">
         <v>86</v>
@@ -3286,19 +3283,22 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E55">
         <v>17.01</v>
       </c>
       <c r="F55">
-        <v>122575350</v>
+        <v>12361121</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
@@ -3313,16 +3313,16 @@
         <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P55" t="s">
         <v>87</v>
@@ -3333,19 +3333,22 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E56">
         <v>17.01</v>
       </c>
       <c r="F56">
-        <v>28915125</v>
+        <v>23028778</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
       </c>
       <c r="H56" t="s">
         <v>42</v>
@@ -3360,19 +3363,19 @@
         <v>52</v>
       </c>
       <c r="L56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3380,19 +3383,19 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E57">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F57">
-        <v>28915125</v>
+        <v>122575350</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
@@ -3401,25 +3404,25 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57" t="s">
         <v>52</v>
       </c>
       <c r="L57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3427,19 +3430,19 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E58">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F58">
-        <v>122575350</v>
+        <v>28915125</v>
       </c>
       <c r="H58" t="s">
         <v>42</v>
@@ -3448,25 +3451,25 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s">
         <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3474,22 +3477,19 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E59">
         <v>18.04</v>
       </c>
       <c r="F59">
-        <v>12361121</v>
-      </c>
-      <c r="G59" t="s">
-        <v>40</v>
+        <v>28915125</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
@@ -3504,19 +3504,19 @@
         <v>52</v>
       </c>
       <c r="L59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3524,22 +3524,19 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E60">
         <v>18.04</v>
       </c>
       <c r="F60">
-        <v>23028778</v>
-      </c>
-      <c r="G60" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H60" t="s">
         <v>42</v>
@@ -3554,16 +3551,16 @@
         <v>52</v>
       </c>
       <c r="L60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P60" t="s">
         <v>91</v>
@@ -3574,19 +3571,22 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>18.04</v>
       </c>
       <c r="F61">
-        <v>23251275</v>
+        <v>12361121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
       </c>
       <c r="H61" t="s">
         <v>42</v>
@@ -3601,16 +3601,16 @@
         <v>52</v>
       </c>
       <c r="L61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P61" t="s">
         <v>92</v>
@@ -3627,13 +3627,16 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E62">
-        <v>17.02</v>
+        <v>18.04</v>
       </c>
       <c r="F62">
-        <v>8713662</v>
+        <v>23028778</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
       </c>
       <c r="H62" t="s">
         <v>42</v>
@@ -3642,10 +3645,10 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L62" t="s">
         <v>55</v>
@@ -3660,7 +3663,7 @@
         <v>59</v>
       </c>
       <c r="P62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3668,22 +3671,19 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E63">
-        <v>17.02</v>
+        <v>18.04</v>
       </c>
       <c r="F63">
-        <v>16233562</v>
-      </c>
-      <c r="G63" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
@@ -3692,22 +3692,22 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P63" t="s">
         <v>93</v>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -88,12 +88,12 @@
     <t>АТ "РАЙФФАЙЗЕН БАНК АВАЛЬ"</t>
   </si>
   <si>
+    <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК" </t>
+  </si>
+  <si>
     <t>АКЦІОНЕРНЕ ТОВАРИСТВО "ДЕРЖАВНИЙ ЕКСПОРТНО-ІМПОРТНИЙ БАНК УКРАЇНИ"</t>
   </si>
   <si>
-    <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК" </t>
-  </si>
-  <si>
     <t>09804119</t>
   </si>
   <si>
@@ -127,15 +127,15 @@
     <t>UA813808050000000026002651529</t>
   </si>
   <si>
+    <t>UA553805820000026001070316815</t>
+  </si>
+  <si>
+    <t>UA923805820000026002080316815</t>
+  </si>
+  <si>
     <t>UA723223130000026000000047424</t>
   </si>
   <si>
-    <t>UA553805820000026001070316815</t>
-  </si>
-  <si>
-    <t>UA923805820000026002080316815</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -268,34 +268,34 @@
     <t>e05f7b60-eab8-11ee-a826-5536b50ce648</t>
   </si>
   <si>
+    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
     <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
   </si>
 </sst>
 </file>
@@ -2598,19 +2598,22 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>20.02</v>
+        <v>21.02</v>
       </c>
       <c r="F41">
-        <v>118916375</v>
+        <v>22341342</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
@@ -2625,16 +2628,16 @@
         <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P41" t="s">
         <v>84</v>
@@ -2645,19 +2648,22 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E42">
-        <v>4.05</v>
+        <v>21.02</v>
       </c>
       <c r="F42">
-        <v>118916375</v>
+        <v>11992132</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
@@ -2672,16 +2678,16 @@
         <v>51</v>
       </c>
       <c r="L42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P42" t="s">
         <v>84</v>
@@ -2692,19 +2698,22 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E43">
-        <v>27.07</v>
+        <v>31.05</v>
       </c>
       <c r="F43">
-        <v>118916375</v>
+        <v>11992132</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -2719,16 +2728,16 @@
         <v>51</v>
       </c>
       <c r="L43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P43" t="s">
         <v>84</v>
@@ -2739,19 +2748,22 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E44">
-        <v>30.1</v>
+        <v>31.05</v>
       </c>
       <c r="F44">
-        <v>118916375</v>
+        <v>22341342</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -2766,16 +2778,16 @@
         <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P44" t="s">
         <v>84</v>
@@ -2786,22 +2798,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>27.12</v>
+        <v>27.07</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>11992132</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -2816,16 +2828,16 @@
         <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P45" t="s">
         <v>84</v>
@@ -2845,7 +2857,7 @@
         <v>38</v>
       </c>
       <c r="E46">
-        <v>21.02</v>
+        <v>27.07</v>
       </c>
       <c r="F46">
         <v>22341342</v>
@@ -2878,7 +2890,7 @@
         <v>59</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2895,7 +2907,7 @@
         <v>38</v>
       </c>
       <c r="E47">
-        <v>21.02</v>
+        <v>30.1</v>
       </c>
       <c r="F47">
         <v>11992132</v>
@@ -2928,7 +2940,7 @@
         <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2942,13 +2954,13 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48">
-        <v>31.05</v>
+        <v>30.1</v>
       </c>
       <c r="F48">
-        <v>11992132</v>
+        <v>22341342</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -2978,7 +2990,7 @@
         <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2986,22 +2998,19 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E49">
-        <v>31.05</v>
+        <v>17.01</v>
       </c>
       <c r="F49">
-        <v>22341342</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
@@ -3010,22 +3019,22 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P49" t="s">
         <v>85</v>
@@ -3042,13 +3051,13 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>27.07</v>
+        <v>17.01</v>
       </c>
       <c r="F50">
-        <v>11992132</v>
+        <v>12361121</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -3060,10 +3069,10 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
         <v>55</v>
@@ -3078,7 +3087,7 @@
         <v>59</v>
       </c>
       <c r="P50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3092,13 +3101,13 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51">
-        <v>27.07</v>
+        <v>17.01</v>
       </c>
       <c r="F51">
-        <v>22341342</v>
+        <v>23028778</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -3110,10 +3119,10 @@
         <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
         <v>55</v>
@@ -3128,7 +3137,7 @@
         <v>59</v>
       </c>
       <c r="P51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3136,22 +3145,19 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E52">
-        <v>30.1</v>
+        <v>17.01</v>
       </c>
       <c r="F52">
-        <v>11992132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
@@ -3160,25 +3166,25 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3186,22 +3192,19 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E53">
-        <v>30.1</v>
+        <v>17.01</v>
       </c>
       <c r="F53">
-        <v>22341342</v>
-      </c>
-      <c r="G53" t="s">
-        <v>40</v>
+        <v>28915125</v>
       </c>
       <c r="H53" t="s">
         <v>42</v>
@@ -3210,25 +3213,25 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3236,19 +3239,19 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E54">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F54">
-        <v>23251275</v>
+        <v>28915125</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
@@ -3257,25 +3260,25 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N54" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P54" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3283,22 +3286,19 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E55">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F55">
-        <v>12361121</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
@@ -3307,25 +3307,25 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
         <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3339,13 +3339,13 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F56">
-        <v>23028778</v>
+        <v>12361121</v>
       </c>
       <c r="G56" t="s">
         <v>40</v>
@@ -3357,7 +3357,7 @@
         <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56" t="s">
         <v>52</v>
@@ -3375,7 +3375,7 @@
         <v>59</v>
       </c>
       <c r="P56" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3383,19 +3383,22 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E57">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F57">
-        <v>122575350</v>
+        <v>23028778</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
@@ -3404,25 +3407,25 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
         <v>52</v>
       </c>
       <c r="L57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3430,19 +3433,19 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E58">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F58">
-        <v>28915125</v>
+        <v>23251275</v>
       </c>
       <c r="H58" t="s">
         <v>42</v>
@@ -3451,25 +3454,25 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58" t="s">
         <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P58" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3477,19 +3480,19 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>18.04</v>
+        <v>20.02</v>
       </c>
       <c r="F59">
-        <v>28915125</v>
+        <v>118916375</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
@@ -3498,25 +3501,25 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P59" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3533,10 +3536,10 @@
         <v>34</v>
       </c>
       <c r="E60">
-        <v>18.04</v>
+        <v>4.05</v>
       </c>
       <c r="F60">
-        <v>122575350</v>
+        <v>118916375</v>
       </c>
       <c r="H60" t="s">
         <v>42</v>
@@ -3545,10 +3548,10 @@
         <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L60" t="s">
         <v>54</v>
@@ -3563,7 +3566,7 @@
         <v>58</v>
       </c>
       <c r="P60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3571,22 +3574,19 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E61">
-        <v>18.04</v>
+        <v>27.07</v>
       </c>
       <c r="F61">
-        <v>12361121</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H61" t="s">
         <v>42</v>
@@ -3595,25 +3595,25 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3621,22 +3621,19 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E62">
-        <v>18.04</v>
+        <v>30.1</v>
       </c>
       <c r="F62">
-        <v>23028778</v>
-      </c>
-      <c r="G62" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H62" t="s">
         <v>42</v>
@@ -3645,25 +3642,25 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3671,19 +3668,22 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E63">
-        <v>18.04</v>
+        <v>27.12</v>
       </c>
       <c r="F63">
-        <v>23251275</v>
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>41</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
@@ -3692,22 +3692,22 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P63" t="s">
         <v>93</v>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -88,12 +88,12 @@
     <t>АТ "РАЙФФАЙЗЕН БАНК АВАЛЬ"</t>
   </si>
   <si>
+    <t>АКЦІОНЕРНЕ ТОВАРИСТВО "ДЕРЖАВНИЙ ЕКСПОРТНО-ІМПОРТНИЙ БАНК УКРАЇНИ"</t>
+  </si>
+  <si>
     <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК" </t>
   </si>
   <si>
-    <t>АКЦІОНЕРНЕ ТОВАРИСТВО "ДЕРЖАВНИЙ ЕКСПОРТНО-ІМПОРТНИЙ БАНК УКРАЇНИ"</t>
-  </si>
-  <si>
     <t>09804119</t>
   </si>
   <si>
@@ -127,15 +127,15 @@
     <t>UA813808050000000026002651529</t>
   </si>
   <si>
+    <t>UA723223130000026000000047424</t>
+  </si>
+  <si>
     <t>UA553805820000026001070316815</t>
   </si>
   <si>
     <t>UA923805820000026002080316815</t>
   </si>
   <si>
-    <t>UA723223130000026000000047424</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -268,6 +268,9 @@
     <t>e05f7b60-eab8-11ee-a826-5536b50ce648</t>
   </si>
   <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
     <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
   </si>
 </sst>
 </file>
@@ -2598,22 +2598,19 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41">
-        <v>21.02</v>
+        <v>20.02</v>
       </c>
       <c r="F41">
-        <v>22341342</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
@@ -2628,16 +2625,16 @@
         <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P41" t="s">
         <v>84</v>
@@ -2648,22 +2645,19 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E42">
-        <v>21.02</v>
+        <v>4.05</v>
       </c>
       <c r="F42">
-        <v>11992132</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
@@ -2678,16 +2672,16 @@
         <v>51</v>
       </c>
       <c r="L42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P42" t="s">
         <v>84</v>
@@ -2698,22 +2692,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>31.05</v>
+        <v>27.07</v>
       </c>
       <c r="F43">
-        <v>11992132</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -2728,16 +2719,16 @@
         <v>51</v>
       </c>
       <c r="L43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P43" t="s">
         <v>84</v>
@@ -2748,22 +2739,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>31.05</v>
+        <v>30.1</v>
       </c>
       <c r="F44">
-        <v>22341342</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -2778,16 +2766,16 @@
         <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P44" t="s">
         <v>84</v>
@@ -2798,22 +2786,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>27.07</v>
+        <v>27.12</v>
       </c>
       <c r="F45">
-        <v>11992132</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -2828,16 +2816,16 @@
         <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P45" t="s">
         <v>84</v>
@@ -2857,7 +2845,7 @@
         <v>38</v>
       </c>
       <c r="E46">
-        <v>27.07</v>
+        <v>21.02</v>
       </c>
       <c r="F46">
         <v>22341342</v>
@@ -2890,7 +2878,7 @@
         <v>59</v>
       </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2907,7 +2895,7 @@
         <v>38</v>
       </c>
       <c r="E47">
-        <v>30.1</v>
+        <v>21.02</v>
       </c>
       <c r="F47">
         <v>11992132</v>
@@ -2940,7 +2928,7 @@
         <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2954,13 +2942,13 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>30.1</v>
+        <v>31.05</v>
       </c>
       <c r="F48">
-        <v>22341342</v>
+        <v>11992132</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -2990,7 +2978,7 @@
         <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2998,19 +2986,22 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E49">
-        <v>17.01</v>
+        <v>31.05</v>
       </c>
       <c r="F49">
-        <v>23251275</v>
+        <v>22341342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
@@ -3019,22 +3010,22 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P49" t="s">
         <v>85</v>
@@ -3051,13 +3042,13 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50">
-        <v>17.01</v>
+        <v>27.07</v>
       </c>
       <c r="F50">
-        <v>12361121</v>
+        <v>11992132</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -3069,10 +3060,10 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L50" t="s">
         <v>55</v>
@@ -3087,7 +3078,7 @@
         <v>59</v>
       </c>
       <c r="P50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3101,13 +3092,13 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>17.01</v>
+        <v>27.07</v>
       </c>
       <c r="F51">
-        <v>23028778</v>
+        <v>22341342</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -3119,10 +3110,10 @@
         <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L51" t="s">
         <v>55</v>
@@ -3137,7 +3128,7 @@
         <v>59</v>
       </c>
       <c r="P51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3145,19 +3136,22 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E52">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F52">
-        <v>122575350</v>
+        <v>11992132</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
@@ -3166,25 +3160,25 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3192,19 +3186,22 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E53">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F53">
-        <v>28915125</v>
+        <v>22341342</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
       </c>
       <c r="H53" t="s">
         <v>42</v>
@@ -3213,25 +3210,25 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3239,19 +3236,19 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E54">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F54">
-        <v>28915125</v>
+        <v>23251275</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
@@ -3260,25 +3257,25 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3286,19 +3283,22 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F55">
-        <v>122575350</v>
+        <v>12361121</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
@@ -3307,25 +3307,25 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55" t="s">
         <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3339,13 +3339,13 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E56">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F56">
-        <v>12361121</v>
+        <v>23028778</v>
       </c>
       <c r="G56" t="s">
         <v>40</v>
@@ -3357,7 +3357,7 @@
         <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s">
         <v>52</v>
@@ -3375,7 +3375,7 @@
         <v>59</v>
       </c>
       <c r="P56" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3383,22 +3383,19 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E57">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F57">
-        <v>23028778</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
@@ -3407,25 +3404,25 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57" t="s">
         <v>52</v>
       </c>
       <c r="L57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3433,19 +3430,19 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E58">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F58">
-        <v>23251275</v>
+        <v>28915125</v>
       </c>
       <c r="H58" t="s">
         <v>42</v>
@@ -3454,25 +3451,25 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s">
         <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M58" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O58" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3480,19 +3477,19 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E59">
-        <v>20.02</v>
+        <v>18.04</v>
       </c>
       <c r="F59">
-        <v>118916375</v>
+        <v>28915125</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
@@ -3501,25 +3498,25 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3536,10 +3533,10 @@
         <v>34</v>
       </c>
       <c r="E60">
-        <v>4.05</v>
+        <v>18.04</v>
       </c>
       <c r="F60">
-        <v>118916375</v>
+        <v>122575350</v>
       </c>
       <c r="H60" t="s">
         <v>42</v>
@@ -3548,10 +3545,10 @@
         <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L60" t="s">
         <v>54</v>
@@ -3566,7 +3563,7 @@
         <v>58</v>
       </c>
       <c r="P60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3574,19 +3571,22 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E61">
-        <v>27.07</v>
+        <v>18.04</v>
       </c>
       <c r="F61">
-        <v>118916375</v>
+        <v>12361121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
       </c>
       <c r="H61" t="s">
         <v>42</v>
@@ -3595,25 +3595,25 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3621,19 +3621,22 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E62">
-        <v>30.1</v>
+        <v>18.04</v>
       </c>
       <c r="F62">
-        <v>118916375</v>
+        <v>23028778</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
       </c>
       <c r="H62" t="s">
         <v>42</v>
@@ -3642,25 +3645,25 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3668,22 +3671,19 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E63">
-        <v>27.12</v>
+        <v>18.04</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>41</v>
+        <v>23251275</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
@@ -3692,22 +3692,22 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P63" t="s">
         <v>93</v>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -130,12 +130,12 @@
     <t>UA723223130000026000000047424</t>
   </si>
   <si>
+    <t>UA923805820000026002080316815</t>
+  </si>
+  <si>
     <t>UA553805820000026001070316815</t>
   </si>
   <si>
-    <t>UA923805820000026002080316815</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -271,31 +271,31 @@
     <t>02344060-ead0-11ee-a826-5536b50ce648</t>
   </si>
   <si>
+    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
     <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
   </si>
 </sst>
 </file>
@@ -2836,22 +2836,19 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E46">
-        <v>21.02</v>
+        <v>17.01</v>
       </c>
       <c r="F46">
-        <v>22341342</v>
-      </c>
-      <c r="G46" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H46" t="s">
         <v>42</v>
@@ -2860,22 +2857,22 @@
         <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P46" t="s">
         <v>85</v>
@@ -2895,10 +2892,10 @@
         <v>38</v>
       </c>
       <c r="E47">
-        <v>21.02</v>
+        <v>17.01</v>
       </c>
       <c r="F47">
-        <v>11992132</v>
+        <v>12361121</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -2910,10 +2907,10 @@
         <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L47" t="s">
         <v>55</v>
@@ -2928,7 +2925,7 @@
         <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2942,13 +2939,13 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48">
-        <v>31.05</v>
+        <v>17.01</v>
       </c>
       <c r="F48">
-        <v>11992132</v>
+        <v>23028778</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -2960,10 +2957,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L48" t="s">
         <v>55</v>
@@ -2978,7 +2975,7 @@
         <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2986,22 +2983,19 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E49">
-        <v>31.05</v>
+        <v>17.01</v>
       </c>
       <c r="F49">
-        <v>22341342</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
@@ -3010,25 +3004,25 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3036,22 +3030,19 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E50">
-        <v>27.07</v>
+        <v>17.01</v>
       </c>
       <c r="F50">
-        <v>11992132</v>
-      </c>
-      <c r="G50" t="s">
-        <v>40</v>
+        <v>28915125</v>
       </c>
       <c r="H50" t="s">
         <v>42</v>
@@ -3060,25 +3051,25 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3086,22 +3077,19 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E51">
-        <v>27.07</v>
+        <v>18.04</v>
       </c>
       <c r="F51">
-        <v>22341342</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
+        <v>28915125</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
@@ -3110,25 +3098,25 @@
         <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3136,22 +3124,19 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E52">
-        <v>30.1</v>
+        <v>18.04</v>
       </c>
       <c r="F52">
-        <v>11992132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
@@ -3160,25 +3145,25 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P52" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3192,13 +3177,13 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53">
-        <v>30.1</v>
+        <v>18.04</v>
       </c>
       <c r="F53">
-        <v>22341342</v>
+        <v>12361121</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -3210,10 +3195,10 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L53" t="s">
         <v>55</v>
@@ -3228,7 +3213,7 @@
         <v>59</v>
       </c>
       <c r="P53" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3236,19 +3221,22 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E54">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F54">
-        <v>23251275</v>
+        <v>23028778</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
@@ -3257,25 +3245,25 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P54" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3283,22 +3271,19 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E55">
-        <v>17.01</v>
+        <v>18.04</v>
       </c>
       <c r="F55">
-        <v>12361121</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
@@ -3307,25 +3292,25 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
         <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P55" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3342,10 +3327,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>17.01</v>
+        <v>21.02</v>
       </c>
       <c r="F56">
-        <v>23028778</v>
+        <v>22341342</v>
       </c>
       <c r="G56" t="s">
         <v>40</v>
@@ -3357,10 +3342,10 @@
         <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L56" t="s">
         <v>55</v>
@@ -3375,7 +3360,7 @@
         <v>59</v>
       </c>
       <c r="P56" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3383,19 +3368,22 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E57">
-        <v>17.01</v>
+        <v>21.02</v>
       </c>
       <c r="F57">
-        <v>122575350</v>
+        <v>11992132</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
@@ -3404,25 +3392,25 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P57" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3430,19 +3418,22 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E58">
-        <v>17.01</v>
+        <v>31.05</v>
       </c>
       <c r="F58">
-        <v>28915125</v>
+        <v>11992132</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
       </c>
       <c r="H58" t="s">
         <v>42</v>
@@ -3451,25 +3442,25 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P58" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3477,19 +3468,22 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E59">
-        <v>18.04</v>
+        <v>31.05</v>
       </c>
       <c r="F59">
-        <v>28915125</v>
+        <v>22341342</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
@@ -3498,25 +3492,25 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P59" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3524,19 +3518,22 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E60">
-        <v>18.04</v>
+        <v>27.07</v>
       </c>
       <c r="F60">
-        <v>122575350</v>
+        <v>11992132</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
       </c>
       <c r="H60" t="s">
         <v>42</v>
@@ -3545,25 +3542,25 @@
         <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3577,13 +3574,13 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E61">
-        <v>18.04</v>
+        <v>27.07</v>
       </c>
       <c r="F61">
-        <v>12361121</v>
+        <v>22341342</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -3595,10 +3592,10 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L61" t="s">
         <v>55</v>
@@ -3613,7 +3610,7 @@
         <v>59</v>
       </c>
       <c r="P61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3627,13 +3624,13 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E62">
-        <v>18.04</v>
+        <v>30.1</v>
       </c>
       <c r="F62">
-        <v>23028778</v>
+        <v>11992132</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -3645,10 +3642,10 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L62" t="s">
         <v>55</v>
@@ -3663,7 +3660,7 @@
         <v>59</v>
       </c>
       <c r="P62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3671,19 +3668,22 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E63">
-        <v>18.04</v>
+        <v>30.1</v>
       </c>
       <c r="F63">
-        <v>23251275</v>
+        <v>22341342</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
@@ -3692,22 +3692,22 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P63" t="s">
         <v>93</v>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -130,12 +130,12 @@
     <t>UA723223130000026000000047424</t>
   </si>
   <si>
+    <t>UA553805820000026001070316815</t>
+  </si>
+  <si>
     <t>UA923805820000026002080316815</t>
   </si>
   <si>
-    <t>UA553805820000026001070316815</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -253,49 +253,49 @@
     <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>a0f57dc0-eab4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>e05f7b60-eab8-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
     <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>a0f57dc0-eab4-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>e05f7b60-eab8-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
   </si>
 </sst>
 </file>
@@ -2263,10 +2263,10 @@
         <v>35</v>
       </c>
       <c r="E34">
-        <v>30.08</v>
+        <v>11.1</v>
       </c>
       <c r="F34">
-        <v>9962695</v>
+        <v>8855728</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -2278,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
         <v>49</v>
@@ -2313,10 +2313,10 @@
         <v>35</v>
       </c>
       <c r="E35">
-        <v>30.08</v>
+        <v>11.1</v>
       </c>
       <c r="F35">
-        <v>18560508</v>
+        <v>16498230</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -2328,7 +2328,7 @@
         <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
         <v>49</v>
@@ -2354,22 +2354,19 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>11.1</v>
+        <v>17.02</v>
       </c>
       <c r="F36">
-        <v>8855728</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
+        <v>20383025</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
@@ -2378,22 +2375,22 @@
         <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s">
         <v>80</v>
@@ -2404,19 +2401,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>11.1</v>
+        <v>28.07</v>
       </c>
       <c r="F37">
-        <v>16498230</v>
+        <v>20383025</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -2428,25 +2425,25 @@
         <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2454,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -2463,7 +2460,7 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>17.02</v>
+        <v>19.11</v>
       </c>
       <c r="F38">
         <v>20383025</v>
@@ -2475,7 +2472,7 @@
         <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s">
         <v>50</v>
@@ -2493,7 +2490,7 @@
         <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2501,22 +2498,19 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>28.07</v>
+        <v>20.02</v>
       </c>
       <c r="F39">
-        <v>20383025</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
@@ -2525,25 +2519,25 @@
         <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2551,19 +2545,19 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40">
-        <v>19.11</v>
+        <v>4.05</v>
       </c>
       <c r="F40">
-        <v>20383025</v>
+        <v>118916375</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
@@ -2572,22 +2566,22 @@
         <v>43</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P40" t="s">
         <v>83</v>
@@ -2607,7 +2601,7 @@
         <v>34</v>
       </c>
       <c r="E41">
-        <v>20.02</v>
+        <v>27.07</v>
       </c>
       <c r="F41">
         <v>118916375</v>
@@ -2637,7 +2631,7 @@
         <v>58</v>
       </c>
       <c r="P41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2654,7 +2648,7 @@
         <v>34</v>
       </c>
       <c r="E42">
-        <v>4.05</v>
+        <v>30.1</v>
       </c>
       <c r="F42">
         <v>118916375</v>
@@ -2684,7 +2678,7 @@
         <v>58</v>
       </c>
       <c r="P42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2692,19 +2686,22 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>27.07</v>
+        <v>27.12</v>
       </c>
       <c r="F43">
-        <v>118916375</v>
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -2731,7 +2728,7 @@
         <v>58</v>
       </c>
       <c r="P43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2739,19 +2736,22 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E44">
-        <v>30.1</v>
+        <v>21.02</v>
       </c>
       <c r="F44">
-        <v>118916375</v>
+        <v>22341342</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -2766,16 +2766,16 @@
         <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P44" t="s">
         <v>84</v>
@@ -2786,22 +2786,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>27.12</v>
+        <v>21.02</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>11992132</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -2816,16 +2816,16 @@
         <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P45" t="s">
         <v>84</v>
@@ -2836,19 +2836,22 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E46">
-        <v>17.01</v>
+        <v>31.05</v>
       </c>
       <c r="F46">
-        <v>23251275</v>
+        <v>11992132</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
       </c>
       <c r="H46" t="s">
         <v>42</v>
@@ -2857,25 +2860,25 @@
         <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2889,13 +2892,13 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>17.01</v>
+        <v>31.05</v>
       </c>
       <c r="F47">
-        <v>12361121</v>
+        <v>22341342</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -2907,10 +2910,10 @@
         <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L47" t="s">
         <v>55</v>
@@ -2925,7 +2928,7 @@
         <v>59</v>
       </c>
       <c r="P47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2939,13 +2942,13 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>17.01</v>
+        <v>27.07</v>
       </c>
       <c r="F48">
-        <v>23028778</v>
+        <v>11992132</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -2957,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L48" t="s">
         <v>55</v>
@@ -2975,7 +2978,7 @@
         <v>59</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2983,19 +2986,22 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E49">
-        <v>17.01</v>
+        <v>27.07</v>
       </c>
       <c r="F49">
-        <v>122575350</v>
+        <v>22341342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
@@ -3004,25 +3010,25 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3030,19 +3036,22 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E50">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F50">
-        <v>28915125</v>
+        <v>11992132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
       </c>
       <c r="H50" t="s">
         <v>42</v>
@@ -3051,25 +3060,25 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3077,19 +3086,22 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>18.04</v>
+        <v>30.1</v>
       </c>
       <c r="F51">
-        <v>28915125</v>
+        <v>22341342</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
@@ -3098,25 +3110,25 @@
         <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3124,19 +3136,19 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F52">
-        <v>122575350</v>
+        <v>23251275</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
@@ -3145,25 +3157,25 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s">
         <v>52</v>
       </c>
       <c r="L52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3177,10 +3189,10 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E53">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F53">
         <v>12361121</v>
@@ -3195,7 +3207,7 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
         <v>52</v>
@@ -3213,7 +3225,7 @@
         <v>59</v>
       </c>
       <c r="P53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3227,10 +3239,10 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E54">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F54">
         <v>23028778</v>
@@ -3245,7 +3257,7 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
@@ -3263,7 +3275,7 @@
         <v>59</v>
       </c>
       <c r="P54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3271,19 +3283,19 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E55">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F55">
-        <v>23251275</v>
+        <v>122575350</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
@@ -3292,25 +3304,25 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55" t="s">
         <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P55" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3318,22 +3330,19 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E56">
-        <v>21.02</v>
+        <v>17.01</v>
       </c>
       <c r="F56">
-        <v>22341342</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
+        <v>28915125</v>
       </c>
       <c r="H56" t="s">
         <v>42</v>
@@ -3342,25 +3351,25 @@
         <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P56" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3368,22 +3377,19 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E57">
-        <v>21.02</v>
+        <v>18.04</v>
       </c>
       <c r="F57">
-        <v>11992132</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
+        <v>28915125</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
@@ -3392,25 +3398,25 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P57" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3418,22 +3424,19 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>31.05</v>
+        <v>18.04</v>
       </c>
       <c r="F58">
-        <v>11992132</v>
-      </c>
-      <c r="G58" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H58" t="s">
         <v>42</v>
@@ -3442,25 +3445,25 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3474,13 +3477,13 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E59">
-        <v>31.05</v>
+        <v>18.04</v>
       </c>
       <c r="F59">
-        <v>22341342</v>
+        <v>12361121</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -3492,10 +3495,10 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L59" t="s">
         <v>55</v>
@@ -3510,7 +3513,7 @@
         <v>59</v>
       </c>
       <c r="P59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3524,13 +3527,13 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E60">
-        <v>27.07</v>
+        <v>18.04</v>
       </c>
       <c r="F60">
-        <v>11992132</v>
+        <v>23028778</v>
       </c>
       <c r="G60" t="s">
         <v>40</v>
@@ -3542,10 +3545,10 @@
         <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L60" t="s">
         <v>55</v>
@@ -3560,7 +3563,7 @@
         <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3568,22 +3571,19 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E61">
-        <v>27.07</v>
+        <v>18.04</v>
       </c>
       <c r="F61">
-        <v>22341342</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H61" t="s">
         <v>42</v>
@@ -3592,25 +3592,25 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3624,13 +3624,13 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E62">
-        <v>30.1</v>
+        <v>30.08</v>
       </c>
       <c r="F62">
-        <v>11992132</v>
+        <v>9962695</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -3642,10 +3642,10 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L62" t="s">
         <v>55</v>
@@ -3674,13 +3674,13 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E63">
-        <v>30.1</v>
+        <v>30.08</v>
       </c>
       <c r="F63">
-        <v>22341342</v>
+        <v>18560508</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -3692,10 +3692,10 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L63" t="s">
         <v>55</v>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="98">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК" </t>
   </si>
   <si>
+    <t>Рахунок для отримання коштів державного фінансування статутної діяльності політичної партії</t>
+  </si>
+  <si>
     <t>09804119</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
     <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
     <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
@@ -295,7 +301,13 @@
     <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
   </si>
   <si>
-    <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
+    <t>852f1810-9d08-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
   </si>
 </sst>
 </file>
@@ -653,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,10 +729,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>21.01</v>
@@ -729,31 +741,31 @@
         <v>20822025</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -764,10 +776,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>30.06</v>
@@ -776,31 +788,31 @@
         <v>18739822</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -811,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>30.08</v>
@@ -823,31 +835,31 @@
         <v>18739822</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -858,10 +870,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>20.1</v>
@@ -870,31 +882,31 @@
         <v>16657620</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -905,10 +917,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>17.02</v>
@@ -917,31 +929,31 @@
         <v>86406500</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -952,10 +964,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>20.04</v>
@@ -964,31 +976,31 @@
         <v>86406500</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -999,10 +1011,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>5.07</v>
@@ -1011,31 +1023,31 @@
         <v>86406500</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1046,10 +1058,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>10.11</v>
@@ -1058,31 +1070,31 @@
         <v>86406500</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1093,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>20.1</v>
@@ -1105,31 +1117,31 @@
         <v>87815180</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1140,10 +1152,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>30.06</v>
@@ -1152,31 +1164,31 @@
         <v>98792077</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1187,10 +1199,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>30.08</v>
@@ -1199,31 +1211,31 @@
         <v>98792077</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1234,10 +1246,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>21.01</v>
@@ -1246,31 +1258,31 @@
         <v>109768975</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1281,10 +1293,10 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>17.02</v>
@@ -1293,31 +1305,31 @@
         <v>16390400</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1328,10 +1340,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>20.04</v>
@@ -1340,34 +1352,34 @@
         <v>16390400</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1378,10 +1390,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>5.07</v>
@@ -1390,34 +1402,34 @@
         <v>16390400</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1428,10 +1440,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>17.02</v>
@@ -1440,31 +1452,31 @@
         <v>8713662</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1475,10 +1487,10 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>17.02</v>
@@ -1487,34 +1499,34 @@
         <v>16233562</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1525,10 +1537,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>20.04</v>
@@ -1537,31 +1549,31 @@
         <v>8713662</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1572,10 +1584,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>20.04</v>
@@ -1584,34 +1596,34 @@
         <v>16233562</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1622,10 +1634,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>5.07</v>
@@ -1634,34 +1646,34 @@
         <v>8713662</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1672,10 +1684,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>5.07</v>
@@ -1684,34 +1696,34 @@
         <v>16233562</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1722,10 +1734,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>10.11</v>
@@ -1734,34 +1746,34 @@
         <v>8713662</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1772,10 +1784,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>10.11</v>
@@ -1784,34 +1796,34 @@
         <v>16233562</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1822,10 +1834,10 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>10.11</v>
@@ -1834,31 +1846,31 @@
         <v>16390400</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1869,10 +1881,10 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>20.01</v>
@@ -1881,34 +1893,34 @@
         <v>11069661</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1919,10 +1931,10 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>20.01</v>
@@ -1931,34 +1943,34 @@
         <v>20622787</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1969,10 +1981,10 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>20.02</v>
@@ -1981,31 +1993,31 @@
         <v>22557200</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2016,10 +2028,10 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>4.05</v>
@@ -2028,31 +2040,31 @@
         <v>22557200</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2063,10 +2075,10 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>27.07</v>
@@ -2075,31 +2087,31 @@
         <v>22557200</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2110,10 +2122,10 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>30.1</v>
@@ -2122,31 +2134,31 @@
         <v>22557200</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2157,10 +2169,10 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>30.06</v>
@@ -2169,34 +2181,34 @@
         <v>9962695</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2207,10 +2219,10 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>30.06</v>
@@ -2219,34 +2231,34 @@
         <v>18560508</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2257,46 +2269,46 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34">
-        <v>11.1</v>
+        <v>30.08</v>
       </c>
       <c r="F34">
-        <v>8855728</v>
+        <v>9962695</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2307,46 +2319,46 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>11.1</v>
+        <v>30.08</v>
       </c>
       <c r="F35">
-        <v>16498230</v>
+        <v>18560508</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2354,7 +2366,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -2363,19 +2375,22 @@
         <v>36</v>
       </c>
       <c r="E36">
-        <v>17.02</v>
+        <v>11.1</v>
       </c>
       <c r="F36">
-        <v>20383025</v>
+        <v>8855728</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s">
         <v>50</v>
@@ -2393,7 +2408,7 @@
         <v>60</v>
       </c>
       <c r="P36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2401,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
@@ -2410,22 +2425,22 @@
         <v>36</v>
       </c>
       <c r="E37">
-        <v>28.07</v>
+        <v>11.1</v>
       </c>
       <c r="F37">
-        <v>20383025</v>
+        <v>16498230</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s">
         <v>50</v>
@@ -2451,43 +2466,43 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38">
-        <v>19.11</v>
+        <v>17.02</v>
       </c>
       <c r="F38">
         <v>20383025</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P38" t="s">
         <v>82</v>
@@ -2498,43 +2513,46 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E39">
-        <v>20.02</v>
+        <v>28.07</v>
       </c>
       <c r="F39">
-        <v>118916375</v>
+        <v>20383025</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s">
         <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s">
         <v>83</v>
@@ -2545,46 +2563,46 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E40">
-        <v>4.05</v>
+        <v>19.11</v>
       </c>
       <c r="F40">
-        <v>118916375</v>
+        <v>20383025</v>
       </c>
       <c r="H40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s">
         <v>51</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2595,43 +2613,43 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E41">
-        <v>27.07</v>
+        <v>20.02</v>
       </c>
       <c r="F41">
         <v>118916375</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2642,43 +2660,43 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E42">
-        <v>30.1</v>
+        <v>4.05</v>
       </c>
       <c r="F42">
         <v>118916375</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2686,49 +2704,46 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>27.12</v>
+        <v>27.07</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
+        <v>118916375</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2736,34 +2751,31 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>21.02</v>
+        <v>30.1</v>
       </c>
       <c r="F44">
-        <v>22341342</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
+        <v>118916375</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L44" t="s">
         <v>55</v>
@@ -2778,7 +2790,7 @@
         <v>59</v>
       </c>
       <c r="P44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2786,34 +2798,34 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
       </c>
       <c r="E45">
-        <v>21.02</v>
+        <v>27.12</v>
       </c>
       <c r="F45">
-        <v>11992132</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L45" t="s">
         <v>55</v>
@@ -2828,7 +2840,7 @@
         <v>59</v>
       </c>
       <c r="P45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2839,46 +2851,46 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
       </c>
       <c r="E46">
-        <v>31.05</v>
+        <v>21.02</v>
       </c>
       <c r="F46">
-        <v>11992132</v>
+        <v>22341342</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2889,46 +2901,46 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>31.05</v>
+        <v>21.02</v>
       </c>
       <c r="F47">
-        <v>22341342</v>
+        <v>11992132</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2939,46 +2951,46 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>27.07</v>
+        <v>31.05</v>
       </c>
       <c r="F48">
         <v>11992132</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2989,46 +3001,46 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>27.07</v>
+        <v>31.05</v>
       </c>
       <c r="F49">
         <v>22341342</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3039,46 +3051,46 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>30.1</v>
+        <v>27.07</v>
       </c>
       <c r="F50">
         <v>11992132</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3089,46 +3101,46 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>30.1</v>
+        <v>27.07</v>
       </c>
       <c r="F51">
         <v>22341342</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3136,25 +3148,28 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E52">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F52">
-        <v>23251275</v>
+        <v>11992132</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
@@ -3163,19 +3178,19 @@
         <v>52</v>
       </c>
       <c r="L52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3186,25 +3201,25 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F53">
-        <v>12361121</v>
+        <v>22341342</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
@@ -3213,16 +3228,16 @@
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P53" t="s">
         <v>86</v>
@@ -3233,49 +3248,46 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E54">
         <v>17.01</v>
       </c>
       <c r="F54">
-        <v>23028778</v>
-      </c>
-      <c r="G54" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3283,46 +3295,49 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E55">
         <v>17.01</v>
       </c>
       <c r="F55">
-        <v>122575350</v>
+        <v>12361121</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3330,31 +3345,34 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E56">
         <v>17.01</v>
       </c>
       <c r="F56">
-        <v>28915125</v>
+        <v>23028778</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L56" t="s">
         <v>56</v>
@@ -3377,43 +3395,43 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F57">
-        <v>28915125</v>
+        <v>122575350</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s">
         <v>46</v>
       </c>
       <c r="K57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P57" t="s">
         <v>89</v>
@@ -3424,43 +3442,43 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E58">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F58">
-        <v>122575350</v>
+        <v>28915125</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s">
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L58" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P58" t="s">
         <v>90</v>
@@ -3471,46 +3489,43 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E59">
         <v>18.04</v>
       </c>
       <c r="F59">
-        <v>12361121</v>
-      </c>
-      <c r="G59" t="s">
-        <v>40</v>
+        <v>28915125</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P59" t="s">
         <v>91</v>
@@ -3521,34 +3536,31 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E60">
         <v>18.04</v>
       </c>
       <c r="F60">
-        <v>23028778</v>
-      </c>
-      <c r="G60" t="s">
-        <v>40</v>
+        <v>122575350</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L60" t="s">
         <v>55</v>
@@ -3563,7 +3575,7 @@
         <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3571,46 +3583,49 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E61">
         <v>18.04</v>
       </c>
       <c r="F61">
-        <v>23251275</v>
+        <v>12361121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M61" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N61" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O61" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3621,43 +3636,43 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E62">
-        <v>30.08</v>
+        <v>18.04</v>
       </c>
       <c r="F62">
-        <v>9962695</v>
+        <v>23028778</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P62" t="s">
         <v>93</v>
@@ -3668,49 +3683,234 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63">
-        <v>30.08</v>
+        <v>18.04</v>
       </c>
       <c r="F63">
-        <v>18560508</v>
-      </c>
-      <c r="G63" t="s">
-        <v>40</v>
+        <v>23251275</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L63" t="s">
+        <v>54</v>
+      </c>
+      <c r="M63" t="s">
+        <v>58</v>
+      </c>
+      <c r="N63" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>15.07</v>
+      </c>
+      <c r="F64">
+        <v>23028778</v>
+      </c>
+      <c r="H64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" t="s">
+        <v>53</v>
+      </c>
+      <c r="L64" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" t="s">
+        <v>60</v>
+      </c>
+      <c r="N64" t="s">
+        <v>64</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>15.07</v>
+      </c>
+      <c r="F65">
+        <v>12361121</v>
+      </c>
+      <c r="H65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s">
+        <v>44</v>
+      </c>
+      <c r="J65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65" t="s">
+        <v>53</v>
+      </c>
+      <c r="L65" t="s">
+        <v>56</v>
+      </c>
+      <c r="M65" t="s">
+        <v>60</v>
+      </c>
+      <c r="N65" t="s">
+        <v>64</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66">
+        <v>15.07</v>
+      </c>
+      <c r="F66">
+        <v>23251275</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L66" t="s">
+        <v>54</v>
+      </c>
+      <c r="M66" t="s">
+        <v>58</v>
+      </c>
+      <c r="N66" t="s">
+        <v>62</v>
+      </c>
+      <c r="O66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67">
+        <v>15.07</v>
+      </c>
+      <c r="F67">
+        <v>122575350</v>
+      </c>
+      <c r="H67" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L67" t="s">
         <v>55</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M67" t="s">
         <v>59</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N67" t="s">
         <v>63</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O67" t="s">
         <v>59</v>
       </c>
-      <c r="P63" t="s">
-        <v>93</v>
+      <c r="P67" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="84">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -91,12 +91,6 @@
     <t>АКЦІОНЕРНЕ ТОВАРИСТВО "ДЕРЖАВНИЙ ЕКСПОРТНО-ІМПОРТНИЙ БАНК УКРАЇНИ"</t>
   </si>
   <si>
-    <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК" </t>
-  </si>
-  <si>
-    <t>Рахунок для отримання коштів державного фінансування статутної діяльності політичної партії</t>
-  </si>
-  <si>
     <t>09804119</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>2023</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «ВСЕУКРАЇНСЬКЕ ОБ'ЄДНАННЯ «БАТЬКІВЩИНА»</t>
   </si>
   <si>
@@ -275,39 +266,6 @@
   </si>
   <si>
     <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
-  </si>
-  <si>
-    <t>852f1810-9d08-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
   </si>
 </sst>
 </file>
@@ -665,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,10 +687,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>21.01</v>
@@ -741,31 +699,31 @@
         <v>20822025</v>
       </c>
       <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -776,10 +734,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>30.06</v>
@@ -788,31 +746,31 @@
         <v>18739822</v>
       </c>
       <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -823,10 +781,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>30.08</v>
@@ -835,31 +793,31 @@
         <v>18739822</v>
       </c>
       <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -870,10 +828,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>20.1</v>
@@ -882,31 +840,31 @@
         <v>16657620</v>
       </c>
       <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -917,10 +875,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>17.02</v>
@@ -929,31 +887,31 @@
         <v>86406500</v>
       </c>
       <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -964,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>20.04</v>
@@ -976,31 +934,31 @@
         <v>86406500</v>
       </c>
       <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1011,10 +969,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>5.07</v>
@@ -1023,31 +981,31 @@
         <v>86406500</v>
       </c>
       <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1058,10 +1016,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>10.11</v>
@@ -1070,31 +1028,31 @@
         <v>86406500</v>
       </c>
       <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
         <v>43</v>
       </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1105,10 +1063,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>20.1</v>
@@ -1117,31 +1075,31 @@
         <v>87815180</v>
       </c>
       <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
         <v>43</v>
       </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1152,10 +1110,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>30.06</v>
@@ -1164,31 +1122,31 @@
         <v>98792077</v>
       </c>
       <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1199,10 +1157,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>30.08</v>
@@ -1211,31 +1169,31 @@
         <v>98792077</v>
       </c>
       <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
         <v>43</v>
       </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1246,10 +1204,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>21.01</v>
@@ -1258,31 +1216,31 @@
         <v>109768975</v>
       </c>
       <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
         <v>43</v>
       </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>45</v>
-      </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1293,10 +1251,10 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>17.02</v>
@@ -1305,31 +1263,31 @@
         <v>16390400</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
         <v>44</v>
       </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
       <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
         <v>51</v>
       </c>
-      <c r="L14" t="s">
-        <v>54</v>
-      </c>
       <c r="M14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1340,10 +1298,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>20.04</v>
@@ -1352,34 +1310,34 @@
         <v>16390400</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
-        <v>54</v>
-      </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1390,10 +1348,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>5.07</v>
@@ -1402,34 +1360,34 @@
         <v>16390400</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
         <v>51</v>
       </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1440,10 +1398,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>17.02</v>
@@ -1452,31 +1410,31 @@
         <v>8713662</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
         <v>44</v>
       </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1487,10 +1445,10 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>17.02</v>
@@ -1499,34 +1457,34 @@
         <v>16233562</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
         <v>44</v>
       </c>
-      <c r="J18" t="s">
-        <v>46</v>
-      </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1537,10 +1495,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>20.04</v>
@@ -1549,31 +1507,31 @@
         <v>8713662</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1584,10 +1542,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>20.04</v>
@@ -1596,34 +1554,34 @@
         <v>16233562</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1634,10 +1592,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>5.07</v>
@@ -1646,34 +1604,34 @@
         <v>8713662</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1684,10 +1642,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>5.07</v>
@@ -1696,34 +1654,34 @@
         <v>16233562</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1734,10 +1692,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>10.11</v>
@@ -1746,34 +1704,34 @@
         <v>8713662</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
         <v>49</v>
       </c>
-      <c r="K23" t="s">
-        <v>51</v>
-      </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1784,10 +1742,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>10.11</v>
@@ -1796,34 +1754,34 @@
         <v>16233562</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
         <v>49</v>
       </c>
-      <c r="K24" t="s">
-        <v>51</v>
-      </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1834,10 +1792,10 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>10.11</v>
@@ -1846,31 +1804,31 @@
         <v>16390400</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
         <v>49</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>51</v>
       </c>
-      <c r="L25" t="s">
-        <v>54</v>
-      </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1881,10 +1839,10 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>20.01</v>
@@ -1893,34 +1851,34 @@
         <v>11069661</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
         <v>44</v>
       </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1931,10 +1889,10 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>20.01</v>
@@ -1943,34 +1901,34 @@
         <v>20622787</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
         <v>44</v>
       </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1981,10 +1939,10 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>20.02</v>
@@ -1993,31 +1951,31 @@
         <v>22557200</v>
       </c>
       <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
         <v>43</v>
       </c>
-      <c r="I28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" t="s">
-        <v>45</v>
-      </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2028,10 +1986,10 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>4.05</v>
@@ -2040,31 +1998,31 @@
         <v>22557200</v>
       </c>
       <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
         <v>43</v>
       </c>
-      <c r="I29" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" t="s">
-        <v>45</v>
-      </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2075,10 +2033,10 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>27.07</v>
@@ -2087,31 +2045,31 @@
         <v>22557200</v>
       </c>
       <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
         <v>43</v>
       </c>
-      <c r="I30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2122,10 +2080,10 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>30.1</v>
@@ -2134,31 +2092,31 @@
         <v>22557200</v>
       </c>
       <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
         <v>43</v>
       </c>
-      <c r="I31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" t="s">
-        <v>45</v>
-      </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2169,10 +2127,10 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>30.06</v>
@@ -2181,34 +2139,34 @@
         <v>9962695</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2219,10 +2177,10 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>30.06</v>
@@ -2231,34 +2189,34 @@
         <v>18560508</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2269,10 +2227,10 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>30.08</v>
@@ -2281,34 +2239,34 @@
         <v>9962695</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
         <v>48</v>
       </c>
-      <c r="K34" t="s">
-        <v>50</v>
-      </c>
       <c r="L34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2319,10 +2277,10 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>30.08</v>
@@ -2331,34 +2289,34 @@
         <v>18560508</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" t="s">
         <v>48</v>
       </c>
-      <c r="K35" t="s">
-        <v>50</v>
-      </c>
       <c r="L35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2369,10 +2327,10 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>11.1</v>
@@ -2381,34 +2339,34 @@
         <v>8855728</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2419,10 +2377,10 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37">
         <v>11.1</v>
@@ -2431,34 +2389,34 @@
         <v>16498230</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2469,10 +2427,10 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>17.02</v>
@@ -2481,31 +2439,31 @@
         <v>20383025</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
         <v>44</v>
       </c>
-      <c r="J38" t="s">
-        <v>46</v>
-      </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2516,10 +2474,10 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>28.07</v>
@@ -2528,34 +2486,34 @@
         <v>20383025</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2566,10 +2524,10 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>19.11</v>
@@ -2578,31 +2536,31 @@
         <v>20383025</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s">
         <v>49</v>
       </c>
-      <c r="K40" t="s">
-        <v>51</v>
-      </c>
       <c r="L40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2613,10 +2571,10 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <v>20.02</v>
@@ -2625,31 +2583,31 @@
         <v>118916375</v>
       </c>
       <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" t="s">
         <v>43</v>
       </c>
-      <c r="I41" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" t="s">
-        <v>45</v>
-      </c>
       <c r="K41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" t="s">
         <v>52</v>
       </c>
-      <c r="L41" t="s">
-        <v>55</v>
-      </c>
       <c r="M41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2660,10 +2618,10 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E42">
         <v>4.05</v>
@@ -2672,31 +2630,31 @@
         <v>118916375</v>
       </c>
       <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" t="s">
         <v>43</v>
       </c>
-      <c r="I42" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" t="s">
-        <v>45</v>
-      </c>
       <c r="K42" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42" t="s">
         <v>52</v>
       </c>
-      <c r="L42" t="s">
-        <v>55</v>
-      </c>
       <c r="M42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2707,10 +2665,10 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>27.07</v>
@@ -2719,31 +2677,31 @@
         <v>118916375</v>
       </c>
       <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
         <v>43</v>
       </c>
-      <c r="I43" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" t="s">
-        <v>45</v>
-      </c>
       <c r="K43" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" t="s">
         <v>52</v>
       </c>
-      <c r="L43" t="s">
-        <v>55</v>
-      </c>
       <c r="M43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2754,10 +2712,10 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E44">
         <v>30.1</v>
@@ -2766,31 +2724,31 @@
         <v>118916375</v>
       </c>
       <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
         <v>43</v>
       </c>
-      <c r="I44" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" t="s">
-        <v>45</v>
-      </c>
       <c r="K44" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" t="s">
         <v>52</v>
       </c>
-      <c r="L44" t="s">
-        <v>55</v>
-      </c>
       <c r="M44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2801,10 +2759,10 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>27.12</v>
@@ -2813,34 +2771,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
         <v>43</v>
       </c>
-      <c r="I45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" t="s">
-        <v>45</v>
-      </c>
       <c r="K45" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" t="s">
         <v>52</v>
       </c>
-      <c r="L45" t="s">
-        <v>55</v>
-      </c>
       <c r="M45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2851,10 +2809,10 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E46">
         <v>21.02</v>
@@ -2863,34 +2821,34 @@
         <v>22341342</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s">
         <v>43</v>
       </c>
-      <c r="I46" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" t="s">
-        <v>45</v>
-      </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2901,10 +2859,10 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E47">
         <v>21.02</v>
@@ -2913,34 +2871,34 @@
         <v>11992132</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
         <v>43</v>
       </c>
-      <c r="I47" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" t="s">
-        <v>45</v>
-      </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2951,10 +2909,10 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>31.05</v>
@@ -2963,34 +2921,34 @@
         <v>11992132</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
         <v>43</v>
       </c>
-      <c r="I48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" t="s">
-        <v>45</v>
-      </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3001,10 +2959,10 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E49">
         <v>31.05</v>
@@ -3013,34 +2971,34 @@
         <v>22341342</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" t="s">
         <v>43</v>
       </c>
-      <c r="I49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49" t="s">
-        <v>45</v>
-      </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3051,10 +3009,10 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E50">
         <v>27.07</v>
@@ -3063,34 +3021,34 @@
         <v>11992132</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
         <v>43</v>
       </c>
-      <c r="I50" t="s">
-        <v>44</v>
-      </c>
-      <c r="J50" t="s">
-        <v>45</v>
-      </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3101,10 +3059,10 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <v>27.07</v>
@@ -3113,34 +3071,34 @@
         <v>22341342</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s">
         <v>43</v>
       </c>
-      <c r="I51" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51" t="s">
-        <v>45</v>
-      </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3151,10 +3109,10 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E52">
         <v>30.1</v>
@@ -3163,34 +3121,34 @@
         <v>11992132</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s">
         <v>43</v>
       </c>
-      <c r="I52" t="s">
-        <v>44</v>
-      </c>
-      <c r="J52" t="s">
-        <v>45</v>
-      </c>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3201,10 +3159,10 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E53">
         <v>30.1</v>
@@ -3213,704 +3171,34 @@
         <v>22341342</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s">
         <v>43</v>
       </c>
-      <c r="I53" t="s">
-        <v>44</v>
-      </c>
-      <c r="J53" t="s">
-        <v>45</v>
-      </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54">
-        <v>17.01</v>
-      </c>
-      <c r="F54">
-        <v>23251275</v>
-      </c>
-      <c r="H54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" t="s">
-        <v>46</v>
-      </c>
-      <c r="K54" t="s">
-        <v>53</v>
-      </c>
-      <c r="L54" t="s">
-        <v>54</v>
-      </c>
-      <c r="M54" t="s">
-        <v>58</v>
-      </c>
-      <c r="N54" t="s">
-        <v>62</v>
-      </c>
-      <c r="O54" t="s">
-        <v>58</v>
-      </c>
-      <c r="P54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55">
-        <v>17.01</v>
-      </c>
-      <c r="F55">
-        <v>12361121</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55" t="s">
-        <v>46</v>
-      </c>
-      <c r="K55" t="s">
-        <v>53</v>
-      </c>
-      <c r="L55" t="s">
-        <v>56</v>
-      </c>
-      <c r="M55" t="s">
-        <v>60</v>
-      </c>
-      <c r="N55" t="s">
-        <v>64</v>
-      </c>
-      <c r="O55" t="s">
-        <v>60</v>
-      </c>
-      <c r="P55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56">
-        <v>17.01</v>
-      </c>
-      <c r="F56">
-        <v>23028778</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" t="s">
-        <v>44</v>
-      </c>
-      <c r="J56" t="s">
-        <v>46</v>
-      </c>
-      <c r="K56" t="s">
-        <v>53</v>
-      </c>
-      <c r="L56" t="s">
-        <v>56</v>
-      </c>
-      <c r="M56" t="s">
-        <v>60</v>
-      </c>
-      <c r="N56" t="s">
-        <v>64</v>
-      </c>
-      <c r="O56" t="s">
-        <v>60</v>
-      </c>
-      <c r="P56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57">
-        <v>17.01</v>
-      </c>
-      <c r="F57">
-        <v>122575350</v>
-      </c>
-      <c r="H57" t="s">
-        <v>43</v>
-      </c>
-      <c r="I57" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57" t="s">
-        <v>53</v>
-      </c>
-      <c r="L57" t="s">
-        <v>55</v>
-      </c>
-      <c r="M57" t="s">
-        <v>59</v>
-      </c>
-      <c r="N57" t="s">
-        <v>63</v>
-      </c>
-      <c r="O57" t="s">
-        <v>59</v>
-      </c>
-      <c r="P57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58">
-        <v>17.01</v>
-      </c>
-      <c r="F58">
-        <v>28915125</v>
-      </c>
-      <c r="H58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I58" t="s">
-        <v>44</v>
-      </c>
-      <c r="J58" t="s">
-        <v>46</v>
-      </c>
-      <c r="K58" t="s">
-        <v>53</v>
-      </c>
-      <c r="L58" t="s">
-        <v>57</v>
-      </c>
-      <c r="M58" t="s">
-        <v>61</v>
-      </c>
-      <c r="N58" t="s">
-        <v>65</v>
-      </c>
-      <c r="O58" t="s">
-        <v>61</v>
-      </c>
-      <c r="P58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59">
-        <v>18.04</v>
-      </c>
-      <c r="F59">
-        <v>28915125</v>
-      </c>
-      <c r="H59" t="s">
-        <v>43</v>
-      </c>
-      <c r="I59" t="s">
-        <v>44</v>
-      </c>
-      <c r="J59" t="s">
-        <v>47</v>
-      </c>
-      <c r="K59" t="s">
-        <v>53</v>
-      </c>
-      <c r="L59" t="s">
-        <v>57</v>
-      </c>
-      <c r="M59" t="s">
-        <v>61</v>
-      </c>
-      <c r="N59" t="s">
-        <v>65</v>
-      </c>
-      <c r="O59" t="s">
-        <v>61</v>
-      </c>
-      <c r="P59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60">
-        <v>18.04</v>
-      </c>
-      <c r="F60">
-        <v>122575350</v>
-      </c>
-      <c r="H60" t="s">
-        <v>43</v>
-      </c>
-      <c r="I60" t="s">
-        <v>44</v>
-      </c>
-      <c r="J60" t="s">
-        <v>47</v>
-      </c>
-      <c r="K60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L60" t="s">
-        <v>55</v>
-      </c>
-      <c r="M60" t="s">
-        <v>59</v>
-      </c>
-      <c r="N60" t="s">
-        <v>63</v>
-      </c>
-      <c r="O60" t="s">
-        <v>59</v>
-      </c>
-      <c r="P60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61">
-        <v>18.04</v>
-      </c>
-      <c r="F61">
-        <v>12361121</v>
-      </c>
-      <c r="G61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" t="s">
-        <v>43</v>
-      </c>
-      <c r="I61" t="s">
-        <v>44</v>
-      </c>
-      <c r="J61" t="s">
-        <v>47</v>
-      </c>
-      <c r="K61" t="s">
-        <v>53</v>
-      </c>
-      <c r="L61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M61" t="s">
-        <v>60</v>
-      </c>
-      <c r="N61" t="s">
-        <v>64</v>
-      </c>
-      <c r="O61" t="s">
-        <v>60</v>
-      </c>
-      <c r="P61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62">
-        <v>18.04</v>
-      </c>
-      <c r="F62">
-        <v>23028778</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s">
-        <v>43</v>
-      </c>
-      <c r="I62" t="s">
-        <v>44</v>
-      </c>
-      <c r="J62" t="s">
-        <v>47</v>
-      </c>
-      <c r="K62" t="s">
-        <v>53</v>
-      </c>
-      <c r="L62" t="s">
-        <v>56</v>
-      </c>
-      <c r="M62" t="s">
-        <v>60</v>
-      </c>
-      <c r="N62" t="s">
-        <v>64</v>
-      </c>
-      <c r="O62" t="s">
-        <v>60</v>
-      </c>
-      <c r="P62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63">
-        <v>18.04</v>
-      </c>
-      <c r="F63">
-        <v>23251275</v>
-      </c>
-      <c r="H63" t="s">
-        <v>43</v>
-      </c>
-      <c r="I63" t="s">
-        <v>44</v>
-      </c>
-      <c r="J63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K63" t="s">
-        <v>53</v>
-      </c>
-      <c r="L63" t="s">
-        <v>54</v>
-      </c>
-      <c r="M63" t="s">
-        <v>58</v>
-      </c>
-      <c r="N63" t="s">
-        <v>62</v>
-      </c>
-      <c r="O63" t="s">
-        <v>58</v>
-      </c>
-      <c r="P63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64">
-        <v>15.07</v>
-      </c>
-      <c r="F64">
-        <v>23028778</v>
-      </c>
-      <c r="H64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I64" t="s">
-        <v>44</v>
-      </c>
-      <c r="J64" t="s">
-        <v>48</v>
-      </c>
-      <c r="K64" t="s">
-        <v>53</v>
-      </c>
-      <c r="L64" t="s">
-        <v>56</v>
-      </c>
-      <c r="M64" t="s">
-        <v>60</v>
-      </c>
-      <c r="N64" t="s">
-        <v>64</v>
-      </c>
-      <c r="O64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65">
-        <v>15.07</v>
-      </c>
-      <c r="F65">
-        <v>12361121</v>
-      </c>
-      <c r="H65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I65" t="s">
-        <v>44</v>
-      </c>
-      <c r="J65" t="s">
-        <v>48</v>
-      </c>
-      <c r="K65" t="s">
-        <v>53</v>
-      </c>
-      <c r="L65" t="s">
-        <v>56</v>
-      </c>
-      <c r="M65" t="s">
-        <v>60</v>
-      </c>
-      <c r="N65" t="s">
-        <v>64</v>
-      </c>
-      <c r="O65" t="s">
-        <v>60</v>
-      </c>
-      <c r="P65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66">
-        <v>15.07</v>
-      </c>
-      <c r="F66">
-        <v>23251275</v>
-      </c>
-      <c r="H66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I66" t="s">
-        <v>44</v>
-      </c>
-      <c r="J66" t="s">
-        <v>48</v>
-      </c>
-      <c r="K66" t="s">
-        <v>53</v>
-      </c>
-      <c r="L66" t="s">
-        <v>54</v>
-      </c>
-      <c r="M66" t="s">
-        <v>58</v>
-      </c>
-      <c r="N66" t="s">
-        <v>62</v>
-      </c>
-      <c r="O66" t="s">
-        <v>58</v>
-      </c>
-      <c r="P66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67">
-        <v>15.07</v>
-      </c>
-      <c r="F67">
-        <v>122575350</v>
-      </c>
-      <c r="H67" t="s">
-        <v>43</v>
-      </c>
-      <c r="I67" t="s">
-        <v>44</v>
-      </c>
-      <c r="J67" t="s">
-        <v>48</v>
-      </c>
-      <c r="K67" t="s">
-        <v>53</v>
-      </c>
-      <c r="L67" t="s">
-        <v>55</v>
-      </c>
-      <c r="M67" t="s">
-        <v>59</v>
-      </c>
-      <c r="N67" t="s">
-        <v>63</v>
-      </c>
-      <c r="O67" t="s">
-        <v>59</v>
-      </c>
-      <c r="P67" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="98">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -91,6 +91,12 @@
     <t>АКЦІОНЕРНЕ ТОВАРИСТВО "ДЕРЖАВНИЙ ЕКСПОРТНО-ІМПОРТНИЙ БАНК УКРАЇНИ"</t>
   </si>
   <si>
+    <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК" </t>
+  </si>
+  <si>
+    <t>Рахунок для отримання коштів державного фінансування статутної діяльності політичної партії</t>
+  </si>
+  <si>
     <t>09804119</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «ВСЕУКРАЇНСЬКЕ ОБ'ЄДНАННЯ «БАТЬКІВЩИНА»</t>
   </si>
   <si>
@@ -211,61 +220,94 @@
     <t>6e058a80-ead3-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>1d67bc60-e6b9-11ee-90b7-9b9aa9321258</t>
+  </si>
+  <si>
+    <t>ea506270-e6c0-11ee-af95-b364b0fb06da</t>
+  </si>
+  <si>
+    <t>55197210-e6c9-11ee-8b5a-f7f195166b05</t>
+  </si>
+  <si>
+    <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
+  </si>
+  <si>
+    <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
+  </si>
+  <si>
+    <t>8df6f610-e864-11ee-8b5a-f7f195166b05</t>
+  </si>
+  <si>
+    <t>f882f450-e87a-11ee-8b5a-f7f195166b05</t>
+  </si>
+  <si>
+    <t>ab38df80-e90a-11ee-a5cc-0f6c6369ddf7</t>
+  </si>
+  <si>
+    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>a0f57dc0-eab4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>e05f7b60-eab8-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>65ee5900-0944-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>01254c20-0d24-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>f039b1c0-54c8-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>7a6df6a0-557b-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>852f1810-9d08-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
     <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
   </si>
   <si>
-    <t>1d67bc60-e6b9-11ee-90b7-9b9aa9321258</t>
-  </si>
-  <si>
-    <t>ea506270-e6c0-11ee-af95-b364b0fb06da</t>
-  </si>
-  <si>
-    <t>55197210-e6c9-11ee-8b5a-f7f195166b05</t>
-  </si>
-  <si>
-    <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
-  </si>
-  <si>
-    <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
-  </si>
-  <si>
     <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
   </si>
   <si>
     <t>470c80e0-e791-11ee-90b7-9b9aa9321258</t>
-  </si>
-  <si>
-    <t>8df6f610-e864-11ee-8b5a-f7f195166b05</t>
-  </si>
-  <si>
-    <t>f882f450-e87a-11ee-8b5a-f7f195166b05</t>
-  </si>
-  <si>
-    <t>ab38df80-e90a-11ee-a5cc-0f6c6369ddf7</t>
-  </si>
-  <si>
-    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>a0f57dc0-eab4-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>e05f7b60-eab8-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
   </si>
 </sst>
 </file>
@@ -623,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,10 +729,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>21.01</v>
@@ -699,31 +741,31 @@
         <v>20822025</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -734,10 +776,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>30.06</v>
@@ -746,31 +788,31 @@
         <v>18739822</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -781,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>30.08</v>
@@ -793,31 +835,31 @@
         <v>18739822</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -828,10 +870,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>20.1</v>
@@ -840,31 +882,31 @@
         <v>16657620</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -875,10 +917,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>17.02</v>
@@ -887,31 +929,31 @@
         <v>86406500</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -922,10 +964,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>20.04</v>
@@ -934,31 +976,31 @@
         <v>86406500</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -969,10 +1011,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>5.07</v>
@@ -981,31 +1023,31 @@
         <v>86406500</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1016,10 +1058,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>10.11</v>
@@ -1028,31 +1070,31 @@
         <v>86406500</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1060,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1069,37 +1111,37 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>20.1</v>
+        <v>17.02</v>
       </c>
       <c r="F10">
-        <v>87815180</v>
+        <v>16390400</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1107,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1116,37 +1158,40 @@
         <v>33</v>
       </c>
       <c r="E11">
-        <v>30.06</v>
+        <v>20.04</v>
       </c>
       <c r="F11">
-        <v>98792077</v>
+        <v>16390400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1154,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1163,37 +1208,40 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>30.08</v>
+        <v>5.07</v>
       </c>
       <c r="F12">
-        <v>98792077</v>
+        <v>16390400</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1201,46 +1249,46 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>21.01</v>
+        <v>17.02</v>
       </c>
       <c r="F13">
-        <v>109768975</v>
+        <v>8713662</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1248,46 +1296,49 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>17.02</v>
       </c>
       <c r="F14">
-        <v>16390400</v>
+        <v>16233562</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1295,49 +1346,46 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>20.04</v>
       </c>
       <c r="F15">
-        <v>16390400</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
+        <v>8713662</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1345,49 +1393,49 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>5.07</v>
+        <v>20.04</v>
       </c>
       <c r="F16">
-        <v>16390400</v>
+        <v>16233562</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1395,46 +1443,46 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>17.02</v>
+        <v>10.11</v>
       </c>
       <c r="F17">
-        <v>8713662</v>
+        <v>16390400</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1445,46 +1493,46 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>17.02</v>
+        <v>20.01</v>
       </c>
       <c r="F18">
-        <v>16233562</v>
+        <v>11069661</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1495,43 +1543,46 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>20.04</v>
+        <v>20.01</v>
       </c>
       <c r="F19">
-        <v>8713662</v>
+        <v>20622787</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1539,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -1548,40 +1599,37 @@
         <v>34</v>
       </c>
       <c r="E20">
-        <v>20.04</v>
+        <v>20.02</v>
       </c>
       <c r="F20">
-        <v>16233562</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
+        <v>22557200</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1589,7 +1637,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1598,40 +1646,37 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>5.07</v>
+        <v>4.05</v>
       </c>
       <c r="F21">
-        <v>8713662</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
+        <v>22557200</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1639,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -1648,40 +1693,37 @@
         <v>34</v>
       </c>
       <c r="E22">
-        <v>5.07</v>
+        <v>27.07</v>
       </c>
       <c r="F22">
-        <v>16233562</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
+        <v>22557200</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1689,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -1698,40 +1740,37 @@
         <v>34</v>
       </c>
       <c r="E23">
-        <v>10.11</v>
+        <v>30.1</v>
       </c>
       <c r="F23">
-        <v>8713662</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
+        <v>22557200</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1742,46 +1781,46 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>10.11</v>
+        <v>30.06</v>
       </c>
       <c r="F24">
-        <v>16233562</v>
+        <v>9962695</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1789,46 +1828,49 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>10.11</v>
+        <v>30.06</v>
       </c>
       <c r="F25">
-        <v>16390400</v>
+        <v>18560508</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1839,46 +1881,46 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>20.01</v>
+        <v>30.08</v>
       </c>
       <c r="F26">
-        <v>11069661</v>
+        <v>9962695</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1889,46 +1931,46 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27">
-        <v>20.01</v>
+        <v>30.08</v>
       </c>
       <c r="F27">
-        <v>20622787</v>
+        <v>18560508</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1936,46 +1978,49 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E28">
-        <v>20.02</v>
+        <v>11.1</v>
       </c>
       <c r="F28">
-        <v>22557200</v>
+        <v>8855728</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
         <v>50</v>
       </c>
       <c r="L28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1983,46 +2028,49 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>4.05</v>
+        <v>11.1</v>
       </c>
       <c r="F29">
-        <v>22557200</v>
+        <v>16498230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s">
         <v>50</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2030,46 +2078,46 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>27.07</v>
+        <v>17.02</v>
       </c>
       <c r="F30">
-        <v>22557200</v>
+        <v>20383025</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2077,46 +2125,49 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E31">
-        <v>30.1</v>
+        <v>28.07</v>
       </c>
       <c r="F31">
-        <v>22557200</v>
+        <v>20383025</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2124,49 +2175,46 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>30.06</v>
+        <v>19.11</v>
       </c>
       <c r="F32">
-        <v>9962695</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
+        <v>20383025</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N32" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" t="s">
         <v>61</v>
       </c>
-      <c r="O32" t="s">
-        <v>57</v>
-      </c>
       <c r="P32" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2174,49 +2222,46 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>30.06</v>
+        <v>20.02</v>
       </c>
       <c r="F33">
-        <v>18560508</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
+        <v>118916375</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
         <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2224,49 +2269,46 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>30.08</v>
+        <v>4.05</v>
       </c>
       <c r="F34">
-        <v>9962695</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
+        <v>118916375</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P34" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2274,49 +2316,46 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>30.08</v>
+        <v>27.07</v>
       </c>
       <c r="F35">
-        <v>18560508</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
+        <v>118916375</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2324,49 +2363,46 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>11.1</v>
+        <v>30.1</v>
       </c>
       <c r="F36">
-        <v>8855728</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
+        <v>118916375</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2374,49 +2410,49 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E37">
-        <v>11.1</v>
+        <v>27.12</v>
       </c>
       <c r="F37">
-        <v>16498230</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2424,46 +2460,49 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E38">
-        <v>17.02</v>
+        <v>21.02</v>
       </c>
       <c r="F38">
-        <v>20383025</v>
+        <v>22341342</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2471,49 +2510,49 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>28.07</v>
+        <v>21.02</v>
       </c>
       <c r="F39">
-        <v>20383025</v>
+        <v>11992132</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2521,46 +2560,49 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>19.11</v>
+        <v>31.05</v>
       </c>
       <c r="F40">
-        <v>20383025</v>
+        <v>11992132</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2568,46 +2610,49 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>20.02</v>
+        <v>31.05</v>
       </c>
       <c r="F41">
-        <v>118916375</v>
+        <v>22341342</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2615,46 +2660,49 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>4.05</v>
+        <v>27.07</v>
       </c>
       <c r="F42">
-        <v>118916375</v>
+        <v>11992132</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2662,46 +2710,49 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>27.07</v>
       </c>
       <c r="F43">
-        <v>118916375</v>
+        <v>22341342</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2709,46 +2760,49 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E44">
         <v>30.1</v>
       </c>
       <c r="F44">
-        <v>118916375</v>
+        <v>11992132</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2756,49 +2810,49 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E45">
-        <v>27.12</v>
+        <v>30.1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>22341342</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L45" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2806,49 +2860,46 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E46">
-        <v>21.02</v>
+        <v>17.01</v>
       </c>
       <c r="F46">
-        <v>22341342</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
+        <v>23251275</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2859,46 +2910,46 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>21.02</v>
+        <v>17.01</v>
       </c>
       <c r="F47">
-        <v>11992132</v>
+        <v>12361121</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N47" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2909,46 +2960,46 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>31.05</v>
+        <v>17.01</v>
       </c>
       <c r="F48">
-        <v>11992132</v>
+        <v>23028778</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2956,49 +3007,46 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E49">
-        <v>31.05</v>
+        <v>17.01</v>
       </c>
       <c r="F49">
-        <v>22341342</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
+        <v>122575350</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3006,49 +3054,46 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50">
-        <v>27.07</v>
+        <v>17.01</v>
       </c>
       <c r="F50">
-        <v>11992132</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
+        <v>28915125</v>
       </c>
       <c r="H50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L50" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M50" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N50" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50" t="s">
         <v>61</v>
       </c>
-      <c r="O50" t="s">
-        <v>57</v>
-      </c>
       <c r="P50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3056,49 +3101,46 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51">
-        <v>27.07</v>
+        <v>18.04</v>
       </c>
       <c r="F51">
-        <v>22341342</v>
-      </c>
-      <c r="G51" t="s">
-        <v>39</v>
+        <v>28915125</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L51" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M51" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N51" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" t="s">
         <v>61</v>
       </c>
-      <c r="O51" t="s">
-        <v>57</v>
-      </c>
       <c r="P51" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3106,49 +3148,46 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E52">
-        <v>30.1</v>
+        <v>18.04</v>
       </c>
       <c r="F52">
-        <v>11992132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
+        <v>122575350</v>
       </c>
       <c r="H52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P52" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3159,46 +3198,719 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>18.04</v>
+      </c>
+      <c r="F53">
+        <v>12361121</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" t="s">
+        <v>60</v>
+      </c>
+      <c r="N53" t="s">
+        <v>64</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>18.04</v>
+      </c>
+      <c r="F54">
+        <v>23028778</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L54" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" t="s">
+        <v>60</v>
+      </c>
+      <c r="N54" t="s">
+        <v>64</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
         <v>28</v>
       </c>
-      <c r="D53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53">
-        <v>30.1</v>
-      </c>
-      <c r="F53">
-        <v>22341342</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>18.04</v>
+      </c>
+      <c r="F55">
+        <v>23251275</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" t="s">
+        <v>53</v>
+      </c>
+      <c r="L55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N55" t="s">
+        <v>62</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>15.07</v>
+      </c>
+      <c r="F56">
+        <v>23028778</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M56" t="s">
+        <v>60</v>
+      </c>
+      <c r="N56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>15.07</v>
+      </c>
+      <c r="F57">
+        <v>12361121</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" t="s">
+        <v>56</v>
+      </c>
+      <c r="M57" t="s">
+        <v>60</v>
+      </c>
+      <c r="N57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58">
+        <v>15.07</v>
+      </c>
+      <c r="F58">
+        <v>23251275</v>
+      </c>
+      <c r="H58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" t="s">
+        <v>54</v>
+      </c>
+      <c r="M58" t="s">
+        <v>58</v>
+      </c>
+      <c r="N58" t="s">
+        <v>62</v>
+      </c>
+      <c r="O58" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>15.07</v>
+      </c>
+      <c r="F59">
+        <v>122575350</v>
+      </c>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s">
+        <v>48</v>
+      </c>
+      <c r="K59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" t="s">
+        <v>59</v>
+      </c>
+      <c r="N59" t="s">
+        <v>63</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>20.1</v>
+      </c>
+      <c r="F60">
+        <v>87815180</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" t="s">
+        <v>59</v>
+      </c>
+      <c r="N60" t="s">
+        <v>63</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61">
+        <v>30.06</v>
+      </c>
+      <c r="F61">
+        <v>98792077</v>
+      </c>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" t="s">
+        <v>55</v>
+      </c>
+      <c r="M61" t="s">
+        <v>59</v>
+      </c>
+      <c r="N61" t="s">
+        <v>63</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62">
+        <v>30.08</v>
+      </c>
+      <c r="F62">
+        <v>98792077</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" t="s">
+        <v>55</v>
+      </c>
+      <c r="M62" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" t="s">
+        <v>63</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63">
+        <v>21.01</v>
+      </c>
+      <c r="F63">
+        <v>109768975</v>
+      </c>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" t="s">
+        <v>55</v>
+      </c>
+      <c r="M63" t="s">
+        <v>59</v>
+      </c>
+      <c r="N63" t="s">
+        <v>63</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64">
+        <v>5.07</v>
+      </c>
+      <c r="F64">
+        <v>8713662</v>
+      </c>
+      <c r="G64" t="s">
         <v>41</v>
       </c>
-      <c r="I53" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" t="s">
-        <v>53</v>
-      </c>
-      <c r="M53" t="s">
-        <v>57</v>
-      </c>
-      <c r="N53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O53" t="s">
-        <v>57</v>
-      </c>
-      <c r="P53" t="s">
-        <v>83</v>
+      <c r="H64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" t="s">
+        <v>51</v>
+      </c>
+      <c r="L64" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" t="s">
+        <v>60</v>
+      </c>
+      <c r="N64" t="s">
+        <v>64</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65">
+        <v>5.07</v>
+      </c>
+      <c r="F65">
+        <v>16233562</v>
+      </c>
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s">
+        <v>44</v>
+      </c>
+      <c r="J65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65" t="s">
+        <v>51</v>
+      </c>
+      <c r="L65" t="s">
+        <v>56</v>
+      </c>
+      <c r="M65" t="s">
+        <v>60</v>
+      </c>
+      <c r="N65" t="s">
+        <v>64</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66">
+        <v>10.11</v>
+      </c>
+      <c r="F66">
+        <v>8713662</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" t="s">
+        <v>49</v>
+      </c>
+      <c r="K66" t="s">
+        <v>51</v>
+      </c>
+      <c r="L66" t="s">
+        <v>56</v>
+      </c>
+      <c r="M66" t="s">
+        <v>60</v>
+      </c>
+      <c r="N66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67">
+        <v>10.11</v>
+      </c>
+      <c r="F67">
+        <v>16233562</v>
+      </c>
+      <c r="G67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" t="s">
+        <v>51</v>
+      </c>
+      <c r="L67" t="s">
+        <v>56</v>
+      </c>
+      <c r="M67" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67" t="s">
+        <v>64</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -235,6 +235,12 @@
     <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
   </si>
   <si>
+    <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
+  </si>
+  <si>
+    <t>470c80e0-e791-11ee-90b7-9b9aa9321258</t>
+  </si>
+  <si>
     <t>8df6f610-e864-11ee-8b5a-f7f195166b05</t>
   </si>
   <si>
@@ -302,12 +308,6 @@
   </si>
   <si>
     <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
-  </si>
-  <si>
-    <t>470c80e0-e791-11ee-90b7-9b9aa9321258</t>
   </si>
 </sst>
 </file>
@@ -1443,19 +1443,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>10.11</v>
+        <v>5.07</v>
       </c>
       <c r="F17">
-        <v>16390400</v>
+        <v>8713662</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -1464,22 +1467,22 @@
         <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
         <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
         <v>73</v>
@@ -1499,10 +1502,10 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>20.01</v>
+        <v>5.07</v>
       </c>
       <c r="F18">
-        <v>11069661</v>
+        <v>16233562</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -1514,10 +1517,10 @@
         <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
         <v>56</v>
@@ -1532,7 +1535,7 @@
         <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1549,10 +1552,10 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>20.01</v>
+        <v>10.11</v>
       </c>
       <c r="F19">
-        <v>20622787</v>
+        <v>8713662</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -1564,10 +1567,10 @@
         <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
         <v>56</v>
@@ -1590,19 +1593,22 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>20.02</v>
+        <v>10.11</v>
       </c>
       <c r="F20">
-        <v>22557200</v>
+        <v>16233562</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -1611,25 +1617,25 @@
         <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1637,19 +1643,19 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>4.05</v>
+        <v>10.11</v>
       </c>
       <c r="F21">
-        <v>22557200</v>
+        <v>16390400</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
@@ -1658,10 +1664,10 @@
         <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
         <v>54</v>
@@ -1684,19 +1690,22 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>27.07</v>
+        <v>20.01</v>
       </c>
       <c r="F22">
-        <v>22557200</v>
+        <v>11069661</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
@@ -1705,25 +1714,25 @@
         <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1731,19 +1740,22 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>30.1</v>
+        <v>20.01</v>
       </c>
       <c r="F23">
-        <v>22557200</v>
+        <v>20622787</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
@@ -1752,25 +1764,25 @@
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1778,22 +1790,19 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>30.06</v>
+        <v>20.02</v>
       </c>
       <c r="F24">
-        <v>9962695</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
+        <v>22557200</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -1802,25 +1811,25 @@
         <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1828,22 +1837,19 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>30.06</v>
+        <v>4.05</v>
       </c>
       <c r="F25">
-        <v>18560508</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
+        <v>22557200</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
@@ -1852,25 +1858,25 @@
         <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1878,22 +1884,19 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>30.08</v>
+        <v>27.07</v>
       </c>
       <c r="F26">
-        <v>9962695</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
+        <v>22557200</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
@@ -1902,22 +1905,22 @@
         <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P26" t="s">
         <v>77</v>
@@ -1928,22 +1931,19 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>30.08</v>
+        <v>30.1</v>
       </c>
       <c r="F27">
-        <v>18560508</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
+        <v>22557200</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
@@ -1952,22 +1952,22 @@
         <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" t="s">
         <v>77</v>
@@ -1987,10 +1987,10 @@
         <v>36</v>
       </c>
       <c r="E28">
-        <v>11.1</v>
+        <v>30.06</v>
       </c>
       <c r="F28">
-        <v>8855728</v>
+        <v>9962695</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -2002,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
         <v>50</v>
@@ -2037,10 +2037,10 @@
         <v>36</v>
       </c>
       <c r="E29">
-        <v>11.1</v>
+        <v>30.06</v>
       </c>
       <c r="F29">
-        <v>16498230</v>
+        <v>18560508</v>
       </c>
       <c r="G29" t="s">
         <v>41</v>
@@ -2052,7 +2052,7 @@
         <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
         <v>50</v>
@@ -2078,19 +2078,22 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>17.02</v>
+        <v>30.08</v>
       </c>
       <c r="F30">
-        <v>20383025</v>
+        <v>9962695</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
@@ -2099,22 +2102,22 @@
         <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P30" t="s">
         <v>79</v>
@@ -2125,19 +2128,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>28.07</v>
+        <v>30.08</v>
       </c>
       <c r="F31">
-        <v>20383025</v>
+        <v>18560508</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -2152,22 +2155,22 @@
         <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2175,19 +2178,22 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>19.11</v>
+        <v>11.1</v>
       </c>
       <c r="F32">
-        <v>20383025</v>
+        <v>8855728</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
@@ -2199,22 +2205,22 @@
         <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2222,19 +2228,22 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>20.02</v>
+        <v>11.1</v>
       </c>
       <c r="F33">
-        <v>118916375</v>
+        <v>16498230</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
@@ -2243,25 +2252,25 @@
         <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2269,19 +2278,19 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>4.05</v>
+        <v>17.02</v>
       </c>
       <c r="F34">
-        <v>118916375</v>
+        <v>20383025</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
@@ -2290,25 +2299,25 @@
         <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2316,19 +2325,22 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35">
-        <v>27.07</v>
+        <v>28.07</v>
       </c>
       <c r="F35">
-        <v>118916375</v>
+        <v>20383025</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
@@ -2337,22 +2349,22 @@
         <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" t="s">
         <v>82</v>
@@ -2363,19 +2375,19 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>30.1</v>
+        <v>19.11</v>
       </c>
       <c r="F36">
-        <v>118916375</v>
+        <v>20383025</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
@@ -2384,25 +2396,25 @@
         <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2410,22 +2422,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E37">
-        <v>27.12</v>
+        <v>20.02</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>42</v>
+        <v>118916375</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
@@ -2452,7 +2461,7 @@
         <v>59</v>
       </c>
       <c r="P37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2460,22 +2469,19 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E38">
-        <v>21.02</v>
+        <v>4.05</v>
       </c>
       <c r="F38">
-        <v>22341342</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
+        <v>118916375</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
@@ -2490,19 +2496,19 @@
         <v>52</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2510,22 +2516,19 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E39">
-        <v>21.02</v>
+        <v>27.07</v>
       </c>
       <c r="F39">
-        <v>11992132</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
+        <v>118916375</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
@@ -2540,19 +2543,19 @@
         <v>52</v>
       </c>
       <c r="L39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2560,22 +2563,19 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E40">
-        <v>31.05</v>
+        <v>30.1</v>
       </c>
       <c r="F40">
-        <v>11992132</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
+        <v>118916375</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
@@ -2590,19 +2590,19 @@
         <v>52</v>
       </c>
       <c r="L40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2610,22 +2610,22 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41">
-        <v>31.05</v>
+        <v>27.12</v>
       </c>
       <c r="F41">
-        <v>22341342</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
@@ -2640,19 +2640,19 @@
         <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2666,13 +2666,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42">
-        <v>27.07</v>
+        <v>21.02</v>
       </c>
       <c r="F42">
-        <v>11992132</v>
+        <v>22341342</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
@@ -2702,7 +2702,7 @@
         <v>60</v>
       </c>
       <c r="P42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2716,13 +2716,13 @@
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43">
-        <v>27.07</v>
+        <v>21.02</v>
       </c>
       <c r="F43">
-        <v>22341342</v>
+        <v>11992132</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -2752,7 +2752,7 @@
         <v>60</v>
       </c>
       <c r="P43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2769,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="E44">
-        <v>30.1</v>
+        <v>31.05</v>
       </c>
       <c r="F44">
         <v>11992132</v>
@@ -2802,7 +2802,7 @@
         <v>60</v>
       </c>
       <c r="P44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2819,7 +2819,7 @@
         <v>40</v>
       </c>
       <c r="E45">
-        <v>30.1</v>
+        <v>31.05</v>
       </c>
       <c r="F45">
         <v>22341342</v>
@@ -2852,7 +2852,7 @@
         <v>60</v>
       </c>
       <c r="P45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2860,19 +2860,22 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E46">
-        <v>17.01</v>
+        <v>27.07</v>
       </c>
       <c r="F46">
-        <v>23251275</v>
+        <v>11992132</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
@@ -2881,25 +2884,25 @@
         <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2916,10 +2919,10 @@
         <v>40</v>
       </c>
       <c r="E47">
-        <v>17.01</v>
+        <v>27.07</v>
       </c>
       <c r="F47">
-        <v>12361121</v>
+        <v>22341342</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -2931,10 +2934,10 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L47" t="s">
         <v>56</v>
@@ -2966,10 +2969,10 @@
         <v>40</v>
       </c>
       <c r="E48">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F48">
-        <v>23028778</v>
+        <v>11992132</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -2981,10 +2984,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L48" t="s">
         <v>56</v>
@@ -3007,19 +3010,22 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F49">
-        <v>122575350</v>
+        <v>22341342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
@@ -3028,25 +3034,25 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3054,19 +3060,19 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E50">
         <v>17.01</v>
       </c>
       <c r="F50">
-        <v>28915125</v>
+        <v>23251275</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
@@ -3081,19 +3087,19 @@
         <v>53</v>
       </c>
       <c r="L50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3101,19 +3107,22 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F51">
-        <v>28915125</v>
+        <v>12361121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
       </c>
       <c r="H51" t="s">
         <v>43</v>
@@ -3122,25 +3131,25 @@
         <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51" t="s">
         <v>53</v>
       </c>
       <c r="L51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3148,19 +3157,22 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E52">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F52">
-        <v>122575350</v>
+        <v>23028778</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
@@ -3169,25 +3181,25 @@
         <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52" t="s">
         <v>53</v>
       </c>
       <c r="L52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3195,22 +3207,19 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E53">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F53">
-        <v>12361121</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
+        <v>122575350</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
@@ -3219,25 +3228,25 @@
         <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s">
         <v>53</v>
       </c>
       <c r="L53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3245,22 +3254,19 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E54">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F54">
-        <v>23028778</v>
-      </c>
-      <c r="G54" t="s">
-        <v>41</v>
+        <v>28915125</v>
       </c>
       <c r="H54" t="s">
         <v>43</v>
@@ -3269,25 +3275,25 @@
         <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3295,19 +3301,19 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E55">
         <v>18.04</v>
       </c>
       <c r="F55">
-        <v>23251275</v>
+        <v>28915125</v>
       </c>
       <c r="H55" t="s">
         <v>43</v>
@@ -3322,19 +3328,19 @@
         <v>53</v>
       </c>
       <c r="L55" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3342,19 +3348,19 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E56">
-        <v>15.07</v>
+        <v>18.04</v>
       </c>
       <c r="F56">
-        <v>23028778</v>
+        <v>122575350</v>
       </c>
       <c r="H56" t="s">
         <v>43</v>
@@ -3363,25 +3369,25 @@
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s">
         <v>53</v>
       </c>
       <c r="L56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3389,7 +3395,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -3398,11 +3404,14 @@
         <v>40</v>
       </c>
       <c r="E57">
-        <v>15.07</v>
+        <v>18.04</v>
       </c>
       <c r="F57">
         <v>12361121</v>
       </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
       <c r="H57" t="s">
         <v>43</v>
       </c>
@@ -3410,7 +3419,7 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s">
         <v>53</v>
@@ -3436,19 +3445,22 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E58">
-        <v>15.07</v>
+        <v>18.04</v>
       </c>
       <c r="F58">
-        <v>23251275</v>
+        <v>23028778</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
       </c>
       <c r="H58" t="s">
         <v>43</v>
@@ -3457,25 +3469,25 @@
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s">
         <v>53</v>
       </c>
       <c r="L58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3483,19 +3495,19 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>15.07</v>
+        <v>18.04</v>
       </c>
       <c r="F59">
-        <v>122575350</v>
+        <v>23251275</v>
       </c>
       <c r="H59" t="s">
         <v>43</v>
@@ -3504,25 +3516,25 @@
         <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s">
         <v>53</v>
       </c>
       <c r="L59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3530,19 +3542,19 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E60">
-        <v>20.1</v>
+        <v>15.07</v>
       </c>
       <c r="F60">
-        <v>87815180</v>
+        <v>23028778</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
@@ -3551,25 +3563,25 @@
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3577,19 +3589,19 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E61">
-        <v>30.06</v>
+        <v>15.07</v>
       </c>
       <c r="F61">
-        <v>98792077</v>
+        <v>12361121</v>
       </c>
       <c r="H61" t="s">
         <v>43</v>
@@ -3598,25 +3610,25 @@
         <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3624,19 +3636,19 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62">
-        <v>30.08</v>
+        <v>15.07</v>
       </c>
       <c r="F62">
-        <v>98792077</v>
+        <v>23251275</v>
       </c>
       <c r="H62" t="s">
         <v>43</v>
@@ -3645,22 +3657,22 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P62" t="s">
         <v>95</v>
@@ -3680,10 +3692,10 @@
         <v>35</v>
       </c>
       <c r="E63">
-        <v>21.01</v>
+        <v>15.07</v>
       </c>
       <c r="F63">
-        <v>109768975</v>
+        <v>122575350</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
@@ -3692,10 +3704,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L63" t="s">
         <v>55</v>
@@ -3710,7 +3722,7 @@
         <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3718,22 +3730,19 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E64">
-        <v>5.07</v>
+        <v>20.1</v>
       </c>
       <c r="F64">
-        <v>8713662</v>
-      </c>
-      <c r="G64" t="s">
-        <v>41</v>
+        <v>87815180</v>
       </c>
       <c r="H64" t="s">
         <v>43</v>
@@ -3742,25 +3751,25 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3768,22 +3777,19 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65">
-        <v>5.07</v>
+        <v>30.06</v>
       </c>
       <c r="F65">
-        <v>16233562</v>
-      </c>
-      <c r="G65" t="s">
-        <v>41</v>
+        <v>98792077</v>
       </c>
       <c r="H65" t="s">
         <v>43</v>
@@ -3792,25 +3798,25 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3818,22 +3824,19 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E66">
-        <v>10.11</v>
+        <v>30.08</v>
       </c>
       <c r="F66">
-        <v>8713662</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
+        <v>98792077</v>
       </c>
       <c r="H66" t="s">
         <v>43</v>
@@ -3842,22 +3845,22 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P66" t="s">
         <v>97</v>
@@ -3868,22 +3871,19 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E67">
-        <v>10.11</v>
+        <v>21.01</v>
       </c>
       <c r="F67">
-        <v>16233562</v>
-      </c>
-      <c r="G67" t="s">
-        <v>41</v>
+        <v>109768975</v>
       </c>
       <c r="H67" t="s">
         <v>43</v>
@@ -3892,22 +3892,22 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P67" t="s">
         <v>97</v>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -220,6 +220,9 @@
     <t>6e058a80-ead3-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
     <t>1d67bc60-e6b9-11ee-90b7-9b9aa9321258</t>
   </si>
   <si>
@@ -305,9 +308,6 @@
   </si>
   <si>
     <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
-  </si>
-  <si>
-    <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -1102,19 +1102,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>17.02</v>
+        <v>20.1</v>
       </c>
       <c r="F10">
-        <v>16390400</v>
+        <v>87815180</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -1123,22 +1123,22 @@
         <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
         <v>68</v>
@@ -1149,22 +1149,19 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>20.04</v>
+        <v>30.06</v>
       </c>
       <c r="F11">
-        <v>16390400</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
+        <v>98792077</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -1173,25 +1170,25 @@
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1199,22 +1196,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>5.07</v>
+        <v>30.08</v>
       </c>
       <c r="F12">
-        <v>16390400</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
+        <v>98792077</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -1223,25 +1217,25 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1249,19 +1243,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>17.02</v>
+        <v>21.01</v>
       </c>
       <c r="F13">
-        <v>8713662</v>
+        <v>109768975</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -1270,25 +1264,25 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1296,22 +1290,19 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>17.02</v>
       </c>
       <c r="F14">
-        <v>16233562</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
+        <v>16390400</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
@@ -1326,19 +1317,19 @@
         <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1346,19 +1337,22 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>20.04</v>
       </c>
       <c r="F15">
-        <v>8713662</v>
+        <v>16390400</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
@@ -1373,19 +1367,19 @@
         <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1393,19 +1387,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>20.04</v>
+        <v>5.07</v>
       </c>
       <c r="F16">
-        <v>16233562</v>
+        <v>16390400</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1417,25 +1411,25 @@
         <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
         <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1452,14 +1446,11 @@
         <v>36</v>
       </c>
       <c r="E17">
-        <v>5.07</v>
+        <v>17.02</v>
       </c>
       <c r="F17">
         <v>8713662</v>
       </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
@@ -1467,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
         <v>51</v>
@@ -1485,7 +1476,7 @@
         <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1502,7 +1493,7 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>5.07</v>
+        <v>17.02</v>
       </c>
       <c r="F18">
         <v>16233562</v>
@@ -1517,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>51</v>
@@ -1535,7 +1526,7 @@
         <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1552,14 +1543,11 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>10.11</v>
+        <v>20.04</v>
       </c>
       <c r="F19">
         <v>8713662</v>
       </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
       <c r="H19" t="s">
         <v>43</v>
       </c>
@@ -1567,7 +1555,7 @@
         <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
         <v>51</v>
@@ -1585,7 +1573,7 @@
         <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1602,7 +1590,7 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>10.11</v>
+        <v>20.04</v>
       </c>
       <c r="F20">
         <v>16233562</v>
@@ -1617,7 +1605,7 @@
         <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
         <v>51</v>
@@ -1635,7 +1623,7 @@
         <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1643,19 +1631,22 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>10.11</v>
+        <v>5.07</v>
       </c>
       <c r="F21">
-        <v>16390400</v>
+        <v>8713662</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
@@ -1664,25 +1655,25 @@
         <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1699,10 +1690,10 @@
         <v>36</v>
       </c>
       <c r="E22">
-        <v>20.01</v>
+        <v>5.07</v>
       </c>
       <c r="F22">
-        <v>11069661</v>
+        <v>16233562</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -1714,10 +1705,10 @@
         <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
         <v>56</v>
@@ -1732,7 +1723,7 @@
         <v>60</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1749,10 +1740,10 @@
         <v>36</v>
       </c>
       <c r="E23">
-        <v>20.01</v>
+        <v>10.11</v>
       </c>
       <c r="F23">
-        <v>20622787</v>
+        <v>8713662</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -1764,10 +1755,10 @@
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" t="s">
         <v>56</v>
@@ -1782,7 +1773,7 @@
         <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1790,19 +1781,22 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>20.02</v>
+        <v>10.11</v>
       </c>
       <c r="F24">
-        <v>22557200</v>
+        <v>16233562</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -1811,25 +1805,25 @@
         <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1837,19 +1831,19 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>4.05</v>
+        <v>10.11</v>
       </c>
       <c r="F25">
-        <v>22557200</v>
+        <v>16390400</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
@@ -1858,10 +1852,10 @@
         <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
         <v>54</v>
@@ -1876,7 +1870,7 @@
         <v>58</v>
       </c>
       <c r="P25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1884,19 +1878,22 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>27.07</v>
+        <v>20.01</v>
       </c>
       <c r="F26">
-        <v>22557200</v>
+        <v>11069661</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
@@ -1905,22 +1902,22 @@
         <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s">
         <v>77</v>
@@ -1931,19 +1928,22 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27">
-        <v>30.1</v>
+        <v>20.01</v>
       </c>
       <c r="F27">
-        <v>22557200</v>
+        <v>20622787</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
@@ -1952,22 +1952,22 @@
         <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s">
         <v>77</v>
@@ -1978,22 +1978,19 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>30.06</v>
+        <v>20.02</v>
       </c>
       <c r="F28">
-        <v>9962695</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
+        <v>22557200</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
@@ -2002,22 +1999,22 @@
         <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P28" t="s">
         <v>78</v>
@@ -2028,22 +2025,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>30.06</v>
+        <v>4.05</v>
       </c>
       <c r="F29">
-        <v>18560508</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
+        <v>22557200</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
@@ -2052,22 +2046,22 @@
         <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P29" t="s">
         <v>78</v>
@@ -2078,22 +2072,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>30.08</v>
+        <v>27.07</v>
       </c>
       <c r="F30">
-        <v>9962695</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
+        <v>22557200</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
@@ -2102,25 +2093,25 @@
         <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2128,22 +2119,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>30.08</v>
+        <v>30.1</v>
       </c>
       <c r="F31">
-        <v>18560508</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
+        <v>22557200</v>
       </c>
       <c r="H31" t="s">
         <v>43</v>
@@ -2152,25 +2140,25 @@
         <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2187,10 +2175,10 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>11.1</v>
+        <v>30.06</v>
       </c>
       <c r="F32">
-        <v>8855728</v>
+        <v>9962695</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -2202,7 +2190,7 @@
         <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
         <v>50</v>
@@ -2220,7 +2208,7 @@
         <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2237,10 +2225,10 @@
         <v>36</v>
       </c>
       <c r="E33">
-        <v>11.1</v>
+        <v>30.06</v>
       </c>
       <c r="F33">
-        <v>16498230</v>
+        <v>18560508</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
@@ -2252,7 +2240,7 @@
         <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
         <v>50</v>
@@ -2270,7 +2258,7 @@
         <v>60</v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2278,19 +2266,22 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34">
-        <v>17.02</v>
+        <v>30.08</v>
       </c>
       <c r="F34">
-        <v>20383025</v>
+        <v>9962695</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
@@ -2299,25 +2290,25 @@
         <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2325,19 +2316,19 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>28.07</v>
+        <v>30.08</v>
       </c>
       <c r="F35">
-        <v>20383025</v>
+        <v>18560508</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -2352,22 +2343,22 @@
         <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2375,19 +2366,22 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>19.11</v>
+        <v>11.1</v>
       </c>
       <c r="F36">
-        <v>20383025</v>
+        <v>8855728</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
@@ -2399,22 +2393,22 @@
         <v>49</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2422,19 +2416,22 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>20.02</v>
+        <v>11.1</v>
       </c>
       <c r="F37">
-        <v>118916375</v>
+        <v>16498230</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
@@ -2443,25 +2440,25 @@
         <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2469,19 +2466,19 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38">
-        <v>4.05</v>
+        <v>17.02</v>
       </c>
       <c r="F38">
-        <v>118916375</v>
+        <v>20383025</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
@@ -2490,25 +2487,25 @@
         <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2516,19 +2513,22 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E39">
-        <v>27.07</v>
+        <v>28.07</v>
       </c>
       <c r="F39">
-        <v>118916375</v>
+        <v>20383025</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
@@ -2537,25 +2537,25 @@
         <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2563,19 +2563,19 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E40">
-        <v>30.1</v>
+        <v>19.11</v>
       </c>
       <c r="F40">
-        <v>118916375</v>
+        <v>20383025</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
@@ -2584,22 +2584,22 @@
         <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="s">
         <v>84</v>
@@ -2610,22 +2610,19 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E41">
-        <v>27.12</v>
+        <v>20.02</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>42</v>
+        <v>118916375</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
@@ -2652,7 +2649,7 @@
         <v>59</v>
       </c>
       <c r="P41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2660,22 +2657,19 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E42">
-        <v>21.02</v>
+        <v>4.05</v>
       </c>
       <c r="F42">
-        <v>22341342</v>
-      </c>
-      <c r="G42" t="s">
-        <v>41</v>
+        <v>118916375</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
@@ -2690,16 +2684,16 @@
         <v>52</v>
       </c>
       <c r="L42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P42" t="s">
         <v>85</v>
@@ -2710,22 +2704,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>21.02</v>
+        <v>27.07</v>
       </c>
       <c r="F43">
-        <v>11992132</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
+        <v>118916375</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
@@ -2740,16 +2731,16 @@
         <v>52</v>
       </c>
       <c r="L43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P43" t="s">
         <v>85</v>
@@ -2760,22 +2751,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>31.05</v>
+        <v>30.1</v>
       </c>
       <c r="F44">
-        <v>11992132</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
+        <v>118916375</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
@@ -2790,16 +2778,16 @@
         <v>52</v>
       </c>
       <c r="L44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P44" t="s">
         <v>85</v>
@@ -2810,22 +2798,22 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>31.05</v>
+        <v>27.12</v>
       </c>
       <c r="F45">
-        <v>22341342</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
@@ -2840,16 +2828,16 @@
         <v>52</v>
       </c>
       <c r="L45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" t="s">
         <v>85</v>
@@ -2866,13 +2854,13 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46">
-        <v>27.07</v>
+        <v>21.02</v>
       </c>
       <c r="F46">
-        <v>11992132</v>
+        <v>22341342</v>
       </c>
       <c r="G46" t="s">
         <v>41</v>
@@ -2902,7 +2890,7 @@
         <v>60</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2916,13 +2904,13 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>27.07</v>
+        <v>21.02</v>
       </c>
       <c r="F47">
-        <v>22341342</v>
+        <v>11992132</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -2952,7 +2940,7 @@
         <v>60</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2969,7 +2957,7 @@
         <v>40</v>
       </c>
       <c r="E48">
-        <v>30.1</v>
+        <v>31.05</v>
       </c>
       <c r="F48">
         <v>11992132</v>
@@ -3002,7 +2990,7 @@
         <v>60</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3019,7 +3007,7 @@
         <v>40</v>
       </c>
       <c r="E49">
-        <v>30.1</v>
+        <v>31.05</v>
       </c>
       <c r="F49">
         <v>22341342</v>
@@ -3052,7 +3040,7 @@
         <v>60</v>
       </c>
       <c r="P49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3060,19 +3048,22 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>17.01</v>
+        <v>27.07</v>
       </c>
       <c r="F50">
-        <v>23251275</v>
+        <v>11992132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
@@ -3081,22 +3072,22 @@
         <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P50" t="s">
         <v>86</v>
@@ -3116,10 +3107,10 @@
         <v>40</v>
       </c>
       <c r="E51">
-        <v>17.01</v>
+        <v>27.07</v>
       </c>
       <c r="F51">
-        <v>12361121</v>
+        <v>22341342</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -3131,10 +3122,10 @@
         <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
         <v>56</v>
@@ -3149,7 +3140,7 @@
         <v>60</v>
       </c>
       <c r="P51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3166,10 +3157,10 @@
         <v>40</v>
       </c>
       <c r="E52">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F52">
-        <v>23028778</v>
+        <v>11992132</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -3181,10 +3172,10 @@
         <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L52" t="s">
         <v>56</v>
@@ -3199,7 +3190,7 @@
         <v>60</v>
       </c>
       <c r="P52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3207,19 +3198,22 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>17.01</v>
+        <v>30.1</v>
       </c>
       <c r="F53">
-        <v>122575350</v>
+        <v>22341342</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
@@ -3228,25 +3222,25 @@
         <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3254,19 +3248,19 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E54">
         <v>17.01</v>
       </c>
       <c r="F54">
-        <v>28915125</v>
+        <v>23251275</v>
       </c>
       <c r="H54" t="s">
         <v>43</v>
@@ -3281,19 +3275,19 @@
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3301,19 +3295,22 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F55">
-        <v>28915125</v>
+        <v>12361121</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
       </c>
       <c r="H55" t="s">
         <v>43</v>
@@ -3322,25 +3319,25 @@
         <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
         <v>53</v>
       </c>
       <c r="L55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3348,19 +3345,22 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F56">
-        <v>122575350</v>
+        <v>23028778</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
       </c>
       <c r="H56" t="s">
         <v>43</v>
@@ -3369,25 +3369,25 @@
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56" t="s">
         <v>53</v>
       </c>
       <c r="L56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3395,22 +3395,19 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E57">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F57">
-        <v>12361121</v>
-      </c>
-      <c r="G57" t="s">
-        <v>41</v>
+        <v>122575350</v>
       </c>
       <c r="H57" t="s">
         <v>43</v>
@@ -3419,25 +3416,25 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
         <v>53</v>
       </c>
       <c r="L57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3445,22 +3442,19 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E58">
-        <v>18.04</v>
+        <v>17.01</v>
       </c>
       <c r="F58">
-        <v>23028778</v>
-      </c>
-      <c r="G58" t="s">
-        <v>41</v>
+        <v>28915125</v>
       </c>
       <c r="H58" t="s">
         <v>43</v>
@@ -3469,25 +3463,25 @@
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K58" t="s">
         <v>53</v>
       </c>
       <c r="L58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3495,19 +3489,19 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E59">
         <v>18.04</v>
       </c>
       <c r="F59">
-        <v>23251275</v>
+        <v>28915125</v>
       </c>
       <c r="H59" t="s">
         <v>43</v>
@@ -3522,19 +3516,19 @@
         <v>53</v>
       </c>
       <c r="L59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M59" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O59" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3542,19 +3536,19 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E60">
-        <v>15.07</v>
+        <v>18.04</v>
       </c>
       <c r="F60">
-        <v>23028778</v>
+        <v>122575350</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
@@ -3563,25 +3557,25 @@
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
         <v>53</v>
       </c>
       <c r="L60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3589,7 +3583,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
@@ -3598,11 +3592,14 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>15.07</v>
+        <v>18.04</v>
       </c>
       <c r="F61">
         <v>12361121</v>
       </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
       <c r="H61" t="s">
         <v>43</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s">
         <v>53</v>
@@ -3628,7 +3625,7 @@
         <v>60</v>
       </c>
       <c r="P61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3636,19 +3633,22 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E62">
-        <v>15.07</v>
+        <v>18.04</v>
       </c>
       <c r="F62">
-        <v>23251275</v>
+        <v>23028778</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
       </c>
       <c r="H62" t="s">
         <v>43</v>
@@ -3657,25 +3657,25 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
         <v>53</v>
       </c>
       <c r="L62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3683,19 +3683,19 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63">
-        <v>15.07</v>
+        <v>18.04</v>
       </c>
       <c r="F63">
-        <v>122575350</v>
+        <v>23251275</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
@@ -3704,25 +3704,25 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s">
         <v>53</v>
       </c>
       <c r="L63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3730,19 +3730,19 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E64">
-        <v>20.1</v>
+        <v>15.07</v>
       </c>
       <c r="F64">
-        <v>87815180</v>
+        <v>23028778</v>
       </c>
       <c r="H64" t="s">
         <v>43</v>
@@ -3751,25 +3751,25 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3777,19 +3777,19 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>30.06</v>
+        <v>15.07</v>
       </c>
       <c r="F65">
-        <v>98792077</v>
+        <v>12361121</v>
       </c>
       <c r="H65" t="s">
         <v>43</v>
@@ -3798,25 +3798,25 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3824,19 +3824,19 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66">
-        <v>30.08</v>
+        <v>15.07</v>
       </c>
       <c r="F66">
-        <v>98792077</v>
+        <v>23251275</v>
       </c>
       <c r="H66" t="s">
         <v>43</v>
@@ -3845,25 +3845,25 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3880,10 +3880,10 @@
         <v>35</v>
       </c>
       <c r="E67">
-        <v>21.01</v>
+        <v>15.07</v>
       </c>
       <c r="F67">
-        <v>109768975</v>
+        <v>122575350</v>
       </c>
       <c r="H67" t="s">
         <v>43</v>
@@ -3892,10 +3892,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L67" t="s">
         <v>55</v>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="104">
   <si>
     <t>state_funding_form</t>
   </si>
@@ -139,12 +139,21 @@
     <t>UA923805820000026002080316815</t>
   </si>
   <si>
+    <t>UA033805260000002600800159741</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
     <t>48967414.01</t>
   </si>
   <si>
+    <t>27630719.01</t>
+  </si>
+  <si>
+    <t>9344.25</t>
+  </si>
+  <si>
     <t>Центральний офіс</t>
   </si>
   <si>
@@ -308,6 +317,15 @@
   </si>
   <si>
     <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>d1d26b60-e54f-11ef-8519-99527ea3bb0b</t>
+  </si>
+  <si>
+    <t>34271330-e55d-11ef-90d5-ff8d5b0be14c</t>
+  </si>
+  <si>
+    <t>739a8cb0-e790-11ef-b948-e7ea2b294968</t>
   </si>
 </sst>
 </file>
@@ -665,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,31 +759,31 @@
         <v>20822025</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -788,31 +806,31 @@
         <v>18739822</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -835,31 +853,31 @@
         <v>18739822</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -882,31 +900,31 @@
         <v>16657620</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -929,31 +947,31 @@
         <v>86406500</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -976,31 +994,31 @@
         <v>86406500</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1023,31 +1041,31 @@
         <v>86406500</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1070,31 +1088,31 @@
         <v>86406500</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1117,31 +1135,31 @@
         <v>87815180</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1164,31 +1182,31 @@
         <v>98792077</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1211,31 +1229,31 @@
         <v>98792077</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1258,31 +1276,31 @@
         <v>109768975</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1305,31 +1323,31 @@
         <v>16390400</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1352,34 +1370,34 @@
         <v>16390400</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1402,34 +1420,34 @@
         <v>16390400</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1452,31 +1470,31 @@
         <v>8713662</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1499,34 +1517,34 @@
         <v>16233562</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1549,31 +1567,31 @@
         <v>8713662</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1596,34 +1614,34 @@
         <v>16233562</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1646,34 +1664,34 @@
         <v>8713662</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1696,34 +1714,34 @@
         <v>16233562</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1746,34 +1764,34 @@
         <v>8713662</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1796,34 +1814,34 @@
         <v>16233562</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1846,31 +1864,31 @@
         <v>16390400</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1893,34 +1911,34 @@
         <v>11069661</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1943,34 +1961,34 @@
         <v>20622787</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1993,31 +2011,31 @@
         <v>22557200</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2040,31 +2058,31 @@
         <v>22557200</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2087,31 +2105,31 @@
         <v>22557200</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2134,31 +2152,31 @@
         <v>22557200</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2181,34 +2199,34 @@
         <v>9962695</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2231,34 +2249,34 @@
         <v>18560508</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2281,34 +2299,34 @@
         <v>9962695</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2331,34 +2349,34 @@
         <v>18560508</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2381,34 +2399,34 @@
         <v>8855728</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2431,34 +2449,34 @@
         <v>16498230</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2481,31 +2499,31 @@
         <v>20383025</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2528,34 +2546,34 @@
         <v>20383025</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2578,31 +2596,31 @@
         <v>20383025</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2625,31 +2643,31 @@
         <v>118916375</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2672,31 +2690,31 @@
         <v>118916375</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2719,31 +2737,31 @@
         <v>118916375</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2766,31 +2784,31 @@
         <v>118916375</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2813,34 +2831,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2863,34 +2881,34 @@
         <v>22341342</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2913,34 +2931,34 @@
         <v>11992132</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P47" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2963,34 +2981,34 @@
         <v>11992132</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3013,34 +3031,34 @@
         <v>22341342</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3063,34 +3081,34 @@
         <v>11992132</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3113,34 +3131,34 @@
         <v>22341342</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3163,34 +3181,34 @@
         <v>11992132</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3213,34 +3231,34 @@
         <v>22341342</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P53" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3263,31 +3281,31 @@
         <v>23251275</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L54" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P54" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3310,34 +3328,34 @@
         <v>12361121</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3360,34 +3378,34 @@
         <v>23028778</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N56" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P56" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3410,31 +3428,31 @@
         <v>122575350</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N57" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P57" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3457,31 +3475,31 @@
         <v>28915125</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L58" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3504,31 +3522,31 @@
         <v>28915125</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M59" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O59" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P59" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3551,31 +3569,31 @@
         <v>122575350</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M60" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P60" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3598,34 +3616,34 @@
         <v>12361121</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P61" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3648,34 +3666,34 @@
         <v>23028778</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L62" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P62" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3698,31 +3716,31 @@
         <v>23251275</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N63" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P63" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3745,31 +3763,31 @@
         <v>23028778</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L64" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N64" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P64" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3792,31 +3810,31 @@
         <v>12361121</v>
       </c>
       <c r="H65" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L65" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P65" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3839,31 +3857,31 @@
         <v>23251275</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L66" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M66" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N66" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O66" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P66" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3886,31 +3904,272 @@
         <v>122575350</v>
       </c>
       <c r="H67" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" t="s">
+        <v>56</v>
+      </c>
+      <c r="L67" t="s">
+        <v>58</v>
+      </c>
+      <c r="M67" t="s">
+        <v>62</v>
+      </c>
+      <c r="N67" t="s">
+        <v>66</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68">
+        <v>16.1</v>
+      </c>
+      <c r="F68">
+        <v>23251275</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" t="s">
+        <v>56</v>
+      </c>
+      <c r="L68" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68" t="s">
+        <v>61</v>
+      </c>
+      <c r="N68" t="s">
+        <v>65</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69">
+        <v>16.1</v>
+      </c>
+      <c r="F69">
+        <v>122575350</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" t="s">
+        <v>52</v>
+      </c>
+      <c r="K69" t="s">
+        <v>56</v>
+      </c>
+      <c r="L69" t="s">
+        <v>58</v>
+      </c>
+      <c r="M69" t="s">
+        <v>62</v>
+      </c>
+      <c r="N69" t="s">
+        <v>66</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70">
+        <v>27.12</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
         <v>44</v>
       </c>
-      <c r="J67" t="s">
-        <v>48</v>
-      </c>
-      <c r="K67" t="s">
-        <v>53</v>
-      </c>
-      <c r="L67" t="s">
-        <v>55</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" t="s">
+        <v>56</v>
+      </c>
+      <c r="L70" t="s">
+        <v>58</v>
+      </c>
+      <c r="M70" t="s">
+        <v>62</v>
+      </c>
+      <c r="N70" t="s">
+        <v>66</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <v>16.1</v>
+      </c>
+      <c r="F71">
+        <v>23028778</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L71" t="s">
         <v>59</v>
       </c>
-      <c r="N67" t="s">
-        <v>63</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="M71" t="s">
+        <v>63</v>
+      </c>
+      <c r="N71" t="s">
+        <v>67</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>16.1</v>
+      </c>
+      <c r="F72">
+        <v>12361121</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" t="s">
+        <v>56</v>
+      </c>
+      <c r="L72" t="s">
         <v>59</v>
       </c>
-      <c r="P67" t="s">
-        <v>97</v>
+      <c r="M72" t="s">
+        <v>63</v>
+      </c>
+      <c r="N72" t="s">
+        <v>67</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/7_state_funding_transactions.xlsx
+++ b/data/excel_tables/7_state_funding_transactions.xlsx
@@ -310,13 +310,13 @@
     <t>d777d1e0-5585-11ef-976d-d13028d0d5de</t>
   </si>
   <si>
+    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
     <t>852f1810-9d08-11ef-9f9f-af297e478ff7</t>
   </si>
   <si>
     <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
   </si>
   <si>
     <t>d1d26b60-e54f-11ef-8519-99527ea3bb0b</t>
@@ -3748,19 +3748,19 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E64">
         <v>15.07</v>
       </c>
       <c r="F64">
-        <v>23028778</v>
+        <v>122575350</v>
       </c>
       <c r="H64" t="s">
         <v>46</v>
@@ -3775,16 +3775,16 @@
         <v>56</v>
       </c>
       <c r="L64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P64" t="s">
         <v>98</v>
@@ -3807,7 +3807,7 @@
         <v>15.07</v>
       </c>
       <c r="F65">
-        <v>12361121</v>
+        <v>23028778</v>
       </c>
       <c r="H65" t="s">
         <v>46</v>
@@ -3834,7 +3834,7 @@
         <v>63</v>
       </c>
       <c r="P65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3842,19 +3842,19 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E66">
         <v>15.07</v>
       </c>
       <c r="F66">
-        <v>23251275</v>
+        <v>12361121</v>
       </c>
       <c r="H66" t="s">
         <v>46</v>
@@ -3869,16 +3869,16 @@
         <v>56</v>
       </c>
       <c r="L66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P66" t="s">
         <v>99</v>
@@ -3889,19 +3889,19 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E67">
         <v>15.07</v>
       </c>
       <c r="F67">
-        <v>122575350</v>
+        <v>23251275</v>
       </c>
       <c r="H67" t="s">
         <v>46</v>
@@ -3916,16 +3916,16 @@
         <v>56</v>
       </c>
       <c r="L67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P67" t="s">
         <v>100</v>
